--- a/output/Total_time_range_data/江苏省/南通市_学习考察.xlsx
+++ b/output/Total_time_range_data/江苏省/南通市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7230 +436,7910 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>74</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>张建华在赴苏州高新区吴江区考察学习总结交流会上强调扎实推动学习成果高质量转化全力推进中国式现代化通州新实践</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/tzyw/content/6e0437e0-757a-43a2-b631-ed93ab9e1d56.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['张建华在赴苏州高新区、吴江区考察学习总结交流会上强调：扎实推动学习成果高质量转化 全力推进中国式现代化通州新实践-南通市通州区人民政府', '张建华在赴苏州高新区、吴江区考察学习总结交流会上强调：扎实推动学习成果高质量转化 全力推进中国式现代化通州新实践', '通州日报讯 （通讯员施伟办 瞿镇辅 记者顾艳）在结束赴苏州高新区、吴江区学习考察活动后，4月9日上午，通州区党政代表团召开总结交流会。市委常委、区委书记张建华出席会议并强调，要深入贯彻落实市委部署要求，认真学习先进，积极借鉴先进，扎实推动学习成果高质量转化，全力推进中国式现代化通州新实践。', '张建华指出，苏南是全省乃至全国发展的排头兵、领头雁，苏州高新区和吴江更是其中的一个缩影，他们谋事借势“远”，发展思路“清”，工作作风“实”，在把握新发展阶段、贯彻新发展理念、服务新发展格局、实现高质量发展中有着很多真招实招。通过参观考察，通州要在对标学习中努力求得“真经”，把融入国家重大战略部署作为首要任务，结合自身区位优势，顺势而为、乘势而上，坚持一张蓝图绘到底，充分发挥头部企业带动作用，加快产业质态提升，以担当实干的工作作风推进中国式现代化通州新实践。', '张建华强调，考察苏州两地，既要看到先进地区跨越发展的良好势头，更要清醒地看到存在的差距。要认真对照反思，在积极借鉴中不断完善发展思路。要有更强烈的机遇意识，紧紧抓住用好各类重大机遇和政策利好，在激烈的区域竞争中牢牢把握发展的主动权。要有更强烈的争先意识，自觉在长三角“一盘棋”中拉升标杆、追赶先进，推动各项工作争进位、走在前。要有更强烈的创新意识，把创新理念融入经济社会发展的各领域全过程，为改革发展提供强大思想动力。要有更强烈的落实意识，以“钉钉子”精神不遗余力抓落实、齐心协力干事业，坚决杜绝找借口、讲条件。', '张建华强调，努力学做贯通，要在“争当排头兵”中推动学习成果高质量转化。要全面深化双招双引，进一步健全双招双引体制机制，做好产业和创新智库建设，更深层次融入长三角一体化发展格局中去。要全面提速园区建设，继续围绕“1+3”园区发展体系，不断加快项目落户速度，努力提升园区形象和产业承载能力。要全面优化营商环境，常态化开展“服务企业大走访”，更加突出需求导向，在政策兑现、执法监管、解决难题等方面不断创新改革，持续提升企业的体验感。要全面提升城乡建设，按照既定目标，加快城市重点工程建设，努力推动乡村振兴，打造与主城区形象相匹配的城乡环境。要全面提升工作作风，在通州新一轮发展中主动“迎上去”、敢于“豁出去”、真正“沉下去”，多谋实策、多出实招，切实提升通州高质量发展的实效实绩。', '区委副书记、区长王少勇主持会议，他要求，把考察学习成果体现在解放思想、抢抓机遇上，深入学习践行“四千”精神，聚焦重大项目建设、产业科技创新、综合环境提升等关键点和突破口，以前所未有的力度攻坚，加快把机遇优势转化为发展胜势；把考察学习成果体现在转变作风、提升效能上，深入学习吴江干部“争第一、创唯一”的精气神，大力弘扬“激情奋斗、创新争先、务实担当”的新时代通州干部精神特质，以比学赶超的生动实践，激发通州发展的无限潜能；把考察学习成果体现在推动工作、促进发展上，制订切实可行的工作推进措施，突出高质量发展主线，以敢为敢闯敢干敢首创的担当作为，扎实推动中国式现代化通州新实践开好局起好步。', '会上，南通高新区、川姜镇、石港镇、平潮镇及区发改委、科技局、农业农村局主要负责同志交流心得体会。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>74</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>睢宁县行政审批局到海安考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/6df6a772-a424-4a08-a88d-de69eae4c82d.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['3月29日下午，睢宁县行政审批局副局长杨栋良一行10人到海安市行政审批局学习考察“放管服”改革、中介网上超市运营管理、信息宣传和公文写作等方面的经验做法。', '考察组一行参观了海安市政务服务大厅，了解了大厅窗口设置、人员配置、审批职能等相关情况。', '座谈会上，海安市行政审批局相关职能科室介绍了企业开办、工程建设项目审批制度改革、政务服务、公共资源交易、中介网上超市运营管理、信息宣传及公文写作等工作的开展情况、存在的问题及下一步工作打算。双方就如何深化“放管服”改革、优化政务营商环境和中介网上超市运营管理等工作进行了深入探讨。', '双方就企业登记、食品经营许可、个体工商户登记等70项政务服务事项形成“跨域通办”合作，并签订了合作协议。', '此次交流座谈，进一步加强了两地交流合作，为下一步开展相关工作提供了新思路、新启发。海安市行政审批局副局长丁爱武表示，双方要加强沟通、互学互鉴、相互促进，进一步提升服务企业群众水平，持续推动营商环境再优化再提升。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>74</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>崇川区供销合作总社到通州考察学习社有资产运营管理工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/4c682e15-cc7c-4d65-afbc-b9c509dd3aef.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['3月29日上午，崇川区供销合作总社理事会主任贾彦利一行到通州区供销合作总社考察社有资产运营管理、发展本级经济的做法经验。通州区社理事会主任胡劲武陪同考察。', '通州区社介绍了社有资产管理的方法、措施、成效，并就资产运营公司从前期组建到实体化运作等方面的操作步骤进行了详细解读。双方重点围绕综合改革中面临的新形势、新问题以及区级资产运营公司的规范化运作等工作进行了深入探讨。', '2020年以来，通州区社不断建立健全社有资产管理运行机制和监管制度。2021年1月，成立了通州区惠程集体资产运营有限责任公司；2022年10月，建立了区社有资产管理委员会。按照现代企业制度要求，建立和完善社有资产管理办法，强化社有资产监管，对社有企业的剩余资产进行整合，实行了统一管理，社有资产运营管理体系基本形成，社有资产收益不断提升，供销社为农服务的能力和水平显著增强。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>74</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>通州区党政代表团赴苏州高新区吴江区学习考察学习借鉴先进经验加快推动高质量发展</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/ttxw/content/748a3efa-2538-47e9-bd29-cc6a70e65010.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['通州区党政代表团赴苏州高新区、吴江区学习考察 学习借鉴先进经验 加快推动高质量发展-南通市通州区人民政府', '通州区党政代表团赴苏州高新区、吴江区学习考察 学习借鉴先进经验 加快推动高质量发展', '4月7日，市委常委、区委书记张建华，区委副书记、区长王少勇率通州区党政代表团赴苏州高新区、吴江区学习考察。徐浩翔 摄', '通州日报讯 （通讯员施伟办 记者顾艳）4月7日，市委常委、区委书记张建华，区委副书记、区长王少勇率通州区党政代表团赴苏州高新区、吴江区学习考察，认真学习创新发展、平台打造、园区建设、农业现代化等方面的好经验好做法，为“打造新高地 建设硬核区、争当全市高质量发展排头兵”积蓄澎湃动能。吴江区委书记李铭，吴江区委副书记、区长王国荣；苏州高新区党工委副书记、管委会主任宋长宝等陪同考察。', '“园区运作的体制机制是什么？”“从技术研发到产品上市，是如何快速实现技术成果转化的，具体的应用场景有哪些？”“创新生态、集群创新是如何构建起来的？”当天上午，代表团一行考察了苏州高新区展示馆、清华苏州环境创新研究院、江苏医疗器械科技产业园和中移（苏州）软件技术有限公司，详细了解园区开发建设、产业创新集群打造、高端人才集聚、科技成果转化等情况。苏州高新区1990年起开发建设，1992年获批全国首批国家级高新区。开发建设30多年来，始终秉持“发展高科技、实现产业化”初心使命，园区不仅打造了千亿级光子产业创新集群，还着力围绕医疗器械、集成电路、软件和信息技术、绿色低碳等新兴产业四大重点领域，打造高水平创新集群。', '园区高水平、高起点的规划定位，科学精准的产业发展思路和布局，完善的创业创新生态和服务保障体系，给大家留下了深刻印象。大家表示，要认真学习“园区经验”，进一步优化城市空间布局，强化创新能力建设，加快打造一批一流创新平台载体，培育发展新动能。希望两地加强交流、深化合作，共同开创高质量发展新局面。', '近年来，吴江区持续做大做强实体经济，加快向产业创新集群跃升，已形成电子信息、高端纺织、装备制造、新材料四个千亿级产业，数字经济、创新经济、总部经济、服务经济、湖区经济成为新的增长点，拥有高新技术企业超1200家，4家企业入围中国企业500强，6家企业入围中国民企500强，其中恒力、盛虹跻身世界500强。当天下午，在吴江区，代表团先后考察了英诺赛科（苏州）半导体有限公司、吴江国家现代农业示范区（同里核心区）、亨通集团、博众精工科技股份有限公司、中国工业互联网研究院江苏分院，通过看展厅、进基地、听介绍等方式，详细了解企业发展历程、远景规划、产品研发和应用领域等情况，对吴江区在高端智能制造、技术创新成果、农业现代化等方面取得的成绩大为赞赏。', '考察中，李铭对通州区党政代表团一行的到来表示欢迎，并简要介绍了吴江区经济社会发展情况。他希望双方在长三角一体化发展中携手并进，加强优势互补和交流互鉴，协同推进经济社会高质量发展。', '张建华表示，吴江一直是通州学习的榜样和标杆，通过现场学习考察，真切感受到了吴江产业发展质效高、科技创新理念新、乡村振兴成效好，这些经验都值得通州学习借鉴。通州区将突出因地制宜，科学谋划布局，结合产业特色探索推动更高质量发展新路径。', '区领导陈艳梅、葛锦坤、徐林锋、高洪军、王瑜彬、佘德华、陆忠华、袁天明，各镇（街道）、区相关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>74</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>广西南宁市体育局考察学习组赴南通市体育运动学校考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://tyj.nantong.gov.cn//ntstyj/bmdt/content/3a66f74f-96da-4aff-8815-b6ed011e89e1.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['2023年4月13日上午，广西南宁市体育局一行8人在党组书记、局长吴豫的带领下莅临市体育运动学校考察学习交流。南通市体育局党组书记、局长江华，市体育运动学校党委书记、校长顾友斌及校班子成员全程陪同、热情接待。', '顾友斌书记首先带领考察学习组参观了校园环境，向来宾详细介绍了学校的规划布局、队伍建设、校园文化、读训情况等；接着带领考察学习组实地考察了各个训练场馆。江华局长在考察过程中从“五为目标”“五精原则”“五个特别精神”“五青工程”“五类体制机制”等方面，就我市竞技体育发展的情况、专业建设、体教融合、教练员岗位设置等方面进行了经验介绍。', '学校幽雅的环境、浓郁的文化氛围和师生积极向上的精神风貌给考察学习组留下了深刻印象。考察学习组一行对我校的热情接待和经验分享表示衷心感谢，对我校富具特色的办学思路和办学业绩等给予了高度评价和充分肯定，并希望未来一路同行，携手筑梦，共谱学校体育事业新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>74</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>展示经验成果交流共促提升呼伦贝尔市住建局来我市考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/bmyw/content/294b0e37-930a-4b07-9858-eef6c15abd31.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['展示经验成果 交流共促提升——呼伦贝尔市住建局来我市考察学习物业管理工作-南通市人民政府', '近日，呼伦贝尔市住建局副局长罗明星一行来我市考察学习物业管理及行业党建等工作的做法和经验。市物业管理行业党委书记缪世海，市物业行业党委委员、物管中心主任刘海兵，属地社区党委书记张伟参加活动。', '考察组一行首先参观了崇川区钟秀街道盛和花半里小区，实地了解小区物业管理、党建引领示范点项目创建等工作情况。随后双方在市物业行业党委办公室举行了交流和座谈。', '座谈会上，社区书记张伟表示，花半里小区是全省第一批省级行业党建示范点之一，也是我市首批无违建小区。在社区大党委的牵头下，花半里小区创建了“邻里红管家”党建品牌，并持续推出了邻里红管家阵地、违建治理、垃圾分类等惠民项目。去年，中心村社区将“社区食堂”的打造作为重点项目推进，协调整合了相关职能部门、物业公司、第三方机构和人大代表等资源力量，我市首个社区食堂——“邻里红餐厅”成功上线，推动党建服务进一步延伸至居民餐桌上，缓解了小区“一老一幼就餐难”问题。', '市物业行业党委委员、物管中心主任刘海兵结合我市物业行业现状，介绍了物业行业党组织建设基本情况及党建工作的特色做法。他介绍，物业行业党委自成立以来，始终坚持党的领导，不断健全和完善党的组织建设，截至2022年底，我市已成立区县级物业行业党委（党总支）8个，协会党组织2个，组建物业企业党组织105个。同时不断打造“红色物业”，以党建引领物业管理服务省级示范点创建为抓手，推动构建社区党组织领导下的社区、业委会和物业企业多方联动机制，构建议事平台，创建党建平台，搭建党群沟通桥梁，致力解决居民群众身边最直接、最现实的问题。全市共培育级党建示范点69个，省级示范点32个。', '市物业管理行业党委书记缪世海介绍，我市市区住宅小区总体数量达1227个，其中实施市场化物业管理的商品房小区占比37.8%；社区实施管理的老旧小区占比37.6%；另外的安置房、保障房小区占比24.6%。近年来，市住建局坚持问题导向，深入开展市区“物管提升年”“物业管理，你我同行”主题活动和“421”常态检查，通过健全长效管理体制、推行差别管理模式、完善行业管理机制、强化培训引导等举措，在体制机制、日常监管、难题破解、行业引领等方面积极探索，逐个破解管理难点、指导各区物业管理主管部门优化监管服务体系，物业管理品质和社会满意度不断提升。', '考察组表示此次考察学习为推动提升呼伦贝尔市物业管理服务质量、行业党建等工作提供了有益借鉴，下一步将把此次学习交流的成果和呼伦贝尔市的实际情况相结合，推动物业管理行业高质量发展。', '市政府关于苏锡通科技产业园区乐成路北、江泰路西侧地块国有建设用地使用权出让方案的批复', '市政府关于苏锡通科技产业园区海迪路北、江广路西地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区通达路东、海亚路南、海堡路北、东方大道西地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区江河路南、通秀路西、海伦路北、通达路东地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区吉庆路东、宏兴路北、吉顺路西、同仁路南地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区海堡路南、通达路西、海洋路北地块国有建设用地使用权出让方案的批复']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>镇江市润州区考察团来海门考察学习菜篮子工程绿色蔬菜保供基地建设工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/3963794c-57e1-4ad4-9f97-8899761e484c.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['3月8日，镇江市润州区农业农村局组织韦岗街道农业、经济发展和建设等部门负责人一行10人来我区考察学习“菜篮子”工程绿色蔬菜保供基地建设工作情况，海门区农业农村局副局长顾黄辉等人员陪同考察。', '首先来到百卡弗食品有限公司水培萝沙红、萝沙绿等叶菜生产，考察人员从品种选择、营养液配制、温湿度调控、病虫害绿色防控、成本效益等方面同基地负责人刘宁深入交流。', '随后到达乐番天家庭农场水培青菜、基质栽培番茄、基质栽培黄瓜等无土栽培生产基地，考察人员对该基地水肥一体化尾液回收利用每亩可节水节肥1500元的做法深感兴趣，实地察看了相关设施设备，并向负责人陆小伟询问了设备投入与运行情况。', '之后来到强盛农业科技发展有限公司考察了水培苦苣、韭菜、青菜及日光温室设施下袋装基质栽培番茄等现场，考察人员就园区布局、生产管理模式、产销对接等方面同基地负责人深入交流。', '在最后的座谈会上，海门区农业农村局副局长顾黄辉详细介绍了我区绿色蔬菜保供基地发展举措与成效，并从基地定位、生产布局、注意事项等方面为镇江镇润州区蔬菜基地出谋划策。镇江市润州区农业农村局副局长吴贞进等考察人员认为海门区“菜篮子”工程绿色蔬菜保供基地支持力度大、建设水平高 、生产效益好，为他们开阔了眼界、增长了见识、拓展了思维，值得学习借鉴。同时，希望两地加强农业现代化、高质发展、乡村振兴等领域的合作交流，互通有无、实现双赢。（蔬菜站曹国华供稿）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>74</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>海门区赴如皋考察学习病死动物无害化处理工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/fa9895fe-f79e-43dc-b941-093535183c74.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['为更好地研究、制定病死动物无害化处理长效管理机制，3月7日，海门区农业农村局总畜牧兽医师张海峰率畜牧兽医科科长陈杰、派驻泰森检疫组负责人赵国华赴如皋市考察学习病死动物无害化处理工作。', '重点了解了如皋市病死动物及其产品无害化处理基本情况、发展规划及其相关支持政策。实地参观了如皋市利民动物无害化处理中心，并协调江苏泰森食品有限公司病死家禽及其产品委托无害化处理相关事宜。深入交流了病死动物无害化处理管理方面的做法和经验。', '此次考察还邀请了江苏泰森食品有限公司共同参与，明确该公司在委托如皋市利民动物无害化处理中心进行无害化处理期间，为病死畜禽和病害畜禽产品无害化处理第一责任人，必须严格执行各项管理制度，积极配合上级主管部门和官方兽医的监督检查。', '下一步，我区将借鉴考察学习的如皋经验，结合实际情况，进一步规范做好病死动物无害化处理工作，确保畜产品质量安全，确保畜牧业持续健康发展。（畜牧兽医科供稿）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>74</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>阜宁县考察团来我县考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/bmzx/content/9e374f69-4831-49f0-858f-479ca1731784.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['日报讯（通讯员 王甜 全媒体记者 高玉霞 周颖石）10日下午，盐城市阜宁县工信局、智慧办相关负责人带领考察团一行来如考察学习。', '在县县域社会治理现代化指挥中心，考察团听取了中心建设历程、运行理念、案例展示等情况介绍，两地就指挥中心建设、队伍配备管理、经费保障及城区网格化社会治理等方面工作进行深入交流。阜宁县智慧阜宁建设领导小组对我县新建联动指挥平台、打通数据共同通道、便捷群众诉求、加强部门联通、推动社会治理数字化和智能化等工作给予高度评价，表示将学习借鉴我县的成功经验，促进当地社会化治理平台建设再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>74</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>泰安市供销合作社联合社来通考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/9ef766de-d693-4a00-bfa1-89d322b31c6f.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['2月27日，山东省泰安市供销合作社联合社监事会主任靳兆宏带领考察组赴如皋考察学习农村现代流通服务工作的典型经验做法。市供销总社监事会主任赵勇、如皋市供销合作总社理事会主任陈玉峰等陪同考察。', '在中皋农产品供应链有限公司，考察组观看了公司宣传片、听取了有关介绍，了解了该企业“公司+基地+专业合作社+农户”的生产经营模式和“统一供种、统一农业投入品供应、统一农间技术管理、统一收购、统一加工、统一销售”的“六统一”模式；实地参观了企业生产线及配套设施，更加直观地了解了企业的标准化生产及企业的加工能力。', '在江苏皋德食材有限公司，考察组参观了食材展销中心，听取有关负责人介绍了公司的规划建设、主营业务模块、公司在农产品收购、速冻、冷藏、配送、加工、整理与销售以及自有品牌研发方面的思路与举措。考察过程中，考察团重点对江苏皋德食材有限公司在冷链物流方面所做的努力开展了深入交流。', '考察团表示，此次学习考察收获颇丰，如皋市社在推动农产品产业化发展、农产品创新发展等方面的有关举措具有很好的借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>74</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>淮安市来三星考察学习家纺行业产业工人队伍建设改革工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/315635f4-45fe-4bc2-8e54-179857ee6554.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['2月21日下午，淮安市总工会党组书记、副主席王立华一行来三星镇开展家纺行业产业工人队伍建设改革工作参观学习活动。南通市总工会副主席吕建峰，海门区总工会党组书记、主席张成，三星镇人大主席、总工会主席濮慧杰等陪同参观。', '王立华一行首先参观了叠石桥市场职工服务中心，听取了三星镇家纺产改指导站、职工服务中心、劳模工匠集群工作室和创新创业基地等功能室开展工作的情况介绍，重点详尽了解了叠石桥家纺行业现状和产业工人队伍建设改革工作推进情况。', '在参观过程中王立华对三星镇以人为本“打造人人都有人生出彩机会的家纺产业园”的举措表示赞赏，对三星结合实际针对性的出台家纺行业产改措施二十条等创新做法给予了肯定。', '接着他们还参观了三星镇“新驿家·货车司机之家”。听取了货车司机之家“以爱之名，筑暖‘新’之家”的建设理念与建设情况介绍，参观了图书阅览室、党建文化中心、司机休息室、洗衣房、淋浴间等各功能室，重点了解了货车司机建会入会及权益维护、货车司机之家运营情况。', '参观结束时王立华对三星镇产改工作的特色表示赞同，对三星镇落实新业态新就业劳动者阵地建设工作，建设“司机之家”表示肯定。她表示，三星镇总工会作为一个乡镇级工会，能够能做到江苏省的典型，值得学习，值得赞扬。', '接下来，三星镇总工会将继续认真贯彻落实上级产改工作要求，以职工为中心，走好新时代群众路线，永葆“闯”的精神、“创”的劲头、“干”的作风，担当作为、求真务实、全力以赴推动“产改”向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>74</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>滨海新区组织外出考察学习乡村振兴和特色田园乡村建设经验</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/zqdt/content/4cf0eb28-6ce9-4de2-b58c-2019d7fda369.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为学习我省乡村振兴和特色田园乡村建设工作的好经验、好方法，2月21日至22日，滨海新区党工委书记周树群带领部分班子成员、各村（社区）党总支书记及相关部门负责人一行30余人，赴东台、溧阳等地实地考察学习。', '考察组一行先后来到东台市三仓镇兰址村、联南村、官苴村，弶港镇巴斗村，梁垛镇临塔村，溧阳市上兴镇余巷村，南渡镇庆丰村，别桥镇塘马村，竹箦镇陆笪村等地考察学习。', '参观过程中，大家认真听、仔细看、虚心问，详细了解当地特色田园乡村的规划设计、工作开展及项目实施等方面的情况，在对比中找准差距，在交流中探讨思路。', '周树群指出，此次考察学习，要达到开阔视野、解放思想、更新观念、学习经验的目的。考察组成员回到工作岗位后，要切实把考察学习的所思、所想、所悟、所感转化成所为，将学到的好理念、好经验、好做法有效运用到实际工作中，为滨海新区乡村振兴和特色田园乡村建设注入更多“源头活水”。', '今年是滨海新区乡村振兴和特色田园乡村建设年，按照省政府“特色田园乡村建设计划”，我区将结合实际，重点围绕特色产业、特色生态、特色文化，统筹规划，分步实施，切实打造一批“生态优、村庄美、产业特、农民富、集体强、乡风好”的江苏特色田园乡村。', '庆丰村是全国乡村旅游重点村、江苏省第三批次特色田园乡村。该村立足“活”字，盘活闲置资源，鼓励空置闲置农房，发展精品民宿、茶舍、美术馆，赋予了农房新价值;立足“农”字，延伸优势产业链，通过发展稻麦加工产业，拓展了农业形态;立足“新”字，实施旅游建设，以谷物丰收文化为核心，打造了“金色庆丰，艺术田野”主题系列项目。', '牛马塘村作为江苏省首批特色田园乡村，素有“三塘拥田舍，悠然见曹山”的美誉。在发展过程中，该村深挖村庄文化内涵，紧抓“中华薯文化”特色文创农业，以乡村民宿、田园体验、文化驿站和文创活动为纽带，打造了集特色农业、田园生活、民宿文化等功能于一体的乡村居落。', '陆笪村是江苏传统村落保护村、第三批江苏省特色田园乡村、常州市美丽乡村示范点。该村立足于自身禀赋，以陆笪特色文化为灵魂，以陆笪的生态田园和乡村本底为载体，以文旅体验、田园生活、文化彰显为纽带，描绘出“绿树村边合，青山郭外斜”的诗意田园真实画境。', '塘马村是江苏省首批特色田园乡村、江苏省传统村落和常州市美丽乡村示范村。该村秉持“轻介入，微改造”的理念，注重村庄环境、文化设施建设，打造田园文化、田园生产、田园居所于一体的农耕乡村聚落，展现出了“文艺塘马、睦邻原乡”的农村新风貌。', '东台西瓜甜透大江南北的三仓镇，江苏省首批特色田园乡村兰址村、联南村、官苴村同中求异，联动发展。三村充分挖掘乡愁文化，通过提档升级后的群众共享空间，传播农耕文化、红色文化、知青文化，助力乡风文明全面提升。三村紧扣瓜果蔬菜产业特色，共同组成“三仓国家现代农业产业园”的主体部分，做足了田园文章，做强了现代农业。', '巴斗村入选江苏省第六批次特色田园乡村名单，拥有“渔文化第一村”的美誉。该村以“最美渔村”为主题，塑造滨海风貌，打造“花园式”人居环境，呈现出美丽渔村自然风光与现代风貌相得益彰的特色田园乡村景象。它还坚持党建引领，深挖红色文化，推动红旅、渔旅、农旅融合，发展独具巴斗特色的生态旅游，把强村富民的路子越走越宽。', '临塔村先后获得“全国文明村”“江苏水美乡村”“江苏省第七批特色田园乡村”等荣誉称号。该村通过规划设计，将新型农村社区与老村庄的现代融合，呈现出楼在绿中、居在园中、人在景中的美丽风光。该村坚持走以“孝贤文化”为特色的乡村振兴之路，积极探索“互联网+养老”，通过打造智慧康养日间照料服务中心、智慧养老服务中心，展现了孝贤故里农村养老服务新样板。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>74</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>苏州市农业农村局来海考察学习动物无害化处理工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/9f389acd-bbf8-4f7b-b187-fa0e9293e3be.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['2月9日，由苏州市农业农村局黄志强副局长带队，苏州市农业综合行政执法支队、苏州市吴中区农业农村局一行9人到我区考察学习动物无害化处理工作。', '在我区动物无害化处理中心，考察组一行现场参观了无害化处理生产线、清洗消毒设备、运输车辆、处理产物利用、环保设施等，详细询问了运行过程中的经验做法、问题矛盾等。区农业农村局张海峰总畜牧兽医师向考察组介绍了我区病死动物无害化处理体系的运行模式和管理办法，并相互探讨交流了病死动物无害处理工作的重点、难点等具体问题，达到了取长补短、共同进步的良好效果。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>74</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>就农业农村和乡村振兴工作我市赴泰兴考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/1d44f19b-89c6-4cd2-bc03-4f84d4f764ba.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2月17日，市委副书记张浩带队赴泰州市泰兴市考察学习农业农村和乡村振兴工作先进经验和做法。泰兴市委副书记张红霞，海安市副市长周平，各区镇街道（办事处）分管负责人、农社局局长，全市村党组织书记、驻村第一书记，市农口各部门主要负责人、分管负责人，涉农各部门分管负责人，国家现代农业产业园区创建专班人员参加活动。', '张浩一行来到泰兴市茂博源农业发展有限公司、泰兴市现代农业融合发展服务中心、黄桥现代农业产业园、祁巷村等处实地参观，听取了国家现代农业产业园建设重点工程介绍，了解了村集体“飞地抱团”发展新模式和休闲农旅融合发展经验和做法。', '张浩指出，要充分认识新发展阶段做好“三农”工作的极端重要性和紧迫性，全面深入学习泰兴市的先进经验，开阔视野、转变观念、拓展思路，打好“组合拳”，奏响“交响乐”，形成推动“三农”工作的强大合力，努力呈现“苏中新鱼米之乡”现代风貌，勇当苏中地区农业强市建设排头兵。（徐蓓）']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>74</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>靖江市医疗保障局来我区考察学习长期照护保险工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/bmdt/content/0b825136-8ea2-45f8-a14d-6b9d9c76650d.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['区医保局供稿(季晓玲 左娴) 2月23日下午，靖江市医疗保障局局长范红梅率队来我区考察学习长期照护保险工作，区医保局陈雨局长及相关科室负责同志陪同考察并座谈交流。', '考察学习组先后走访参观了通州区南山护理院、天霞护理院，实地了解我区长期照护保险机构照护服务的情况。', '随后，范红梅一行来到通州区医保“一站式”照护中心，参观通州区医保局智能监控中心，现场查看我区智能监控中心运行情况。考察学习组详细了解了通州区长期照护保险的发展历程及相关政策，并至入驻的三家服务企业详实了解我区居家上门服务、辅具服务、稽核管理等基本服务情况。范红梅表示，通州区率先打造的“一站式”照护中心极具创新性，切实提高了服务效率和服务质量，值得其他地区学习。', '座谈会上，陈雨介绍了我区长护险项目的实施背景、运营体系、推进情况、成效体现等内容。区医保中心李静主任详细介绍了我区长护险的具体运作情况。区照护保险第一、第二服务中心负责人分别作具体经办工作相关经验交流。座谈中，双方就长护险重点事宜开展讨论交流，对如何落实好长护险工作交换意见。范红梅表示，通州区长护险工作中好的经验和做法非常值得他们学习和借鉴，为靖江市长护险的推行拓宽了工作思路，提供了参考依据。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>74</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>通州区人社局赴海门区人社局考察学习综合柜员制先进经验</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/bmdt/content/a3acd683-4e9c-41b9-ad62-ba0ac80ca24b.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['区人社局供稿（徐荣燕）为深入贯彻落实“放管服”改革各项要求，顺利推进通州区社会保险综合柜员制改革，11月18日，由通州区人社局分管局长带领社保中心相关人员一行7人到海门区人社局学习综合柜员制改革的相关经验和做法。', '在学习座谈会上，海门区人社局相关领导先从改革思路、重点工作、运行效果等方面向学习组详细介绍了从产生综合柜员服务模式的想法到大胆探索、最终优化综合柜员制模式的基本情况；接着从具体的机构设置、人员管理、人员配备、岗位设置、档案管理、退休人员管理、经办流程等方面进行了全方位介绍；海门区机关保险中心、城乡居保中心、信息中心负责人逐一进行了综柜运行中的经验分享；通州区人社局学习组人员就改革准备过程中遇到的问题进行了请教与讨论，充分汲取先进经验做法。', '通过半日的现场观摩、学习座谈、交流探讨，通州区人社局学习组人员表示此次学习受益匪浅，下一步将结合通州区的实际情况，克服困难，继续完善综柜相关制度建设，做好各类硬件设施的配合和综柜人员的学习培训工作，有条不紊地推进综柜改革工作，为切实提升我区人社服务水平打下良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>74</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>镇江市润州区委政法委来我县考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/deefb59f-bd45-4a77-ac43-21036569b539.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['日报讯（全媒体记者 缪姗姗 吴莎莎）7日，镇江市润州区委政法委来我县考察学习县域社会治理现代化工作。', '在县域社会治理现代化指挥中心，考察组听取了中心建设历程、运行理念、案例展示等情况介绍，两地就指挥中心建设、队伍配备管理、经费保障及城区网格化社会治理等方面工作进行了深入交流。润州区委政法委对我县新建联动指挥平台，打通数据共同通道，便捷群众诉求，加强部门联通，不断推动社会治理数字化和智能化给予高度评价，并表示将认真学习借鉴我县的成功经验，促进当地社会化治理水平再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>74</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>启东市发改委前往如东考察学习粮食工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://fgw.nantong.gov.cn//ntsfgw/xsqyw/content/74a67daa-eb0c-4126-b123-0da083d03f52.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为学习如东粮食产业发展、应急成品粮管理方面好的做法和经验，提高粮食产业发展和粮食管理能力。11月3日，启东市发改委顾炜副主任带领相关科室、启东市粮油实业公司相关人员赴如东考察学习。', '考察组一行和如东发改委就粮食产业发展、应急成品粮管理模式等情况进行了深入座谈交流，并探讨了储备粮规范长效的管理机制。', '启东市将认真借鉴如东粮食产业发展等方面的先进理念和经验，补好自己的“短板”，并结合启东实际，着力改进发展模式，全面提升粮食安全。（茅巍巍）']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>74</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市发改委前往如东考察学习粮食工作</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/4eb06abb-9364-4737-8e4d-d359cebf95e0.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为学习如东粮食产业发展、应急成品粮管理方面好的做法和经验，提高我市粮食产业发展和粮食管理能力。11月3日，市发改委顾炜副主任带领相关科室、启东市粮油实业公司相关人员赴如东考察学习。', '考察组一行和如东发改委就粮食产业发展、应急成品粮管理模式等情况进行了深入座谈交流，并探讨了储备粮规范长效的管理机制。', '我市将认真借鉴如东粮食产业发展等方面的先进理念和经验，补好自己的“短板”，并结合启东实际，着力改进发展模式，全面提升我市粮食安全。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>74</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>海盐县来海考察学习高标准农田</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/d5778e75-9198-4fe3-bef6-2c6cf30852a0.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['11月8日，浙江省嘉兴市海盐县农业农村局农田建设科科长马建东带队来海考察学习我区高标准农田项目数字大田建设特色亮点做法，区农业农村局农田建设管理科副科长马骏带队陪同。', '在悦来镇高标准农田项目区，考察组一行人前往“四情监测点”，深入参观学习“四情监测”系统运行模式。系统能够动态监测田间作物的墒情、苗情、病虫情及灾情，并结合预警模型，对作物实时远程监测与诊断，获得智能化、自动化的解决方案，实现作物生长动态监测和人工远程管理，保证农作物在适宜的环境条件下生长，提高农业生产力，增加农民收入。', '在余东镇高标准农田项目区，考察组同样参观了余东镇新建的“四情监测点”，详细探讨了监测点规划、建设与监测内容等。', '本次考察时间短暂，但考察组一致认为受益匪浅，我区在高标准农田建设工作中，项目规划合理、管理科学、措施有力、综合效益好，值得他们学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>74</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>县企业家协会开展考察学习活动</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/0a5821bd-1969-4f96-8655-68097f4f8218.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['日报讯（全媒体记者 张顾颖 王莹）9日下午，县企业家协会举办“加大投入力度，增强发展后劲”如东企业家走进江苏海力风电考察学习活动。县委常委、常务副县长徐东俊参加活动。', '江苏海力风电设备科技股份有限公司是国内最大的海上风电配套设备制造供应商之一，一直以来，企业坚持科技创新，积极打造“装备制造+新能源开发+风电运维”全产业链海上风电系统，致力于成为全球领先的海洋工程高端装备制造企业。活动中，企业家们实地参观了海力风电小洋口基地、通州湾基地及车间，听取企业负责人介绍公司海上风电产业情况及发展战略规划。', '座谈会上，徐东俊对各企业为如东经济社会发展所作出的贡献表示感谢。他希望，全县企业家们要研究并准确认识当前经济形势，要利用好企业家协会的平台优势，加强沟通交流，以坚定的信心决心迎难而上求发展。要着眼自身发展需求及产业特性，选择顺应市场未来发展方向的赛道，更好地布局企业未来，以创新推动企业转型，适应新时代发展。要了解政策、掌握政策，用好政策，来提升企业发展质量和效益。要增强抱团取暖、合作共赢的意识，共同推动县域产业做优做强。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>74</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>学思路促提升海安市委统战部市民宗局赴崇川区通州区考察学习民族工作</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/6ec73f30-400a-491e-9165-adee78537104.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['学思路 促提升——海安市委统战部（市民宗局）赴崇川区、通州区考察学习民族工作-南通市民宗局', '为进一步铸牢中华民族共同体意识，深化我市民族团结进步工作创建水平，11月1日下午，市委统战部副部长、市民宗局局长陈文进带领市委统战部（市民宗局）一行赴崇川区、通州区考察学习民族工作。通州区委统战部常务副部长、区民宗局局长张颖倩，崇川区民宗局专职副局长金捷陪同考察。', '在崇川区学田街道“红石榴家园”，考察组观看了学田街道“红石榴家园”视频介绍，参观了民族工作特色阵地，深入了解其通过党建引领、服务为本、文化为桥，不断创新城市民族工作的情况介绍。', '在通州区兴仁镇韩家坝村，考察组观摩了该村结合自身资源禀赋，持续擦亮“宜居韩坝”工作品牌，通过实施“小而精”工作项目，营造浓厚民族团结进步工作氛围的经验做法。', '在通州区“民族公园”，该公园立足空间、时间两个维度，打造集聚“宣传党的民族政策、普及民族知识、弘扬民族文化、讲述民族团结故事”等多功能为一体的各族群众“网红打卡地”的工作理念令人赞赏。', '考察学习期间，每到一地，双方都进行了深入交流。大家纷纷表示，希望以此次交流为契机，进一步加强联系、互学互鉴，推动民族团结进步工作共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>74</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>里下河农耕文明示范区赴兴化市考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/zqdt/content/9a44e5b2-b37f-45bd-b556-361fe51d5a36.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为高质量开展“区域示范全域整治”和美乡村建设三年行动，11月2日，我市里下河农耕文明示范区赴泰州兴化市考察学习。兴化市委副书记、统战部部长常冬海，海安市委副书记、政法委书记严长江等参加活动。', '上午，队伍赴兴化市陈堡镇唐庄村、千垛镇徐圩村和陈杨村，认真听取了相关情况介绍，详细了解了各村在打造乡村文化品牌，乡村特色产业发展等方面的经验做法。', '下午，一行人现场考察参观南莫镇唐庄村。参观完毕后在青墩村召开里下河农耕文明示范区创建座谈会。墩头村、德兴村、沙岗村、三里闸村、刘季村、南莫镇等围绕考察学习的感悟，结合自身发展的特色，分别做交流发言。', '臧忠强调，我们要进一步坚定区域示范、全域整治的信心和决心，在打造示范带时要保留村庄的自然风貌，注重和产业发展相结合，具备造血功能。要抓关键片区的统筹谋划，利用好自然禀赋，将里下河地区的乡村振兴推动到新高度。', '严长江要求，里下河地区要深入践行“绿水青山就是金山银山”的发展理念，利用里下河地区独特的水乡资源，以“水”为题，做好“水”文章。要将片区规划作为和美乡村建设行动的总牵引和总抓手，优化空间功能布局，整合资源要素，在措施上再细化，分析地方亮点短板，明确建设方向。要坚持因地制宜，利用好里下河地区旅游文化特色，广泛凝聚群众力量，调动老百姓的积极性，共谋共建和美乡村。要打造典型，把推动高质量发展、打造优美生态环境、营造生态文明风尚的生动实例提炼出来、展示出来，串珠成链，为创建工作提供强大助推动力。敢于创新探索，要拿出“咬定青山不放松”的执着和韧劲，找准堵点、疏通堵点，把乡村振兴事业紧紧抓在手里 。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>74</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>启东市委统战部民宗局赴常州张家港考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/15704e89-d8b4-41d0-bd7c-6bb21245ae91.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为巩固提升民族团结进步创建成果，学习交流经验，提升工作水平，9月18日至19日，启东市委统战部副部长，市民宗局局长刘锦华率启东市委统战部（民宗局）、市民促会相关人员赴常州、张家港考察学习民族团结进步创建工作。', '考察组通过实地观摩、听取讲解、观看专题片、查看档案资料和座谈交流等形式，先后来到常州天虹纺织有限公司、金坛区东城街道华胜社区、张家港市民族团结进步协会、永钢红石榴家园、沙洲职业工学院、张家港塘桥镇青龙村和胡同社区，认真听取各示范点开展民族团结进步创建工作的情况介绍，详细了解民族团结进步创建工作与文化旅游、乡村振兴、生态文明、社区工作等融合开展的典型经验，认真学习两地在推进铸牢中华民族共同体意识各项工作的有效做法和工作举措。', '考察组一行表示，常州和张家港创建活动载体丰富、内容充实、特色鲜明，将以此次学习考察为契机，认真借鉴两地的先进经验和典型做法，深入持久开展民族团结进步创建工作，有形有感有效铸牢中华民族共同体意识，积极争创全国民族团结进步示范区。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>74</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>山东省郯城县供销社到启东考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/bmyw/content/11ef2b37-6c8a-4554-866a-8781d4de5201.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['7月13日，山东省郯城县供销社主任周士瑞带队到启东考察学习。启东市副市长李昌浩、启东市供销合作总社主任陆松等陪同考察。', '考察组一行实地参观了启东市农产品配送中心的生鲜超市、物流车队和智能云柜配送终端，重点观摩了智慧农业产销物联网大数据平台。通过听取情况介绍以及互动交流，了解启东市农业产业信息化发展情况和农产品生产至销售全过程溯源管理体系建设，对“优菜网”“美味宅配”等网络销售平台和相关软件的开发运用给予高度评价。', '在交流座谈会上，郯城、启东两地供销社围绕各自农产品的生产经营状况、产量规模及物流体系、农业社会化服务体系进行了深入探讨。', '陆松表示，将以本次交流互动为契机，积极搭建产销对接桥梁，用实际行动促进启东、郯城两地合作力度，实现“资源互通共享、项目合作共赢”的工作目标。', '李昌浩强调，两地供销社要深入学习贯彻党的二十大精神以及习近平总书记关于供销社工作的重要指示批示精神，全面深化供销社改革，推动供销事业高质量发展，提高为农服务综合实力，形成“共促业务、共抓队伍、共享资源、共谋发展”的供销工作新局面。', '会后，两地签订友好合作协议，在成立联络小组、建立例会制度、定期交流互访、分享成功经验等方面达成共识，形成“共建共享、互帮互学”良好合作氛围，期待通过合作促进双方互利共赢。', '市政府办公室关于印发2023年全市开发园区产业项目建设“龙虎榜”综合考评办法的通知', '市政府办公室关于印发南通市挥发性有机物（VOCs）清洁原料源头替代资金奖补方案（试行）的通知']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>74</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>互学互鉴共奋进交流学习促发展扬州市公路事业发展中心来海考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/79c73b00-6c6c-4e96-b39b-40862887bfd2.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['7月12日，扬州市公路事业发展中心农路科科长凌定详、信息科科长刘钰斐等一行20余人来海考察交流“四好农村路”高质量发展、智慧农路及农村公路“路长制”相关工作，通过互学互鉴，共谋交通发展，共绘交通发展美好蓝图。南通市公路事业发展中心副主任何启军、区交通运输局副局长徐海斌等陪同考察。', '在常乐驿站，区交通运输局副局长徐海斌介绍了海门区农村公路的总体情况和“江海叙·又一季”“四好农村路”品牌建设情况。考察组通过观看“四好农村路”宣传片、听取农路发展史、参观继成桥、九龙岛路等，进一步了解海门农村公路的建设和发展史，直观感受农路建设喜人成果。', '在区交通运输管理中心，工作人员通过现场演示，向考察组展示了海门智慧农路信息化管理平台的日常工作场景。海门区交通管理平台将农村公路路网中心与市域治理中心、国省干线对接，实现了全区普通国省干线、区管县道管理“一张网”的格局，为解决农村公路综合管理难题，降低农村公路管理难度，提高管理效率，节约综合成本创造了有利条件。', '考察组一行对海门“四好农村路”建管养给予了高度肯定。凌定详表示，海门的“四好农村路”建设探索出了一系列好的经验做法，值得广泛借鉴和学习，希望今后进一步加强交流合作，建立良好的沟通互助机制，加快提升农村公路工作的能力和水平。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>74</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>于立忠率队赴江苏省产业技术研究院考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.haian.gov.cn/hasrmzf/ttxw/content/ceec192d-ff23-48cb-8629-cdeb38666ffa.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['9月18日，海安市委书记于立忠率队赴江苏省产业技术研究院考察学习，并与江苏省产业技术研究院党委书记、长三角国家技术创新中心副主任罗扬深入洽谈交流，共谋发展之计，深化战略合作。海安市委副书记、副市长杨善彤参加活动。', '于立忠一行先后参观了江苏省产业技术研究院展厅，听取了研究院发展目标定位、创新体系建设、创新资源集聚、研发载体布局、技术需求对接等情况介绍。一头连着产业，一头连着市场，省产业技术研究院作为科技体制改革的“试验田”，定位于科学到技术转化的关键环节，为江苏产业转型升级和未来产业发展持续提供技术支撑。截至目前，省产业技术研究院在先进材料、能源环保、装备制造、电子信息、生物医药等五大领域建有研发载体75家，与296家江苏细分领域龙头企业建立战略合作，研发人员超1.2万人，转化成果7000多项，衍生孵化科技型企业1200多家，服务企业超过2万家。', '参观和会谈中，罗扬系统介绍了省产业技术研究院近年来围绕从科学到技术转化的关键环节，开展“一所两制、团队持股合同科研、项目经理、拨投结合、股权激励”等系列改革探索、做法和成效，并就长三角国家技术创新中心一体化建设运行有关进展、运行模式、组织架构、政策举措等进行了深入交流。他表示，省产业技术研究院将积极做好服务，立足海安产业发展方向，为海安创新科技体制、拓宽科技成果转化与产业发展渠道提供助力，积极服务海安产业高质量发展。', '会上，于立忠衷心感谢省产业技术研究院对海安一直以来的关心和支持。他指出，近年来，海安紧紧围绕“枢纽海安、科创新城”战略定位，坚定不移推进科技强市战略，在科技创新、产学研合作等方面跑出发展加速度。省产业技术研究院在着力破解科技成果向现实生产力转化的体制机制障碍方面所进行的改革探索以及取得的成效值得海安学习和借鉴。希望以此次考察学习为契机，将省产业技术研究院的成功经验带回海安，结合海安实际，进一步优化完善海安科学技术转化体制机制。同时，进一步推动海安产业研究院与省产业技术研究院的深度对接，加快形成联动合作机制，推动海安产业研究院迈上新台阶，为海安科技创新和产业高质量发展注入更多活力。', '会上，双方就《海安市人民政府与长三角国家技术创新中心/江苏省产业技术研究院战略合作协议》进行商讨，并对“集萃园区行”—海安专场活动进行对接交流。（顾爱东）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>74</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>调研学习取真经凝心聚力谋发展市行政审批局一行赴张家港考察学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/b9e2bb87-6b5a-42e7-b743-a27ce8bfcb99.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['为推动更宽领域融入苏南，学习借鉴先进地区工作经验，进一步提升我市政务服务效能，近日，市行政审批局党组成员、副局长丁爱武带队赴张家港行政审批局开展业务考察学习。高新区行政审批局局长邹广芳、曲塘镇人大副主席黄宝红等8人参加活动。', '考察组参观了张家港市行政审批局政务服务大厅，详细了解政务服务大厅功能布局、事项进驻、窗口设置情况，双方围绕深化“放管服”改革、政务服务标准体系建设、政务服务大厅管理、网上政务服务能力提升、营商环境评价政务服务指标提升等方面进行交流讨论，并对当前政务服务工作中存在的堵点、难点问题进行了深入探讨。', '座谈会上，双方签订政务服务战略合作协议，推动构建“事项动态管理、服务高效协同、跨域精准推送、帮办代办兜底”的政务服务“跨域通办”新模式。', '局党组成员、副局长丁爱武表示，此次考察学习活动启示多、收获大，开阔了视野、找到了差距，更学到了方法、坚定了信心。要继续坚持学先进、找不足、补短板，进一步提升我市政务服务水平，把学习成果转化为推动海安政务服务高质量发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>74</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>找准乡村振兴着力点海门街道考察团赴通州湾三余镇考察学习村集体经济发展先进经验</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/b43f6fe0-0cd8-47c7-8ea5-d45291891024.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['找准乡村振兴“着力点” 海门街道考察团赴通州湾三余镇考察学习村集体经济发展先进经验', '为深入贯彻落实上级《关于开展新型农村集体经济发展三年行动的实施办法》的工作要求，5月9日，开发区党工委委员、管委会副主任、海门街道党工委书记陈忠率队赴通州湾三余镇参观考察，学习借鉴村集体经济发展先进经验做法。海门街道办事处副主任陆佳兵，东洲办事处主任倪海兵等参加活动。', '考察团一行围绕镇村平台公司发展经营模式、提升村集体经济发展水平等方面，详细了解三余镇的相关情况。', '在通州湾电子商务城，陈忠一行边走边看边问，详细了解项目经营和村集体收益相关情况。三余镇通过镇村投资公司整体承租南通沿海集团所属资产—通州湾电子商务城的模式，对整体居住环境进行提升改造，提供职工生活配套、商业区建设改造、职工食堂、活动室、茶息区等共计30余个项目，年租金达1400万元。', '在通州湾现代纺织产业园邻里中心，考察团现场参观了新建职工公寓，认真听取了相关经验介绍。职工公寓一期工程建设总投资约18700万元，面积达35300㎡，674间公寓均为精装交付。三余镇镇村投资公司为每套公寓配备1.2万元左右的家具，投入一年租金即可收回成本。观摩团对三余镇以产业园区为依托、村集体提供生活配套、园区人员统一管理，从而快速提高村集体经济发展水平的运营模式表示了充分肯定。', '在随后的座谈交流会上，陈忠指出，通州湾三余镇镇村投资发展公司的模式富于创新、思路清晰、成效显著，为海门街道村集体经济的发展拓宽了思路，提供了可学习可借鉴的样板。海门街道将以此次参观交流为契机，充分吸收兄弟单位的先进经验，对照先进、对标思考，进一步盘活资源资产，走出具有自身特点的“海门街道强村公司”发展路子，以创先争优、争当排头兵的决心，在发展壮大村级集体经济工作上持续发力，助推乡村振兴提速增效，为实现海门街道高质量发展打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>74</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>调研考察促提升交流经验谋发展市纤检所赴先进机构考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://scjgj.nantong.gov.cn//ntsgsj/xsqyw/content/309f9e11-b149-412c-bd51-f82b396fdb7b.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['调研考察促提升 交流经验谋发展——市纤检所赴先进机构考察学习-南通市市场监督管理局', '为加强交流互鉴，进一步提升工作质量和业务水平，高标准、严要求建设国家床上用品质量检验检测中心，更好地服务纺织产业高质量发展，市市场监管局党组成员、副局长范耀辉带队，市纤检所领导班子、各科室负责人组成调研组，赴江苏省纤维检验局、江苏澄信检验检测认证股份有限公司、东华大学纺织学院、苏州市纤维检验院等地考察学习。', '一是考察取经，学习中心建设好经验。国家丝绸及服装产品质量监督检验中心、国家纺织产品质量监督检验中心（江阴）都是江苏省内较早成立的纺织类国家中心，运行时间长，创建经验丰富，调研组深入学习了他们关于党建阵地建设、单位文化建设、实验室布局、内部管理、业务发展等方面的先进经验，找到了可复制、可借鉴的经验做法，为纤检所更好地建设和发展“国家床上用品质量检验检测中心”打下了良好的基础。', '二是拓宽思路，探索提质增效新路径。省内先进纤检机构善抓抢抓机遇，敢闯敢创谋发展，是我们学习的榜样。通过此次调研考察，进一步拓宽了视野，提高了站位，要立足南通家纺产业特色，紧跟时代，勇于创新，探索在电商产业快速发展、功能床品不断兴起、纺织行业转型升级等新形势下，如何推动南通纤检事业提质增效再上新台阶。', '三是加强合作，打开人才培养新模式。在东华大学纺织学院交流期间，就如何加强“产学研”合作进行了深入交流，计划通过建立合作实验室、研究生培养基地，开展项目研讨、技术攻关、人才的输送和培养，形成高校和技术机构协同创新的强大合力。', '接下来，市纤检所将以创建“国家床上用品质量检验检测中心”为契机，深入巩固此次调研成果，创优势、增实力、补短板，推动新时代纤检事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>连云港市数字化城市管理监督指挥中心到我局考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/324d5e78-85d7-417f-9607-e463803fc177.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为进一步加强数字化城管工作，6月16日上午，连云港市数字化城市管理监督指挥中心组织人员赴我局就数字化城市管理先进经验进行考察学习。', '在交流会上，南通市城市管理综合行政执法支队副支队长许琳对考察团的到来表示欢迎，并表示这次考察是两局之间的交流，也是对城市管理数字化工作的一种促进。随后，考察团一行就数字化城管机构设置、人员编制情况、信息采集模式和人员管理情况、数字化城管考核工作开展情况以及“一网通管”工作开展与市域现代化治理指挥中心衔接等情况进行交流。', '连云港市数字化城市管理监督指挥中心考察人员仔细看、认真听，双方就城市管理数字化的难点、热点问题进行了探讨交流。考察团对南通市数字化管理等工作给予了高度评价，连云港市城管执法支队副政委、一级主办刘正亚表示，此次考察感悟很多，收获很大，回去后将借鉴南通的经验做法，研究破解数字化城管工作难题，提升城市管理工作。', '许琳表示，连云港市数字化城市管理工作有许多好的经验做法,值得我们学习借鉴。下一步,希望双方多联系、多沟通、多交流,以更高的格局和更大的担当，不断提升城市管理的科学化、精细化、智能化水平，让人民群众有更多的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>74</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>对标一流创造价值敢为敢闯勇立潮头房投集团赴深业集团考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://gzw.nantong.gov.cn//ntsgzw/bmdt/content/7a388afc-f1b6-437c-9d06-6b20d8b7c890.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['“对标一流”创造价值 敢为敢闯勇立潮头——房投集团赴深业集团考察学习 - 部门动态', '对标一流促发展、民生先锋焕新生，为深入贯彻党的二十大精神和中央经济工作会议部署要求，5月23日-5月25日，南通市人民政府驻深圳办事处主任邱爱军、房投集团党委副书记、总经理王春一行赴深圳市深业集团考察学习。深业集团副总裁徐恩利、战略管理部总经理周夕亚等出席交流研讨活动。房投集团党委副书记杨晓峰、副总经理张亮，集团康养板块、幼托板块主要负责同志参加了考察和座谈活动。 座谈会上，徐恩利副总裁介绍了深业集团的基本情况和历史沿革。深业集团成立于1983年，乘着改革开放的东风，励精图治“四十载”，厚植情怀、同心筑梦。发展至今主营业务涵盖房地产开发与经营，养老托育、医疗健康等民生幸福产业，形成了多元化产业发展格局。深业集团充分发挥“服务大局、服务城市、服务产业、服务民生”作用，加快“养老＋托育”布局投入，在探索可复制、可持续的“一老一小”模式上先行先试。会上，双方结合业务发展实际，深入开展了涉及地产开发、养老托育、园区开发、城市运营等多层次、多领域的对标研讨。', '王春总经理表示，房投集团与深业集团在业务板块上高度匹配、深度契合。房投集团经营业态不断丰富、发展质态稳步提升，着力于市场化转型升级，主营业务向养老托育、城市更新、工程咨询、园区建设、房地产开发、资产管理等多产业多领域拓展，逐步构建完善“一体两翼”发展格局。房投集团要吸收借鉴先进模式和经验做法，以养老服务、城市更新、医疗投资等民生项目为切入口，夯实“城市综合服务运营商”根基，将“民生先锋、幸福保障”嵌入房投“十载”发展之魂，真正把“服务美好生活、助力城市发展”的愿景使命作为终生的幸福事业，砥身砺行、积厚成器。希望双方能在此次交流研讨后保持多维度、宽领域的沟通合作，厚植地方产业发展优势、深耕民生事业发展，共同助推产业规模和发展层次的高质量融合。', '考察团一行还先后参观了深业集团开发建设的商业地产项目、养老服务项目、托育服务项目。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>74</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>考察学习借鉴经验努力开创国防动员工作新局面</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://gdb.nantong.gov.cn//ntsmfj/bmdt/content/5221a57b-628a-43f7-9cf1-13da068ef56f.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['6月7日，南通市国动办党组书记、主任陈如海，副主任徐宏军、张小兵一行赴苏州、吴江，就推进国防动员体制改革、人防工程平战转换、国防（人防）宣教场馆等学习考察。', '考察组先后参观了苏州民防教育馆、吴江1302工程平战转换示范工程建设，受到了苏州市国动办陆继军书记等相关同志热情接待，并组织座谈交流，双方就当前国防动员改革遇到的难点问题、早期人防工程分类管理、人防工程行政审批权力下放、高质量考核指挥效能运用等相关工作进行了深入交流，互相探讨学习。', '陈如海在学习考察结束时指出，这次外出学习考察虽然时间短，但目标性强，既是落实上级大兴调查研究之风的具体行动，也是我办对标先进虚心学习的务实性举措，大家一定要从思想上转变观念，从行动上主动作为，积极适应当前国防动员体制改革的新形势新任务，努力开创我市国防动员工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>74</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>区公共资源交易中心赴启东考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/50746610-e6e6-4e02-82c9-e64574cbc510.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['为提高海门区限额平台交易质效和监督管理水平，区公共资源交易中心组织工作人员赴启东就限额以下项目全流程电子化招标及智能化实施经验、专家评委抽取及现场管理办法、代理机构考核管理办法进行考察学习。考察小组与启东交易中心相关工作人员进行了深入的座谈交流。通过此次考察学习，我区将加速推进区镇限额交易平台的智能化、规范化水平，对限额以下平台的整体运行进行设计优化，打造属于海门区的限额平台交易新模式。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>74</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>宿迁市农业农村局来海门考察学习特色农业机械化工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/bmyw/content/807fb197-80b5-4444-8280-f18e1d3e57ff.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['4月19日，宿迁市农业农村局副局长李兆江带队一行18人来海门区考察学习特色农业机械化工作，南通市农业农村局党组成员张进和海门区农业农村局分管领导赵国栋一起陪同考察。', '李兆江一行实地参观了海门区畜牧养殖全程机械化示范基地京海集团、特色农业服务组织南通市普农农业发展有限公司、蔬菜生产全程机械化示范基地南通强盛农业科技发展有限公司。考察组一行认为海门区特色农业机械化工作有亮点，有特色，值得学习和借鉴。随后，南通、宿迁两地一起交流了特色农业机械化及省级农业生产全程全面机械化示范县创建工作。大家希望南通、宿迁两地要进一步加强沟通交流，分享农机化工作的好做法和好经验，一起推进农机化工作。', '近年来，海门区以省级农业生产全程全面机械化创建为目标，以特色农业机械化乡村振兴实绩考核为抓手，立足农业结构和产业特色，加大特色农机装备推广应用，推动农业机械化由全程向全面发展。目前，全区已建设省级机械化智能化示范基地（园区）2个、实施省级蔬菜农业生产全程机械化示范基地1个，南通市级特色示范基地4个和农机农艺融合示范点2个，区级示范基地6个。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>74</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>陕西省西乡县供销社到启东考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/4ddbbd6d-84dc-41e0-a837-7a4e446ff728.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为深入推进苏陕地区供销社交流合作，4月27日，陕西省西乡县供销社主任赵兴敬一行3人到启东考察学习，启东市供销合作总社班子成员、相关科室人员陪同考察。', '考察组一行实地参观了新城农业高标准农产品冷链仓库、分拣车间、智能云柜配送终端和智慧农业产销物联网平台，通过听取情况介绍以及互动交流，深入了解启东市供销系统现代流通服务体系建设、生鲜超市经营等方面的经验和做法，对农产品生产至销售全过程溯源管理体系给予充分赞赏。', '座谈会上，西乡县供销社负责人介绍了西乡风土人情，重点推介了牛肉干、魔芋等特色农产品，启东市社则介绍了“优菜网”“美味宅配”网络销售平台的建设及运营情况。双方表达了深化产销对接、加强合作交流的美好意愿，并就加快现代物流服务体系建设、做大做强社有企业、提升为农服务能力等方面进行充分交流。', '启东市社主任陆松表示，西乡和启东是苏陕扶贫对口协作县市，为让启东的优质农产品更好地走进西乡，也让更多西乡的优质农产品被启东市民了解，供销社要整合资源、发挥优势，积极搭建产销对接桥梁，用实际行动实现“资源互通共享、项目合作共赢”的工作目标。启东市社将以此次交流互动为契机，进一步强化启东与西乡两地产销对接力度，拓展合作交流宽度，充分体现“天下供销一家亲，乡村振兴一盘棋”的思想共识。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>74</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>海门街道考察团赴苏州常州考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/616ecd20-025c-496a-a063-81d79ebd86ba.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为深入贯彻落实党的二十大关于乡村振兴的重大战略部署，4月19日至20日，开发区党工委委员、管委会副主任、海门街道党工委书记陈忠率队赴苏州、常州参观考察，学习借鉴村集体经济发展、乡村振兴战略先进经验做法。海门街道人大工委主任沈光辉，街道办事处副主任陆佳兵，政法委员柏江，东洲办事处主任倪海兵陪同考察。', '考察团一行围绕特色田园乡村和美丽乡村建设、村集体经济组织经营管理、乡村旅游等方面，详细了解苏州常州两地强村富民兴农的情况。在常州溧阳南渡镇庆丰村，陈忠一行边走边看边问，详细了解土地流转、“一村一策”、入股置换、资源开发等经营管理模式。庆丰村以新型稻米产业为抓手，继而打造乡村旅游业态，成为远近闻名的“网红村”。', '在苏州张家港市南丰镇永联村，考察组现场调研了永联展示馆、永联议事厅、数字生活馆等地，详细了解了永联的发展历程、发展经验以及各项服务功能。陈忠对永联村以工业化牵引，进而实现农业农村现代化发展表示高度赞赏。', '在常熟市支塘镇任南村、蒋巷村，考察团深入了解人居环境整治的先进经验和做法，大家虚心请教，亲身感受美丽乡村的良好生活氛围，思考农村人居环境整治工作的新思路、新方法、新举措。', '陈忠指出，苏州、常州两地乡村振兴工作富于创新、思路清晰、模式好、成效显著，值得海门街道学习借鉴。他强调，广大街道干部、相关部门要进一步解放思想，看到与苏南地区存在的差距，在一二三产业融合、土地规模经营、生态农业、乡村景致打造、村集体经济发展等方面积极探索、挖掘创新，以点带面推动“三农”工作高质量发展。要进一步强化组织领导，认真梳理参观学习中的亮点，结合实际情况，在高标准农田建设、人居环境整治和农业现代化等方面，走出具有自身特点的发展路子，奋力谱写好乡村振兴的街道篇章。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>74</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>市人防质监站联合市土木学会人防专委会组织人防相关从业人员赴地铁建设项目考察学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://gdb.nantong.gov.cn//ntsmfj/bmdt/content/154d4760-dba3-4f71-af69-4c899978e33e.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['市人防质监站联合市土木学会人防专委会组织人防相关从业人员赴地铁建设项目考察学习 - 工作要闻', '为学习南通地铁工程建设安全文明施工经验，助推南通市人防工程建设的高质量发展，市人防质监站于2023年4月20日联合市土木建筑学会人防与地下空间利用专业委员会组织人防相关从业人员约40人赴地铁建设项目考察学习活动。', '考察学习活动在中铁二局项目部举办，市人防质监站总工程师王志强主持会议。会议分别听取了中铁二局工程部长方文轶关于南通电视塔下基础加固处理技术的经验介绍、中铁二局总工程师张海洋关于南通电视塔附近孩儿巷站到和平桥站区间盾构施工经验介绍和江苏龙腾门业项目负责人高和海关于地铁兼顾设防安装使用的各类人防门型介绍，并围绕以上主题展开了热烈讨论。设计、监理、防护设备等单位的代表一致认为本次活动非常有意义，设计、监理等对深基坑施工如何确保周边建筑安全的相关防护技术措施有了更加深刻的理解，防护设备企业对地铁相关防护设备有了更加直观的认识，不仅拓展了视野、增加了知识储备，也有助于技术能力水平的不断提升。', '市土木建筑学会人防与地下空间利用专业委员会范惠中主任表示，举办这次学习交流活动的目的，就是要充分发挥学会充当人防智库的作用，有效助力人防相关从业单位的转型升级，协助人防主管部门将南通人防工程建设管理水平推向新的高度，向着“全省领先、全国一流”的目标不断迈进。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>74</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>区数据局赴外考察学习借鉴他山之石提升政务服务</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-05-22</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/bmdt/content/43cb4d38-ca87-4f3b-9cf1-1ac5d4b5cebe.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['区数据局供稿（季旭东）借鉴他山之石、学习先进经验，为持续优化通州区营商环境，推进提升全区政务服务效能和镇街便民服务中心标准化建设水平，5月21日，区数据局组织川姜镇、平潮镇相关人员前往昆山市张浦镇、高新区（玉山镇）、周市镇行政审批局（便民中心）考察学习。', '在三地，通州学习考察组一行参观了智慧大厅建设、一站式审批、镇街全科服务、镇街便民服务中心标准化建设等，同时交流了相关方面的经验。', '一是持续深化“放管服”改革，优化“一站式”服务，丰富服务内容，扩容自助服务区，实现自助服务24小时在线，高频事项每日提供人工服务，增加长三角“一网通办”等服务事项，让市民办理业务更便捷、更高效。平潮镇将以新便民服务中心启用为契机，以优化营商环境为抓手，构建政务服务中心“一站式”办公、“一条龙”服务格局，不断提升审批服务效能，打造“办事便利，群众满意”的“潮为民360”政务服务品牌。', '审批服务“马上办”。深入推进“互联网＋”服务新举措，着力打通业务链条和数据共享堵点，通过掌上办、智能办、窗口办、自助办等线上线下多渠道融合互补，倾力打造便利化、全天候服务，使数据赋能，助推政务服务、营商环境再升级、再优化。', '推动申报“方便办”。大力推行“互联网+政务服务”，依托“惠企通”等政策平台，加大惠企政策宣传解读力度，实现产业政策“快捷查询”“精准推送”“免申即享”。办事群众“线上申报”，审批人员“后台直审”，申请人足不出户、身在异地皆可办理业务，真正做到“零跑腿”。', '服务集中“一门办”。深化推出系列“一件事一次办”审批事项，为企业群众提供相关业务咨询，帮助理顺办理流程，完成相关业务办理，为企业和群众免费提供全领域帮办代办，变“企业群众自己办”为“政务人员帮您办”，真正实现企业群众办事“只进一门，只来一次，办成所有事”。', '聚焦特色“集成办”。区数据局将涉及企业全生命周期政务服务纳入线下服务专区，为企业提供全程免费帮办代办、疑难办理、回访处置等工作，以服务事项集成、服务人员集成、服务政策集成构建起“服务集中＋改革赋能＋精准分流”的一站式“政务集散中心”，助力特色产业集群发展。', '下一步，我局将进一步助力政务服务质效和营商环境优化提升，全力完善“全域通·州到办”政务服务品牌，不断提升人民群众幸福感、获得感，推动通州经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>74</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市住建局党组书记局长许栩带队赴郑州考察学习以旧换新人才公寓管理工作</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.haian.gov.cn/hasrmzf/bmdt/content/ad0b7c78-970d-46d6-b84a-277551ffebdb.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['市住建局党组书记、局长许栩带队赴郑州考察学习“以旧换新”、人才公寓管理工作-海安市人民政府', '为更好谋划后期收购旧房以及存量商品房的运营管理，进一步完善我市“以旧换新”政策，近期，市住建局党组书记、局长许栩带队前往郑州市住房保障和房地产管理局、郑州城发安居有限公司考察学习“以旧换新”、人才公寓管理工作。市委组织部副部长、市人才办主任王桂江，瑞海集团党委书记、董事长郭玉祥，城建集团党委副书记王剑，城市更新服务中心副主任刘浩及住建局相关科室人员参加学习。', '在座谈会上，郑州市保障性住房中心主任魏守伟、郑州城发安居有限公司执行董事兼总经理于通分别介绍了回收旧房模式和人才公寓管理工作的经验做法，许栩介绍了海安市住房保障情况，双方就回收存量房运用、人才公寓运营管理、人才服务等情况进行了深入交流探讨，并参观了郑州市住房租赁智慧综合管理平台。', '学习组一行还前往郑州鼎盛美寓、嵩山美寓人才公寓实地参观学习。在鼎盛美寓一楼大厅，学习组一行听取了郑州市人才公寓运营管理情况介绍，详细了解郑州人才公寓入住租客、工作学习等情况。在样板间，学习组一行仔细查看房屋配套设施设备，了解租金定价、周边交通商业配套有关情况。在人才之家，详细了解共享空间功能设置、使用管理情况。', '许栩表示：郑州市全面开展“卖旧买新、以旧换新”，构建“职住平衡”住房保障体系，有关工作走在了全国前列，优秀经验做法值得学习借鉴。希望双方加强沟通交流，将人才公寓运营模式、管理理念等经验做法进行推广复制，切实推动我市“以旧换新”政策后半程落地落实。', '海安县财政局、海安县人力资源和社会保障局关于印发《海安县企业退休人员社会化管理服务经费使用管理办法》的通知']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>74</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>如东企业家走进嘉通能源考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/sxcz/content/8db37c06-35ff-472b-9684-b08f996122a3.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['4月24日下午，如东县企业家协会举办“强化精细管理 实现永续经营”——如东企业家走进嘉通能源考察学习活动，共同学习标杆企业，共同促进企业发展。', '企业家一行参观了嘉通能源集中控制中心、聚纺车间内外景、PTA装置实景，对嘉通能源的企业文化、管理创新、项目规划等方面有了一定的了解。在随后的召开的座谈会上，企业家代表们畅所欲言，结合自身实际，分享交流了各自企业在管理以及企业未来规划方面的心得体会。', '如东县副县长戴峰指出，企业唯有自身练好“内功”，才能在激烈的市场竞争中立于不败之地。当前我们正处于经济发展的关键时期，必须抢抓机遇，乘势而上。企业要强化精细管理思维，推动整体“管控力”迈上新台阶。企业家要创新理念、奋力开拓，树立“争干大事业、争当大老板”的雄心壮志，做到保持奋发进取的精神状态、进一步明晰企业的发展定位、不断创新发展方式。全县上下也要千方百计为企业创造“海阔凭鱼跃、天高任鸟飞”的发展环境，畅通政企沟通渠道，以助力企业发展为己任、服务企业发展为本职，不断提升服务企业工作质效，在服务企业的途径上、方式上要进行创新，努力构建“亲”“清”新型政商关系。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>74</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>新疆伊宁县民族宗教界代表人士来南通考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/bmdt/content/282ef1a2-9cf8-430e-8537-059a4607fd06.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['6月4日-8日，新疆伊宁县委统战部副部长、县民宗局局长姚宁率伊宁县民族宗教界代表人士来南通考察学习。南通市委统战部副部长、市民宗局局长陆军，副局长李莽参加考察。', '考察组一行沿着“紫琅同心‘榴’光溢彩”实境课堂路线先后来到南通博物苑、五山滨江片区，重走了习近平总书记视察路线，深刻领悟习近平总书记视察南通重要讲话精神。在鑫缘集团展馆、余东镇富民村、海安街道二里社区等地，现场观摩了“红石榴家园”阵地，听取了我市开展民族团结进步、铸牢中华民族共同体意识、宣传教育、推进各族群众互嵌式发展等方面的工作举措。在海印寺，实地查看了佛教中国化方向展示馆，了解了宗教活动场所规范化建设、宗教团体、安全、财务管理等情况。在栟茶镇统战文化基地，参观统战文化基地建设情况，观看了栟茶镇统战文化宣传片。', '考察组表示南通历史底蕴深厚，红色资源丰富，产业基础雄厚，立足本地实际，特色鲜明、亮点突出、内容丰富，展示的许多亮点和做法值得学习借鉴。并指出今后要持续深入学习贯彻习近平总书记关于加强和改进民族工作的重要思想、习近平总书记关于宗教工作的重要论述，认真分析研究当前民族宗教工作形势，在吸收借鉴南通地区成功经验的基础上，不断创新工作思路，全面深入持久开展民族团结进步创建，扎实推进我国宗教中国化方向走深走实，持续推动“携手促发展，同心绘‘疆’来”—通伊铸牢中华民族共同体意识工作品牌，实现两地民族宗教工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>74</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>灌云县发改委来启考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/b2c57d93-a4d1-4e0b-936a-c2ae11f816e6.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['5月8日上午，灌云县发改委副主任武宜勇率国网灌云县供电公司、江苏省工程咨询中心有限公司来启考察，学习我市在构建新型电力系统试点园区方面的经验做法。', '近年来，我市发挥新能源资源禀赋和地区优势，统筹有序、系统科学推进“碳达峰、碳中和”，积极探索应对碳关税的绿电解决途径，提升外向型企业绿电贸易竞争优势。吕四港经济开发区已成功申报全省沿海地区新型电力系统技术应用试点园区，加快构建以新能源为主体的新型电力系统，通过可再生能源项目建设与绿电就近消纳，促进产业绿色低碳发展。目前，东港池变电站正在开展工程可行性研究以及站址、线路廊道论证工作。', '新型电力系统是新型能源体系的重要组成和实现“双碳”目标的关键载体。灌云县发改委一行对我市新型电力系统规划建设的经验做法给予高度评价。双方一致认为，要加强日常沟通和业务交流，全力推进新型电力系统建设。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>74</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>海安市供销合作总社赴东台考察学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/6ee785e0-ba26-4a47-a5a4-72609c2b409b.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['5月23日，海安市供销合作总社党组副书记、理事会副主任韩俊带领“天天向上供合小组”成员，前往盐城市东台南沈灶果蔬椒乡现代农业产业园考察学习。', '期间，韩俊一行在南沈灶镇相关负责人的陪同下，参观了以青椒为特色的产业模式，深入了解现代农业的先进技术、管理模式，以及与电商直播相融合的创新运营实践。', '在产业园内的子安供应链管理江苏有限公司，大家听取了企业负责人关于企业规模、发展过程、精准服务的创新模式，以及行业定位、发展趋势、客户信息、经营数据等情况介绍，实地感受了现代仓储、冷链物流的运行流程，并就下一步加强交流与合作进行了深入沟通。', '大家还参观了“东台市琴姐蔬菜直销基地”抖音直播带货电商运营平台，就农副产品电商运营等方面知识进行了深入了解，并就带货品类、货源、仓储物流、抖音直播带货效果等进行了亲切交流。', '通过此次考察学习活动，大家纷纷表示开阔了视野，增长了见识，对现代农业、电商直播、冷链物流等有了进一步的了解，要把学到的新知识、新经验、新做法带回去，力争在直播带货电商运营平台方面取得创新和突破。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>74</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>崇川区委统战部区民宗局赴武汉考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/86480160-76fc-4eeb-a485-4208ddd5d45f.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['4月15日至17日，区委统战部副部长、区民宗局局长朱天宇率部分街道统战委员和区教育体育局、市政园林局相关负责同志及区民促会代表，赴武汉市考察学习民族团结进步创建工作。', '武汉市硚口区红旗村小学是湖北省民族团结进步示范单位，通过与中南民族大学体育学院合作，把适合小学生年龄特点的民族传统体育活动引进校园。考察组实地感受了校园民族团结进步创建工作的良好氛围，了解其在筑强阵地、创新载体、建好品牌等方面的成功经验，与校领导沟通交流铸牢中华民族共同体意识进校园的经验做法。', '“江岸石榴红——铸牢中华民族共同体意识”主题园区位于江岸区的汉口江滩公园三期，占地面积约1.7万平方米，是武汉市首个“铸牢”主题园区。考察组参观了中国地图、石榴亭、石榴园等景观装置，深入了解主题园区建设、民族文化内涵、文娱活动开展情况，与江岸区民宗部门就做好新时代民族工作进行交流。', '起义门社区是全国民族团结进步示范社区，是武昌区少数民族居住较为集中的社区之一，其在国家通用语言文字培训、各民族文化交流、政策法规宣传等方面做法受到上级高度肯定。考察组实地察看了社区“国家通用语言文字培训”教育培训基地，认真学习了解红石榴服务阵地运行模式、活动开展及服务少数民族等方面情况。', '考察组认为武汉市民族团结进步创建工作特色鲜明、成效显著，此次考察学习收获颇丰、开阔了眼界、拓展了思路，下一步将认真学习借鉴武汉市的经验做法，发挥崇川主城优势，用好资源禀赋，走出一条紧跟时代步伐、符合崇川特色的民族团结进步创建之路。', '南通市民宗局民族处二级主任科员马志江，区民宗局专职副局长徐叶及科室负责同志参加考察学习活动。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>74</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>启东市赴山西省芮城县考察学习交流吕祖文化</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/69451579-f9ee-4daa-9bbc-16d81e4e91e1.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为进一步挖掘和传承吕祖文化，推动启东地域文化繁荣和发展，4月10日至12日，启东市委统战部副部长、市民宗局局长刘锦华，市文联主席倪东华和相关部门负责人赴山西省芮城县考察学习交流吕祖文化。山西省芮城县委常委、统战部部长宁峰荣出席座谈会并讲话，县委统战部常务副部长、县民宗局局长王道，县文联主席王芮娟陪同考察。', '考察团一行先后参观了永乐宫、城隍庙、吕公祠等文物保护单位，感受芮城深厚的历史人文底蕴，深入了解芮城县在吕祖文化遗迹遗址文物保护性修缮、资源活化利用以及道教文化建设等方面的做法。', '座谈会上，宁峰荣对启东考察团的到来表示欢迎，介绍了吕洞宾故里的相关情况以及当地在弘扬吕祖文化和坚持道教中国化方面所做的工作。他表示，芮城是吕祖的诞生地，在区位、资源、历史、人文等方面拥有独特优势，期待两地在发扬传承吕祖文化方面取得更多成效。', '刘锦华对芮城县委统战部表示感谢，并介绍了启东吕祖文化的渊源，表示将认真学习芮城的经验做法，利用好启东的资源禀赋，推动吕祖文化健康传承。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>74</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>南通市民宗局赴宿迁淮安盐城等地考察学习民族宗教工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/bmdt/content/f53dc08c-9cb4-4c42-8b9c-e03119a42df0.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为深入贯彻落实中央民族工作会议、全国宗教工作会议精神，全面推动南通市民族宗教工作高质量发展。3月20日至22日，南通市委统战部副部长、市民宗局党组书记、局长陆军带队赴宿迁、淮安、盐城等地开展民族宗教工作学习考察。各县（市、区）民宗局局长、机关处室负责人等18人参加。', '学习考察组一行考察了宿迁市宿城区青心堂、真如禅寺等宗教活动场所；考察了淮安市全国民族团结进步示范单位淮州中学、基督教两会宗教中国化实践展示馆、佛教协会宗教中国化实践展示馆等场所；考察了盐城市省民族团结进步示范单位（示范企业）盐城东山精密产业园，市清真寺、市基督教堂等场所，分别听取了三地民宗部门关于民族宗教工作情况的介绍，并就民族团结进步创建工作、宗教中国化方向等内容深入开展了座谈交流。', '此次考察学习，受益匪浅。充分学习借鉴了友邻单位关于民族宗教工作特色亮点和经验做法，为我们做好新年度重点工作奠定了基础。2024年，我们将紧紧围绕铸牢中华民族共同体意识主线，巩固和拓展民族团结进步创建成效，创新宗教中国化方向工作举措，聚焦新时代新征程全市民族工作高质量发展、宗教工作创新发展，统筹发展和安全，切实维护全市民族宗教领域和谐稳定，为谱写“强富美高”新南通现代化建设新篇章贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>74</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市医保局赴太仓市考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2024-04-18</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/100fc33b-23ea-4a13-b7d0-cfe49cf2a577.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为全面贯彻落实省、市医保工作会议部署要求，围绕市委提出的“七虎竞南通 启东争头筹”这一主题，紧盯“学赶太仓”这一目标，4月16日，市医保局党组书记、局长倪凯权率队赴太仓市学习考察医保公共服务、医保基金绩效管理、国谈药“双通道”管理、对接上海等方面的先进经验，不断提升启东医保事业高质量发展水平。太仓市医保局党组书记、局长杨琴洁等陪同考察。', '学习考察组实地考察了双鹤同德堂连锁大药房，详细了解当地国谈药“双通道”工作流程、业务办理量以及提供优质便捷高效服务的做法。实地考察了城厢镇便民服务中心和市医保中心服务大厅，近距离感受太仓的创新意识、服务意识、争先意识，特别是民生服务综合柜员制、零星报销和退休直接办理、政务一体机24小时服务、医保暖心信箱让考察组深刻感受到太仓医保公共服务向下延伸的深度、温度和力度，实行的工作日不午休延时服务让考察组真切感受到先进地区的意识超前，服务超前。', '在座谈会上，杨琴洁局长就太仓医保近年来的改革发展情况进行了介绍，医保中心刘永刚主任就医保公共服务等工作进行了经验交流。我市医保局一行高度肯定了太仓医保工作，并表示此次太仓之行拓宽了新眼界、打开了新思路、找到了新答案，希望两地继续深入交流合作，携手推动医疗保障事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>74</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>市医保局赴苏州泰州考察学习医保服务生物医药产业发展工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://ylbzj.nantong.gov.cn/ntsylbzj/gzdt/content/100f4e87-082d-4abf-8d1a-e193bf2198d6.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平总书记关于“牢牢把握高质量发展这个首要任务，因地制宜发展新质生产力”重要指示精神，进一步拓展医保服务经济社会发展的广度和精度，发挥医疗保障在推动医药服务供给侧改革，促进我市生物医药产业集聚发展的引导作用。3月20、21日，市医保局局长张劲松带队赴苏州、泰州两地考察学习医保服务生物医药产业发展工作。考察组先后赴苏州吴江、苏州工业园区、泰州医药城，对海岸药业、罗氏诊断、盈科生物、阿斯利康等医药企业进行现场调研，认真听取了企业负责人关于公司发展现状、医药产品研发销售等情况的介绍，了解企业产品在进医保目录、平台挂网、集中采购等有关情况。', '现场调研后，考察组与苏州医保局和泰州医保局分别进行了座谈交流。苏州医保局就如何服务被定位为苏州1号产业的生物医药，介绍了“进目录、进平台、进医院，主动服务、精准服务、优先服务”的工作经验；泰州医保局围绕“举全市之力建设中国医药城”，从“上争政策、拓展内涵、搭建平台、优化服务”四个方面介绍了助力大健康产业高质量发展工作经验。大家还就相关服务细节和具体问题进行了面对面交流，形成了“医保部门既是民生部门也是经济部门”的共识。', '张劲松局长表示，苏州、泰州的生物医药产业发展和医保部门服务生物医药产业的理念、措施、方式，都值得南通学习借鉴，要求考察组进一步提高政治站位、坚持围绕中心、服务大局，认真学习苏州、泰州先进经验，结合南通实际，进一步拓展服务内涵、优化服务机制、提升服务效率，强化“三医”协同联动，助力南通生物医药产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>74</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>启东市党政代表团赴太仓市考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/sxcz/content/f5247628-d734-4116-ba48-68fe8f3a5da9.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['2月28日，启东市委书记杨中坚，市委副书记、市长蔡毅率启东市党政代表团来到此次考察学习活动的第二站太仓市，学习太仓在产业发展、城市建设、服务企业等方面的先进经验，高水平谋划启东高质量发展之路。太仓市委书记汪香元等陪同考察。', '太仓沿江临沪近海，启东滨江临海、紧靠上海，两地都处于长三角一体化发展、长江经济带等国家战略的核心区域，同属上海“1+8”大都市圈的核心圈，地理位置、自然条件、资源禀赋十分相似。近年来，太仓抢抓长三角一体化发展战略机遇，推动“3+3”产业集群不断壮大，高端装备、先进材料、现代物贸三大主导产业规模均已突破千亿，航空航天、生物医药、文化旅游三大特色产业全面崛起，综合实力稳居全国百强县前十，位列2023全国县域发展潜力百强第二。“学赶太仓”无疑是启东探寻高质量发展路径的最优选择之一。', '启东与太仓的差距在哪里？太仓在高质量发展道路上快人一步，跑出“太仓速度”的背后是什么？如何运用太仓先进经验助力启东在“七虎竞南通”中争头筹？带着问题和思考，党政代表团成员实地探访了太仓市娄江新城规划展示馆、联合汽车电子有限公司太仓分公司、太仓市企业服务中心，切身感受那股为事业拼搏的精气神，以及服务企业、用心发展的专注力。', '在娄江新城规划展示馆，代表团一行从区位交通、发展特色、产业升级、新城建设等角度，全面了解太仓经济社会发展基本情况。太仓不断丰富“现代田园城幸福金太仓”建设路径，正在全力打造融入上海桥头堡、以港强市枢纽城、对德合作示范区、城乡和美幸福地，对标上海五大新城建设50平方公里娄江新城。代表团一行表示，启东要学习太仓高水平推动对外开放、创新发展、城市蝶变的宝贵经验，加快打造“日出江海、梦启东方”城市形象。', '在联合汽车电子有限公司太仓分公司的生产车间内，自主研发的自动化生产设备正在生产电机、电桥和功率模块等产品，每90秒就有一个产品下线。联电太仓工厂于2018年成立，5年间实现项目一期、二期竣工投产，产值从3.5亿元快速攀升至48亿元。项目三期预计今年8月交付使用，届时总产值将突破78亿元。联电太仓工厂大干快上是“太仓速度”的缩影。当前太仓引进德资企业超500家，德企产值超600亿元，累计利用德资超60亿美元，前100家德企聚集太仓历时14年，而从第400家到第500家仅历时2年。太仓在开发开放中快速行动、持续发力，取得了一份高质量发展成绩。代表团一行表示，我们应该坚持“走出去”和“引进来”相结合，更加主动参与国际竞争与合作，全面融入长三角区域高层次协同开放，不断提升开发开放水平。', '“提升营商环境永远在路上”。答好这个时代命题，太仓给启东提供了很好的参考答案。近年来，太仓高标准打造的集成式、一站式综合性服务平台，系统做优线下线上相融合的服务模式，让企业、人才“只进一扇门、只上一张网、办成所有事”。在听取介绍中，为企业梳理267家专业服务机构、招商热力图、太仓云招商服务平台、“太仓市企业服务总入口”线上服务矩阵等一系列服务企业的真招、实招、妙招让代表团成员纷纷拿起手机拍照记录。大家表示，启东与太仓的差距，表面上是发展速度和质效的差距，本质上还是理念思维、体制机制上的差距。我们必须进一步解放思想，强化服务理念，以“用户思维”营造一流营商环境，让企业在启东发展安心、舒心。', '启东市领导顾云峰、邵茂华、龚心明、王裕兵、黄晨、秦广荣以及相关区镇和部门主要负责同志参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>74</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>启东市党政代表团赴苏州吴江区考察学习</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/sxcz/content/5f860c07-0304-4632-962a-027723fb8ab5.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['2月27日，启东市委书记杨中坚，启东市委副书记、市长蔡毅率启东市党政代表团赴苏州吴江区考察，近距离学习吴江在产业发展、平台建设、科技创新等方面的好经验好做法，进一步思考谋划加快推动启东高质量发展的思路举措。吴江区委副书记、区长王国荣，区人大常委会主任钱斌，区政协主席曹雪娟等陪同考察。', '1月中旬，南通市委书记吴新明在参加南通市十六届人大四次会议启东代表团审议时抛出发人深省的问题：“七虎竞南通，十强逐江海，启东要争第几？”“对标苏南，跟谁来比？”启东市委、市政府统一思想迅速行动，明确发展目标——“七虎竞南通 启东争头筹”“瞄准吴江 学赶太仓”。', '元宵刚过，启东市党政代表团就来到此次考察学习活动的首站吴江。吴江是全省民营经济“领头羊”，本土培育了恒力、盛虹两家“世界500强”，形成了丝绸纺织、电子信息、装备制造、新材料四个千亿级产业。吴江全域纳入长三角生态绿色一体化发展示范区给吴江带来了巨大的机遇，承载着国家战略使命的吴江，紧扣“一极三区一高地”和“一田三新”战略定位，面向未来发展方向作布局、促发展，经济社会发展迈入快车道。', '春日里的吴江处处涌动着高质量发展的勃勃生机，展现出产业、科技、人才相互奔赴的美好图景。无论是覆盖全区工业企业，集运行分析、预警监测、综合评价、智能诊断等功能于一体的吴江区工业企业大数据云平台，还是涵盖高端装备制造、新一代信息技术、人工智能等产业的高端产业园，以及产业遍布国内15个省份和海外12个产业基地，业务覆盖150多个国家和地区的全球“灯塔工厂”亨通集团……每一处都让代表团深切感受到朝气蓬勃的发展活力和催人奋进的强大压力。一路上大家认真学习、深入思考、热烈探讨，纷纷表示要充分学习借鉴先进地区发展经验，持续激扬“竞”的状态，比学赶超、奋勇争先，在招商引资、项目建设、服务企业等方面创新举措、持续发力，全力推动启东经济社会高质量发展。', '在工作交流会上，王国荣代表吴江区委区政府对启东市党政代表团的到来表示欢迎，并从区位优势独特、自然禀赋优越、产业基础扎实、人文底蕴深厚等方面介绍了吴江经济社会发展基本情况。他说，启东、吴江都是长三角一体化发展、长江经济带等国家战略的核心区域，同属上海“1+8”大都市圈的核心圈，随着苏州南通战略合作深入推进、启东·吴江高端制造产业园加快建设，两地协同发展的有利条件进一步凸显。希望启东与吴江在良好的合作基础上，共抓国家战略大机遇，深化技术、人才、资金、信息等方面的合作，携手打造苏通跨江融合发展新样板，更好发挥先行探路、引领示范、辐射带动作用，共同交出践行国家战略的最好答卷。', '杨中坚说，通过考察学习，让我们近距离感受到了吴江蓬勃的发展态势。对比吴江的资源禀赋、地理区位、人文底蕴，启东滨江临海、靠近上海，成陆时间不长，但拥有着开拓创新、包容开放、敢闯敢拼的精神内涵。当前，启东面临上海“1+8”大都市圈建设、北沿江高铁建设提速推进、建设长江口产业创新协同区、长三角一体化发展等重大战略机遇。全市上下要学习吴江坚持量质并举、促进经济发展的先进经验，助推产业发展的有益探索，企业家实业报国、创新不止的精神，更要学习吴江抢抓发展风口期乘势而上的背后逻辑和理念思维，进一步拓宽思路、激发干劲，对标先进找差距，明确方向定举措，不断推进启东各项工作提质提效。希望能够与吴江在更多领域开展深入交流，在长三角一体化发展中携手并进、相互促进，共同推动两地实现高质量发展。', '启东市领导顾云峰、邵茂华、龚心明、高广军、王裕兵、黄晨、秦广荣以及相关区镇和部门主要负责同志参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>74</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>如皋市供销合作总社赴射阳县考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/55a91684-c18d-45a5-aab6-2c5bcc26402c.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为进一步提升为农服务水平，发展新时代供销业务，3月12日，如皋市供销合作总社理事会主任陈玉峰带队去射阳县供销社考察学习。考察组一行先后前往射阳县射南村综合服务社、射阳县农业社会化服务中心、射阳县农禾现代农业发展有限公司等地进行参观学习，通过听取介绍、实地查看、互动交流等方式，详细了解该县基层供销社建设、农业社会化服务网络建设等方面的工作经验及有效做法。', '此次学习收获颇多，进一步开阔了视野，创新了发展观念，坚定了发展信心，大家纷纷表示，回去之后将紧密结合自身实际，认真学习借鉴运用，争取在联农带农富农和乡村振兴方面发挥更大的作用。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>74</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>赴徐州考察学习粮食物流园的先进经验</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.haian.gov.cn/hasrmzf/bmdt/content/e5f558d8-c419-4632-91e2-3c779862178c.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['为进一步推进江苏省省级海安粮食物流产业园建设，促进园区健康持续快速发展，3月1日，市发改委牵头，农业农村局、高新区管委会、粮食物流产业园、中储粮南通直属库、南通季和米业组成考察小组。由发改委副书记吉拥海带队，赴中央储备粮徐州直属库有限公司考察学习在粮食仓储经营、粮食物流、粮食安全等方面的先进经验，并考察了徐州维维粮食物流产业园及重点粮食加工企业，学习建设发展和经营管理情况。', '江苏法治报：海安市委书记专题调研政法工作时要求 在建设更高水平平安海安上发挥重要作用', '市政府关于印发海安市 2023年加快推进农业农村现代化建设及支持国家现代农业产业园创建若干政策意见的通知', '海安市白甸镇人民政府2022年 海安市白甸镇人民政府2022年政府信息公开工作年度报告']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>74</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>区公共资源交易中心赴海安考察学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/234710f5-e9b1-455b-b375-27d844254457.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近期，为学习借鉴海安市在优化营商环境、推进限额以下电子交易平台等方面的先进经验，区公共资源交易中心副主任黄胜带队赴海安市行政审批局考察学习。', '考察期间，黄胜一行先后参观了海安市行政审批局开评标区域、服务大厅、评委抽取室等场所建设情况，听取了海安市行政审批局在优化营商环境、数字人民币的推广使用、招标代理的管理等方面取得的成效，并就限额以下电子交易平台运行、一体化监管等方面进行了深度探讨。', '通过此次考察学习，中心对优化整合限额平台功能，提高交易质效和监督管理水平有了更为直观和全面的了解。下阶段，中心将加快由信息化向数字化转型步伐，依托数字见证和智能辅助评标提档升级，不断提升智慧化水平，持续做好数字人民币普及和推广，逐步实现数字人民币在公共资源交易领域应用的全覆盖，助推我区公共资源交易高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>74</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>盐城市应急管理局一行来中天钢铁南通有限公司考察学习安全生产科技赋能先进经验</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/48b9111b-9c8d-4f88-b120-995b442c8ddf.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['12月19日，盐城市应急管理局党委委员、执法局局长佘志勇一行来中天钢铁集团（南通）有限公司参观考察，交流学习安全生产科技赋能先进经验。南通市应急管理局基础处处长东鑫、海门区应急管理局副局长曹连法、施勇和包场镇安监局以及中天钢铁相关负责同志陪同考察。', '在中天钢铁的综合会议室，考察组观看了中天钢铁宣传片并听取了中天钢铁关于安全生产科技赋能的工作报告，双方就安全生产做了经验交流。', '在中天钢铁的数控中心，考察组详细了解了中天钢铁数控中心通过智能化数据平台实时监控各项安全生产指标，实现厂区安全监控全覆盖的安全防范体系并就现场智能化安全生产设备使用和各分厂片区应急安全救援联动流程进行了深入沟通。', '佘志勇表示，此次的学习考察获益匪浅，中天钢铁集团有限公司在施行“制度化管理、实时化监控、自动化阻隔、现代化救援”的有效措施非常值得学习推广。', '包场镇安监局将以此次交流为契机，加强学习安全生产科技化的先进经验，深入总结推广适合辖区企业提升安全生产水平的做法，培育安全生产示范标杆，引领提升辖区企业安全生产水平。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>74</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>我市党政代表团赴苏州吴江区考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-05-09</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/zwyw/content/1f230ce3-ecd6-4b9e-aac8-678aad111ec1.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['5月8日，市委书记王晓斌，市委副书记、市长葛志娟率市党政代表团赴苏州吴江区考察，学习吴江在产业发展、科技创新、城市建设、社会治理、生态文明建设等方面的好思路好做法。吴江区委副书记、区长李铭，区人大常委会主任徐晓枫，区政协主席李斌等陪同考察。在两地工作交流会上，双方签署了《启东市人民政府吴江区人民政府战略合作协议》，进一步深化两地对接合作，共同推动两地协同发展。', '吴江是此次苏南学习考察之行的首站，主要是落实省、南通市跨江融合要求，学习吴江先进经验，谱写两地深化交流合作的崭新篇章。五月的吴江，处处涌动着干事创业的热潮。烟波浩渺、碧波美景的东太湖生态园，在光纤通信、超高压海缆等领域走在世界前列的亨通集团，推动传统产业向绿色、智能、高效转型升级的苏州明志科技有限公司，“一个号码管服务”、“一张网格管治理”的全省首家实体化运作的社会综合治理联动指挥中心，总投资200亿元、建成后年产值达600亿元的国测（苏州）智慧城市产业化基地……每一处都让代表团深切感受到朝气蓬勃的发展活力和催人奋进的强大压力。大家一路参观、一路聆听，一路学习、一路交流，纷纷表示要充分学习借鉴吴江先进的发展经验，进一步对标找差、比学赶超，奋力推动启东经济社会高质量发展。', '在工作交流会上，李铭代表吴江区委区政府对启东代表团的到来表示热烈欢迎，并介绍了吴江经济社会发展情况。他说，启东出江入海，是江苏的“东大门”，吴江是江苏的“南大门”，两地都处于长三角一体化的最前沿。启东区位优势独特、产业特色明显、生态环境优美，未来发展前景无限。此次启东党政代表团来吴江考察，是两地加强协作、增进友谊的起点，吴江区必将按照签订战略合作协议，开展深入广泛的交流合作，在长三角一体化发展中携手并进、砥砺前行，共同推动两地实现高质量发展。', '王晓斌说，通过学习考察，深刻感受到吴江经济发展实力强、项目建设手笔大、创新创造活力足、民生福祉成效实，取得的发展成果令人敬佩，是启东学习追赶的榜样。启东靠江靠海紧临上海，吴江依傍太湖，两地同在长三角城市群，同属源远流长的吴文化。与吴江一样，启东也在积极探索高质量发展路径，取得了一些成绩。当前，启东正严格落实中央“六稳”“六保”要求，按照南通市委“全方位融入苏南、全方位对接上海、全方位推进高质量发展”部署，深入学习苏州“三大法宝”，积极应对疫情挑战，加强深度对接合作，融入一体化；聚焦重大项目建设，全力稳增长；狠抓吕四大港开发，打造新引擎；优化提升城市品质，创建文明城；扎实办好民生实事，提升获得感，有力有序推动了各项重点工作落细落实。', '王晓斌指出，4月7日，南通市党政代表团赴苏州学习考察，两地签署了《关于加强苏通跨江融合发展的战略合作协议》，随后南通市委又明确我市对接吴江区，这些都为启东与吴江深化交流合作奠定了坚实基础。希望下一步能与吴江推动产业体系协同构建，加强基于产业链的深度合作，推动形成双向互动、优势互补的产业发展共同体；推动科技创新协同发力，开放共享创新平台，促进创新资源要素自由流动、高效配置，加强创新链深度融合，探索长三角跨区域协同创新发展新路径；推动生态环境协同治理，全面深化区域生态环境保护协作，构建生态环境保护共同体；推动全域旅游协同提升，加大全域旅游合作开发力度，共同拓展旅游市场，培育文旅产业的新增长点。', '市领导顾云峰、孙建忠、杨中坚、邵茂华、龚心明、石光辉、杨万平、沈良杰、葛伟、唐海兵、高广军、佘德华，以及各镇、园区和相关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>74</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>启东政协民宗界赴崇川区开展宗教中国化场所建设考察学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/88c33b4b-35f5-43ae-9477-753b58fdd93d.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实新时代党的宗教工作理论和方针政策，12月1日，启东市委统战部副部长、市民宗局长刘锦华带领部分民宗界政协委员赴崇川区开展宗教中国化场所建设考察学习。南通市崇川区民宗局相关负责人陪同考察。', '考察组一行先后来到崇川区福田禅寺、崇福禅寺、梅观堂道院、天主教海门教区主教公署等宗教活动场所，深入了解崇川区宗教中国化场所建设情况，并分别与当地民宗部门、宗教界人士就宗教中国化场所建设工作进行了座谈交流。', '考察组一行表示，崇川区在宗教中国化场所建设过程中的经验做法和创新举措值得启东学习借鉴，所到场所爱党爱国爱社会主义意识强烈，对中华优秀传统文化的传承和融合氛围浓厚，对自身品牌的开发切合时代发展主题，社会服务工作有声有色，整体中国化建设有形有感。启东宗教活动场所也要坚持走“文化兴所”之路，将弘扬中华优秀传统文化与场所建设有机结合，为推动启东经济社会高质量发展贡献宗教界积极力量。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>74</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>区地方金融监督管理局组织重点拟上市企业赴启东考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/84006209-a88b-41cc-9570-d09b30f366be.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['5月18日上午，由区地方金融监督管理局薛治安局长带队，组织全区近20家重点拟上市企业赴启东市考察学习。本次活动，实地参观了启东市捷捷微电子、林洋新能源两家优秀上市公司，并安排与上市公司负责人座谈交流，学习启东市上市公司先进管理经验和企业成功上市经验。我区参与考察的企业表示要认真学习借鉴启东上市公司的管理经验和上市经验，加快资本运作步伐，争取早日登陆资本市场。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>74</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>区地方金融监督管理局组织重点拟上市企业赴如东如皋考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/7cf92e49-513d-4352-b2d7-71823a880315.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['为学习借鉴兄弟县市企业上市成功经验，6月10日下午，海门区地方金融监督管理局组织全区近20家重点拟上市企业赴如东、如皋两地考察学习。本次活动，实地参观了如东爱朋医疗、恒辉安防及如皋星球石墨三家上市公司，通过现场观摩和座谈交流，我区拟上市企业充分学习了上市公司的先进管理理念，切实感受了上市后为企业发展带来的人才集聚、技术升级和并购重组等积极效应，帮助拓宽了海门企业视野，并进一步激发了我区企业加快登陆资本市场的信心决心。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>74</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>学管理经验拓工作思路苏锡通园区应急管理局赴苏州工业园区开展专题考察学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-05-31</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.stpac.gov.cn/stkjcyy/yqxx/content/5b2c7422-9a17-43e5-b653-e4aecd361bf0.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['学管理经验，拓工作思路——苏锡通园区应急管理局赴苏州工业园区开展专题考察学习 - 园区信息', '为进一步提升园区应急管理工作水平，学习借鉴兄弟单位在安全监管工作中的先进经验做法，5月25日，由园区党工委副书记、管委会副主任徐金龙，园区党工委委员罗兴钱队，园区应急管理局全体班子成员赴苏州工业园区应急管理局开展了专题考察学习。', '考察交流会上，苏州工业园区应急管理局局长刘强从机关人员配置、企业安全监管、应急物资储备等方面系统介绍了本地区应急管理工作的主要经验做法，重点讲解了苏州工业园区的基层安全监管模式，即加强基层安全监管力量，配备专职安全网格员。通过权力下放、关口前移，在基层一线有效防范化解风险隐患。此外，双方还就安委办实体化运作过程中存在的现实困难和解决对策进行了交流研讨，着重探讨了小微企业管理的难点问题，并就烟花爆竹企业管理模式的改革创新深入交换了意见。', '本次考察学习，不仅为园区应急管理工作启迪了新思路，也为解决安全生产领域的疑难问题提供了新方法。', '下一步，园区应急管理局将把此次考察中学习到的先进经验做法加以吸收转化，在紧密结合园区安全生产和防灾减灾工作形势的基础上，确保应急管理工作的稳步推进和提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>74</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>局领导曹华带队赴盐城考察学习技能培训和竞赛工作经验</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/d524ee1e-9fa1-430a-95bd-f234ae92b082.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['为进一步做好职工培训教育工作，加强技能人才队伍建设，5月18日至19日，市水利局党组成员、局长助理曹华带领新江海河闸管理所班子及各科室（闸）代表，赴盐城市水利局考察学习。', '受局党委委员、副局长何玉良委托，盐城市水利局组织人事处张海滨，市水利工程管理处张勇、乐付桃，市区防洪工程管理处张元刚等领导陪同考察，并做现场介绍和交流探讨。', '曹华一行首先来到射阳河闸管理所秦以培劳模工作室，参观了劳模办公室、劳模实训室、劳模研讨室、劳模工具室等教学场所，体验了自动化控制实训、控制线路实训、闸门操作与维修等实训器材，查看了工作室的人员组成、工作计划、组织实施、管理目标、制度规范、实训项目、活动记录等台账资料。考察组随后在李青权所长的陪同下，参观了射阳河闸管理所的守潮室、启闭机房、控制室、闸史陈列室、“守潮人之家”党建工作室等管理现场，观看了射阳河闸国家级水管单位创建专题宣传片《大闸如城》。在市区防洪工程管理处胜利河西闸站、东伏河闸站，考察组进一步了解了党员名师工作室、党建服务中心、廉政文化室、党支部书记工作室组织管理、工作流程、软硬件设施配置等情况。充分感受了盐城水利基层单位浓厚的地域文化、党建文化、廉政文化、闸史文化、环境文化、精神文化和现代化管理氛围。', '座谈会上，考察组一行认真听取了劳模创新工作室创始人、首届江苏省“最美水利人”、全国水利行业首席技师、盐城市人大代表、盐城市总工会兼职副主席秦以培同志关于队伍建设、活动开展、名师带徒“1+X”“1+6”“A+B”模式、工作成果等方面的情况介绍。双方就工作室建设、职工技能培训、竞赛工作经验等方面的问题进行了深入交流与探讨。通过互动，达到了相互学习、共同进步的目的。就构建新时代水利技能人才队伍方面工作，双方探讨认为存在四个必要因素：一是领导关心，高位谋划推动。根据水利现代化建设发展需要，以技术创新和管理创新为目标，构建覆盖市局系统各有关基层单位的工作网络，接续推动。二是党建引领，示范推进工作。以党员示范带动，弘扬正能量、团结身边人，潜心投身提升能力、促进工作、实现价值的行业潮流、时代洪流。三是搭建载体，强化培训实践。加大经费投入，建设必要的实训场所，充分再利用日常运行耗材及老旧设备等资源，结合工作中常见的设备故障实例，进行有针对性的模拟培训和实践操练。四是完善制度，形成长效机制。人才培养、素质提升，不是一蹴而就的。要建立健全制度规范，保障计划实施。同时加强与人社部门、总工会等协作，配套激励措施，强化结果运用。', '曹华指出，近年来，局党组高度重视水利行业技能人才培育工作，新江海河闸管理所岗位练兵、技能比武试点工作任重道远。他强调，要取长补短, 发挥“传、帮、带”的作用，进一步营造“钻研业务、提高技能、善于创新”的良好氛围，努力打造业务精、素质高、能力强的基层水利技能人才生力军。', '为夯实学习效果，5月20日，市新江海河闸管理所召集党员干部职工，召开赴盐城学习代表交流分享会议，并部署闸管所“能力大提升 岗位大练兵 技能大比武”活动各项工作。工会主席顾红新、工程技术科徐智、新江海河闸闸长任继斌、双桥套闸副闸长张武新等结合切身体会和工作实际，作了深入对比分析，并作表态发言。同志们普遍表示，此次考察学习开拓了眼界、发现了差距、学到了知识，也为今后更好地开展技能培训教育和竞赛工作方面，指明了方向、提供了借鉴，将在局党组和所支部班子的带领下，团结一心，全力以赴，促进今后工作再上新的台阶。（南通市新江海河闸管理所 陈璐璐 王春燕）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>74</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>南京市江宁区委统战部来海门考察学习民族工作</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/0b277024-3ba0-408e-aead-efe77a43da64.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月25日下午，南京市江宁区委统战部三级调研员、民宗局副局长王华带领街道统战委员、民促会相关人员来海门考察学习民族工作。', '考察组一行实地查看了余东镇富民村“红石榴家园”示范基地，详细了解了余东镇民族工作开展情况以及富民村“红石榴家园”创建的经验做法和创新举措，并体验了富民村“红石榴”广场、“红石榴”图书馆、“红石榴”娱乐室、“红石榴”展示厅等。同时，参观了余东镇特色民族企业江苏希诺实业有限公司，详细了解了企业民族团结进步创建情况介绍。', '考察组一致认为，海门区“红石榴家园”创建工作特色显著，民族团结进步工作卓有成效，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>74</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>拉萨经开区安监局来通考察学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://yjgl.nantong.gov.cn//ntaj/bmdt/content/623a08dc-227c-441a-a7e8-d24a336522c5.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市安委办专职副主任季雪锋就安全生产三年专项整治、“党建+安全”融合发展、“专家积分管理”、“社会应急力量使用”等方面的做法与西若伟色局长进行了深入交流。', '西若伟色局长表示，南通市“一图、两单、三卡、八必须”安全风险辨识管控机制、“安全标准化管理机制”、“安全生产协作组”、“行业商会安监站”、“四个清、五个化”专项整治工作标准、安全生产“双百分制”考核等可复制、可推广的先进典型经验做法为他们工作开展提供了较好的借鉴。', '会后，拉萨考察组一行还参观了市应急指挥中心，详细了解我市“2+1+4”指挥中心实体化运作以及应急管理信息系统建设、整合、监测、预警等方面的创新工作。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>74</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>海安市政协市人社局率队赴四川成都考察学习人力资源服务工作</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-05-11</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/88537af5-9ef3-4fae-9177-dbda0225bd83.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为进一步推动海安市人社工作高质量发展，更好地服务企业、服务民生，5月7日至9日，海安市政协副主席蔡祝平、市人社局副局长钟晓卫一行到四川成都进行考察交流学习。成都市青羊区政协副主席谭文光、政协社法民宗委副主任刘雪瑜、人社局副局长李江、园区运营总经理助理向旭、天府源集团董事长徐正祥等陪同。', '谭文光对考察组一行的到来表示热烈欢迎，并介绍了青羊区的基本情况。考察组一行先后到成都市人力资源服务产业园园区、天府源人力资源集团以及乐山市、犍为县人力资源和社会保障局等地学习参观，并就人力资源服务工作召开专题座谈会。', '座谈会上，徐正祥详细介绍了天府源集团最新业态、园区的功能布局、定位以及五年战略规划等情况。李江详细介绍了园区内企业集聚区、人才服务中心、产业服务共享区、公共服务区、配套功能区、研发中心六大功能区域以及行业交流、人才大数据、线上产业园、项目合作、孵化培育、集成服务六大服务模块。蔡祝平表示，此次学习考察是一次走访拜访、学习取经、对标对表之行，我们将认真消化吸收宝贵经验和成功做法，积极探索创新更好服务企业、服务民生的有效举措。', '此次考察交流学习，让考察组对四川人力资源服务工作有了初步了解，同时加强了相互间的沟通与联系，为后续进一步交流合作奠定了基础。考察组表示，此次考察学习收获很大，效果很好，我们要紧密结合海安实际，认真思考、与时俱进、探索创新，聚焦服务企业和民生，找准着力点和突破口，努力推动海安人力资源和社会保障事业再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>74</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>海安市供销合作社组织参观考察学习活动</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/b8041f8d-df3e-4364-b1a6-18744f9873ef.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['4月24日 上午，海安市供销合作社组织机关全体党员干部，市社第六届理事会理事基层代表前往海安市雅周现代农业园参观考察学习。', '通过现场听讲解、参观、亲身体验，接触和了解了无土栽培植物等多项先进的农业栽培项目技术，深知现代科技给农业带来的巨大变化，感受到现代农业的魅力。', '此次参观学习活动的开展，进一步开阔了供销合作社党员干部的视野，激励大家学史力行，在干事创业中砥砺担当之能。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>74</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>启东市民宗局赴浙江嘉兴龙庄讲寺考察学习寺院管理工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/c12a40e9-e122-4d19-81c8-81bceed746a5.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['调研组参观了龙庄讲寺的整体面貌，听取了寺院建设的规划介绍，与本义主持交流了寺院内部管理等。龙庄讲寺虽仍在修缮中，但其整体面貌和内部管理均让调研组一行感到不虚此行。陆峤松副局长认为他们的法治宣传室和信息化管理等让人惊叹，十分值得学习。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>74</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>苏州市民宗局组织人员来海安考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/1547dd3f-a69f-4397-94a6-5f6d39ef744e.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['4月20日，苏州市民宗局组织各县（市）区民宗局、相关乡镇和村居民族工作人员共40多人来海安考察学习民族团结进步创建工作，南通市民宗局民族处处长王旭，海安市委统战部常务副部长、市民宗局局长王晓波等陪同考察。', '考察组一行先后到宁蒗支教展馆、明道小学丹凤校区、鑫缘集团考察学习。每到一处，都认真听取讲解，详细了解海安在民族团结进步创建工作中的做法、成效及经验介绍。', '通过现场观摩学习，考察组一致认为，海安民族团结进步创建工作氛围浓厚、特色突出、成效显著，经验值得学习，做法值得推广；此次考察学习活动开阔了视野，提高了认识，提升了能力，更好地激发了做好民族团结进步创建工作的动力。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>74</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>如东县供销合作社赴启东海门考察学习</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-04-15</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/xtdt/content/bde672a2-f623-421a-84fd-96cf3d0036a5.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['近日，如东县供销合作社、商务局、财政局、东和集团一行8人赴启东、海门考察学习农村电子商务工作的成功经验及先进做法。', '上午，在启东市供销合作社的陪同下，参观了启东新城农业发展有限公司，公司负责人重点介绍了农产品电商平台销售模式及经营现状，为如东今后线上宣传推介农产品提供了方向和思路 。', '下午，考察组一行先后参观了海门电商物流公司、电商公共服务中心、基层电商服务站点、苏洪鲜食等，并与海门区商务局、电商项目运营公司座谈，会上介绍了海门电子商务示范县打造的先进经验与做法，对推进过程中的难点问题进行了交流探讨。', '下一步，如东县社将会同商务局、东和集团继续开展电商考察调研，借鉴各地成功经验，扎实有效地开展农村电商工作，助推农产品出村进城，带动农民增收致富 。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>74</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>山西省绛县县委统战部来海安考察学习民族宗教工作</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021-04-17</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/485e9ab6-22a9-40b7-9b4e-98c877f9db0e.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['4月16日，山西省绛县县委统战部常务副部长、县民宗局局长王红稳带队来海安考察学习民族宗教工作，海安市委统战部常务副部长、市民宗局局长王晓波陪同考察。', '考察组一行先后实地考察宁蒗支教展馆、海安街道二里社区、道教文化中心、白龙寺等地，详细了解海安民族宗教工作的经验做法和创新举措。', '考察组一致认为，海安在民族宗教领域工作获得良好成效，积累有益经验，值得学习借鉴。纷纷表示，要把学到的好思想、好经验带回去，结合自身实际落实到今后的工作中，促进民族宗教工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>74</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>淮安市清江浦区来海安考察学习红石榴家园创建工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/9dd48451-1407-41fa-86ec-7c7e9708b356.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['4月12日上午，淮安市清江浦区民宗局副局长刘清平带领局机关人员和淮阴师范附小教师来明道小学集团考察学习海安“红石榴家园”创建工作，海安市民宗局副局长刘和军陪同考察。', '考察组一行首先听取学校民族团结教育工作特色亮点介绍。“孕育着民族团结”思想的明道文化，“明道立德，兼济天下”的融合教育思想，彰显民族团结教育主题的教室、走廊展板等在各方面渗透民族团结教育，给大家留下了深刻的印象。', '然后，现场观摩陈爱萍老师执教的“民族团结进步”公开课《中华民族唱起来》。民族歌曲的演唱、民族乐器的演奏、民族舞蹈的演绎等表达了“中华民族一家亲”的美好心愿。', '最后，参观“中华民族一家亲，同心共筑中国梦”为主题的民族团结教育馆。馆内的明道银行专门设置“民族团结币”，激发全体师生发扬民族精神，维护民族团结，关爱少数民族学生，促进各民族学生共同进步。', '考察组一行对明道小学加强民族团结教育的创新举措表示赞赏，认为学校的民族团结教育有文化内涵、有物型展示、有活动特色、有制度保障，非常值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>74</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市水利局组织赴南京考察学习农村水利与水土保持工作</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021-04-09</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/eb0d5e4f-58fc-46bc-9863-dd038d2af747.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['为全面开展农村生态河道建设，提升农村生态河道覆盖率，加强水土保持监督管理，深入推进全市农村水利与水土保持工作迈上新台阶，4月7日-8日，市水利局党组成员、副局长赵建华带队六个涉农县（市、区）水利（务）局农村水利与水土保持工作相关同志，赴南京考察学习。', '7日下午，考察组一行首先来到南京市江宁区谷里高效节水灌溉示范区，认真听取了谷里高效节水灌溉工程示范区片建设和工程管护情况，参观了农业节水控制中心、南部喷滴灌观赏区、北部多灌溉方式展示区。南京市江宁区谷里高效节水灌溉工程按照“一流的高效节水示范工程、一流的农田水利配套工程、一流的生态环境示范工程、一流的运行管理体系”的目标定位，大力整合高效节水重点县、中小河流重点县、小流域治理等中央、省、市水利项目，建成了工程技术先进、设施配套完善、生态环境优美、管理机制创新、综合效益突出、示范效果显著的高效节水灌溉示范片，支撑了现代农业发展和美丽乡村建设，促进了城乡统筹发展。', '8日上午，考察组来到溧水区白马镇李巷河综合整治工程现场进行了实地参观学习。李巷河位于白马镇东南部丘陵山区，流经石头寨村，在李巷河综合整治的过程中，重点打造“安全之河”、“健康之河”、“美丽之河”、“互动之河”，在多样性表现河道自然生动的同时，加强人水互动设施的建设，既方便了生产与生活，又提升了人水和谐的互动性。整个参观考察过程中，大家边走边看边，热烈讨论，虚心请教，纷纷表示拓宽了工作思路，获益良多。', '在考察学习期间，考察组认真听取了南京水务局人员关于南京市农村河道综合整治工作、水土保持及生态小流域治理工作情况介绍，双方热烈交流讨论。赵建华表示，“这次考察学习为我们提供了有益的参照，回去后我们要向南京学习。一是南京水务工作很超前，农村水环境整治和水土保持工作起步较早，丰富经验值得我们学习；二是各项工作起点高、标准高，具有规范的建设标准、科学的组织架构，部里、厅里多次在这边召开现场会；三是有一批能干事想干事的人，每个水利人都充满干事创业的热情，真抓实干、勇于担当；四是高度重视，持续加强行政推动，加大财政投入力度；五是全市‘一盘棋’布局，县（区）、镇、村全力支持、全力配合，助推水利事业高质量发展。”（局农村水利与水土保持处 陆姣含）']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>74</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>射阳县民宗局一行来海安考察学习宁蒗支教经验</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/5ddab9b1-ff19-43a3-98a5-df12e86771b1.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['3月31日，射阳县委统战部常务副部长、县民宗局局长唐菱一行来海安考察学习宁蒗支教经验。海安市委统战部常务副部长、市民宗局局长王晓波陪同考察。', '33年来，海安支教老师不仅培养当地许多大学生，更激发起少数民族群众那股奋然为之的精气神，带动当地经济和社会发展，促进各民族的团结进步和全面振兴。2020年，支教群体荣膺江苏“时代楷模”称号。', '考察人员被一幅幅珍贵的图片和一行行深情的文字深深打动，深受教育和鼓舞。一致认为，海安深入推动民族团结进步的成功经验做法，值得广泛推广和借鉴。要不忘初心、牢记使命、勇于担当，学习支教群体不畏艰辛、敢于创新的民族团结精神，努力提升民族工作业务素养。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>74</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>马鞍山市市场监管局到我区考察学习</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021-04-06</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/bmdt/content/51435fd7-8215-40b6-aacb-c37a2fb32443.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['区市场监管局供稿（曹丁丁 张蕾蕾 许美华）3月31日，马鞍山市市场监管局一行来区市场监管局进行为期1天的考察交流，学习优化食品安全监管、创建国家食品安全示范城市的工作经验做法。', '学习考察组一行在区市场监管局二楼培训中心举行交流座谈会，双方就创建食安城市先进经验、食品安全抽检分离成功做法、“互联网+明厨亮灶”及小餐饮监管模式等内容进行了友好交流，现场气氛热烈。学习考察组一行先后实地参观金沙街道新三园村、信息化监管指挥中心等，考察学习“食安通州”联创区建设、“1+14”信息化监管指挥体系等。', '近年来，区市场监管局深入推进以远程监管、移动监管、预警防控为特征的智慧监管，充分利用互联网、大数据等信息技术开展食品安全监管工作，积极推动食品安全监管信息平台建设，提高监管工作效能。通过持续推进“一中心两平台三体系”建设运用，努力打造通州特色食品安全“智慧监管”新模式，实现市场安全风险隐患的早发现、快预警、强监管、优处置。', '该局不断致力于建设食品安全基层基础，发挥社会各界力量，大力推进“食安通州”联创区建设。规范布局、组织、制度“三要素”，建好基层联创阵地；创新家宴管理、智慧监控、检验检测“三支撑”，提升基层治理效能；强化部门联管、专家联训、社会联督“三联动”，推进基层共治格局，形成了联创联管、共建共享的基层食品安全社会共治格局。', '通过此次交流学习，马鞍山市市场监管局一行表示，学习我区国家食品安全示范城市创建经验、食品安全“智慧监管”模式，获益匪浅。', '下一步，区市场监管局将从农产品源头管理、检验检测能力、餐厨废弃物治理、小餐饮小作坊小摊贩监管、企业主体责任落实等方面，不断深化“食安通州”联创区建设，打造人民满意的食品安全城市。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>先锋街道组织街村干部赴苏南考察学习</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/jzdt/content/e198146d-e428-44ce-856b-0970bd46c306.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['先锋街道供稿（施丹）为进一步提高街道领导班子、新一届村“两委”成员的政治素质和履职能力，全方位打开街道产业转型、乡村振兴的良好局面，3月26日-3月27日，在街道党工委书记的带领下，先锋街道党政领导、一办七局一中心负责人、青干班班委代表、各村党总支书记及两委代表、双管单位负责人赴无锡、苏州等地实地考察学习。', '两天时间行程紧凑，一行人先后前往5个极具代表性的教学点开展学习考察。其中包括教育“老”传统、产业“新”模式，乡村振兴的样板示范——无锡市洛社镇“六次产业园”；地产转型文旅运营项目，由静态的郊区城镇转型成拥有活跃消费力的城镇——惠山区田园东方蜜桃村；废弃厂房打造的中国“好莱坞”，园区产值从1.8亿元跃升至2019年的65亿元，实现了制造业转型升级的“华丽转身”——华莱坞国家数字电影产业园；以“文化大镇、经济重镇、旅游名镇”为引领，以建成“江南美凤凰”为目标，着力打造最具潜力和特色的乡镇——张家港市凤凰镇；走出“以工业化牵引，带动城镇化，进而全面实现农业现代化”的科学发展路子，乡村振兴走在全国前列——南丰镇永联村。通过听取现场讲解、交流沟通、面对面座谈等形式，大家一路听、一路看，一路议、一路思，从农村建设到产业转型，从社区管理到党建创新，在观摩学习中开阔了眼界、增长了见识、拓宽了思路。', '“不辱使命、不虚此行。”大家纷纷表示此次学习收获颇丰。在充分感受社会主义新农村翻天覆地的发展变化的同时，也学到了先进地区党员干部勇于担当、率先垂范、追赶超越的干事创业精气神。下一步，街道将开展专题交流活动，促使大家真正把此次参观学习的经验消化好、吸收好，取长补短、大胆创新、苦干实干，为先锋转型升级夯实基层基础、贡献基层力量。', '另外，党史教育依然是本次学习的必修课。所有人员一齐参观了沙洲县抗日民主政府纪念馆，了解沙洲革命斗争史，领悟沙洲儿女无私奉献、不屈不挠的斗争精神。大家在鲜红的党旗下重温入党誓词，进一步坚定理想信念、牢记初心使命。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>徐新华副局长带队赴苏南考察学习</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://scjgj.nantong.gov.cn//ntsgsj/xsqyw/content/182726f9-0dca-4d1b-a778-97cce0f94398.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['3月23日至24日，徐新华副局长带队到苏州、常州和南京三地考察学习，市人社局工资福利处、市财政局工贸处参加调研，市局财务审计处、人事处及下属3家事业单位负责人陪同调研。', '苏州、常州和南京市场监督管理局会同当地人社、财政相关处室领导，分别就市场监管局下属事业单位基本情况、预算管理模式、绩效考核管理办法、聘用人员待遇等内容进行介绍，双方进行了广泛的交流。', '徐新华副局长感谢同行将经验无私分享，并表示取得的宝贵经验将为我们突破发展瓶颈，找准并解决影响和制约经营性事业单位发展的突出问题，推动经营性事业单位提升市场竞争力，为更好服务地方产业平台，着力构建有利于经营性事业单位发展的体制问题拓宽思路。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>74</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>山西省高平市行政审批服务管理局一行来如考察学习工程建设项目审批制度改革工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021-03-17</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/eeb6c2ff-0adf-4c1e-b84b-4e819f74d7d8.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['山西省高平市行政审批服务管理局一行来如考察学习工程建设项目审批制度改革工作 - 本地动态', '2021年3月17日上午，山西省高平市行政审批服务管理局副局长郜华伟一行来我市考察工程建设项目审批制度改革工作。如皋市行政审批局副局长徐猛、如皋市行政审批局总工程师卢宗志及相关科室（中心）负责人陪同考察。', '考察组一行实地参观了政务服务大厅投资建设服务区，详细了解工程建设项目审批窗口运行、窗口设置、帮办代办模式等情况，随后在座谈会上，双方就工程建设项目审批制度改革实施情况、审批系统建设运行、推行告知承诺和中介服务平台、联合验收事项及配套的相关管理办法、制度等工作进行了深入交流、探讨。', '考察组对我市规范工程建设项目审批窗口运行、优化完善审批流程等工作取得的成效进行高度评价，并表示在今后的工作中，要进一步加强沟通交流，相互借鉴，取长补短，更好地推动审批服务便民化和政务服务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>74</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>学习经验明确方向苏锡通区域治理现代化指挥中心赴苏州上海考察学习</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-03-08</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.stpac.gov.cn/stkjcyy/yqxx/content/3b687d06-c6f1-4eda-88fd-f006777aa908.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['学习经验 明确方向|苏锡通区域治理现代化指挥中心赴苏州、上海考察学习 - 园区信息', '为贯彻落实市委、市政府全力打造全国市域社会治理现代化试点城市的部署要求，更好地学习先进地区市域治理、社会管理、智慧城市等方面的运行管理经验，3月3日—4日，苏锡通园区党工委委员、管委会副主任诸培国带领指挥中心一行赴上海市浦东新区城市运行综合管理中心、苏州工业园区智慧城市运行管理中心、唯亭街道等地开展学习调研。', '在苏州智慧城市运行管理中心，调研组一行深入了解了城市综合态势、运行感知分析、全流程监督管理、应急救援指挥智慧系统的开发、管理、运营情况，围绕21类AI能力、16类物联感知能力和城市管理数字底座等主题进行了深入的交流。苏州工业园区通过推动社会治理机制改革与创新，不断提高园区社会综合治理能力，提升园区城市运行管理水平，重点解决社会发展中的痛点、难点、堵点问题，给调研组一行留下了深刻印象。', '在浦东新区城市运行综合管理中心，调研组一行学习了习近平总书记在2018年11月6日考察浦东新区城市运行综合管理中心提出的“一流城市要有一流治理”“城市管理应该像绣花一样精细”等讲话精神。现场观看了浦东新区在城市运行智能化管理、整体联勤联动、监督指挥体系、城市运行数据资源共享等领域的探索和实践，并就如何通过信息资源高度整合提升城市运行精细化管理水平等方面进行了交流。', '调研组一行还参观了唯亭街道指挥中心、苏州测绘、江苏风云科技服务有限公司等地。考察中，调研组一行召开了5场座谈会，与相关领导、技术开发人员、中心管理人员等各类主体进行了深入的交流。', '参加调研的工作人员纷纷表示，当前正值苏锡通园区区域治理现代化指挥体系建设起步期，此次学习为今后工作的深入开展指明了工作方向，开拓了工作思路，将以良好的精神状态和务实的工作作风，撸起袖子加油干，全力以赴服务苏锡通园区各项中心工作，做好2021年各项工作，为园区经济社会发展贡献更多力量。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>74</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>南通高新区领导率队赴苏锡通产业园考察学习</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-03-11</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/jzdt/content/db9482b0-5681-465d-b3ec-79d394bc9efa.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['南通高新区供稿（黄映如）为进一步提升集成电路零部件产业园区外部形象、打造一流硬环境，近日，南通高新区管委会领导率建设局、总公司和设计院赴苏锡通产业园考察学习景观绿化设计、养护等工作。', '集成电路零部件产业园区规划市政道路“六横三纵”，目前已建成“三横”人民东路、钟秀东路、文振路和“两纵”金河路、双福路；待建“三横”金池路、文萃路、文荟路和“一纵”金晨路。', '高新区将充分运用此次参观学习成果，结合高新区实际，重点推进文萃路、三级横河河滨公园的景观绿化建设和重要交通节点绿化改造工程，进一步优化园区生态环境，助力高新区高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>74</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>我市赴太仓市考察学习楹联文化</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/fde42136-726b-4b64-b33b-444a02e1cce9.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['1月10日，我市赴苏州市太仓市考察学习楹联文化。副市长卢林，市诗联书画研究会、宣传部、教体局、博物馆、海安街道等相关部门单位和街道负责人参加活动。', '考察组先后参观了太仓市实验初中、太仓市高新区第三实验小学、沙溪镇楹联街等楹联教育基地，听取了相关情况介绍，学习了先进经验和做法。', '卢林表示，近年来，太仓市深入推进楹联文化工作，创造了可资借鉴的好经验、好做法，值得海安学习。他希望我市相关部门单位和街道要以这次学习为契机，把创建楹联文化城市工作列入议事日程，对创建的路径、标准、难点进行梳理，结合本地实际，拿出切实可行的创建方案，努力推动海安楹联文化工作高质量开展，为推动我市文化事业迈上新台阶作出积极努力。（记者陈俐君）']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>74</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>泰州市姜堰区委统战部一行来海安考察学习宁蒗支教经验</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021-02-25</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/f8e3346a-9c5e-4599-8ad9-3ba024ccbef2.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['2月24日上午，泰州市姜堰区委统战部常务副部长李光辉一行来海安考察学习宁蒗支教经验。海安市委常委、组织部长、统战部长张明星参加接待，市委统战部常务副部长、市民宗局局长王晓波，市教体局党组副书记、副局长吉清海等陪同考察。', '在宁蒗支教展馆，一幅幅珍贵的图片、一行行深情的文字，支教教师扶贫助学、促进民族团结的大爱情怀，深深打动着考察组的每一个人。33年来，海安支教老师成为了海安和云南宁蒗彝族自治县之间的一座友谊之桥，开创了教育合作“宁海模式”，形成了促进民族团结的“宁海效应”。2020年，支教群体荣膺江苏“时代楷模”称号。', '考察人员纷纷表示，海安对宁蒗支教起步早、持续久、人员多、成效显著，开创了少数民族教育扶贫的历史先河。 海安深入推动民族团结进步的成功经验做法，值得广泛推广和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>74</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>学先进项目建设再提速苏锡通园区率队赴苏州相城区考察学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.stpac.gov.cn/stkjcyy/yqxx/content/fef33734-b779-496a-967c-25b0ea479938.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['为学习和借鉴先进地区行政审批运行经验，进一步深化项目建设推进服务，1月27日，苏锡通科技产业园区党工委副书记黄晓峰率队赴苏州市相城区考察学习。', '考察组一行现场参观了相城区政务服务大厅，实地查看了政务服务事项操作办理流程、集中并联审批、“办好一件事”等相关内容，学习了相城区政务服务企业全链服务新模式。', '随后，双方领导就优化营商环境、项目建设推进体系、“拿地即开工”、“全链审批”服务等特色工作开展了深入细致的交流。', '通过此次实地考察，园区深入学习并领会了相城区在项目建设和政务服务工作方面的先进做法和亮点经验，下阶段，园区将对标找差，进一步解放思想，以落地项目促进服务效能再提升、以优质服务助推项目建设再提速。', '园区管委副主任顾永林、徐浩，党工委委员林振兴，规建局、行审局、资规分局、综合服务中心有关负责同志共同参与此次考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>74</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>市水利局组织赴上海苏州考察学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2020-12-25</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/3ea5e7d9-4574-4a34-ba24-46ff9f5e8cc8.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的十九届五中全会精神，全面落实习近平总书记视察江苏重要讲话指示精神，按照市委“三个全方位”的要求，更加科学地谋划全市“十四五”水利发展和2021年水利重点工作，12月22日-23日，市水利局党组书记、局长吴晓春带领全市水利系统40余人，赴上海、苏州开展考察学习。', '22日上午，考察组一行首先来到上海市水务信息中心，认真听取了上海水务局人员关于上海市水务公共信息平台、防汛防台指挥系统建设情况介绍。上海市防汛防台指挥系统基于创新的平台信息化架构，融合了“测、报、防、抗、救、援”六大防汛工作要素，针对上海主要防御对象、防汛预案、灾情、舆情、社情以及各类指挥智能化场景，实现了全市统一、科学、高效的实时智能调度和多部门联动协同，并按照“集中部署、分级应用”的原则，同步部署到区、街镇城运中心，实现三级防汛指挥日常管理一张屏，态势感知一张网，信息展示一张图，指挥调度一体化。听完介绍后，双方就系统建设有关问题进行了热烈的讨论交流。吴晓春局长表示，“我们现在也正在对防汛决策指挥系统进行升级，这个系统为我们提供了有益的参照，回去后我们要向上海学习”。', '下午，考察组先后来到黄浦江贯通工程、青浦区农村水环境治理现场、环元荡生态修复及岸线贯通工程现场进行了实地参观学习。黄浦滨江岸线是上海市重点打造的世界级滨江空间，对水利部门服务南通五龙汇、任港湾片区建设具有重要的示范意义。在青浦区金泽镇莲湖村，生态、清洁、设施完善、富有特色的村庄面貌很快吸引了大家的眼球，大家对该村注重河湖生态防护，大力开展陆域绿化与水生植物搭配建设，实现部分硬质驳岸软化，以及生活污水、生活垃圾、畜禽养殖处理，“以蛙护稻，以稻养蛙”生态种植等做法由衷地赞赏。村里的“河长工作站”更是吸引许多同志驻足良久，有的表示“这个站投入小、但作用大，给了民间河长工作活动空间，值得借鉴”。在环元荡生态修复及岸线贯通工程现场，吴江区水务局王舟副局长对照图板，详细介绍了长三角生态绿色一体化示范区建设、美丽湖泊群—水系连通及农村水系综合整治县项目和示范区联合河长制工作，吴晓春局长对县（市）区水利（务）局主要负责同志说，“我们前段时间出现的界河问题，就可以用这个方法来解决。回去后要广泛推广联合河长制工作做法，开展跨界河道联防联治联管。”', '12月23日上午，考察组首先来到苏州市工业园区，参观学习苏州市水务局“智水苏州”信息平台。这个项目是水利部智慧水利样板工程，主要建有防汛排涝、生态河湖监管和城市供排水业务三大应用体系，以提高防汛应急保障和指挥调度能力。考察组最后一站来到苏州市七浦塘水利工程阳澄湖枢纽。七浦塘工程西起阳澄湖，东至长江，途经相城区、昆山市、常熟市和太仓市，2011年12月底开工建设，2015年5月实现主体工程通水。该工程的实施，既增强了阳澄淀卯区域洪水排江能力，使区域防洪标准从20年一遇提高到50年一遇，又能引江入湖，提高区域水资源配置能力，增强阳澄湖及周边河网水体的水动力条件，为以阳澄湖为中心的区域河网水环境容量和饮用水源地供水提供了保障。阳澄湖枢纽是七浦塘水利工程的两座大型枢纽之一，在枢纽闸堤上，苏州市水利工程管理处的同志认真介绍了枢纽日常管理情况，并总结成“一建就管”、“两长”主导、扁平化管理三大亮点，提供了可借鉴、可复制的工作经验。整个调研参观过程中，大家都抱着“小学生”的态度，边走边看边讨论，虚心讨教，热烈交流，纷纷表示不虚此行，收获很大。', '全体局领导，各处室、直属单位主要负责人，各县（市）区水利部门主要负责人参加考察学习。上海市水务局党组成员、总工程师高昊旻，苏州市水务局党组书记、局长陈习庆，以及上海市水务信息中心、吴江区水务局相关领导陪同考察学习。（局办公室 张兵）']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>74</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市水利局赴徐州考察学习水利安全生产执法工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/528f0559-8b3b-4ace-9723-0a6c6f6a5c50.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['为进一步提升我市水利工程建设安全生产监管和执法水平，12月10日-11日，市水利局组织相关县（市）区和单位负责同志赴徐州市水务局考察学习。', '考察团通过座谈、看案卷等方式，学习徐州市水利工程建设安全生产违法违规问题项目线索移交、立案调查、执法查处等方面的先进经验和方法，并就水利部门能否作为安全生产执法主体、自由裁量权的运用、执法文书制作等方面进行了深入交流。', '下阶段，我市将进一步加强安全生产法学习和研究，以点带面，全面开展水利安全生产执法实践，严厉查处水利安全生产非法违法行为。（南通市水政监察支队 钱晶晶）']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>74</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>王春华副市长带队赴吴江南湖考察学习现代服务业先进经验</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-11-27</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://fgw.nantong.gov.cn//ntsfgw/xsqyw/content/23a61a8a-0016-418e-bff2-a051d4c14e1e.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['为进一步加快发展服务业转型升级、促进服务业高质量发展，11月25日至26日，王春华副市长带领政府办、发展改革委、商务局及经济开发区相关负责同志赴苏州吴江、嘉兴南湖等地，重点就服务业楼宇经济、总部经济、服务业集聚区发展进行考察学习。', '考察组一行首先前往苏州吴江参加了服务业发展情况座谈会，实地参观了吴江的楼宇经济集聚区稻谷国际中心，并对苏州北大新世纪世恒学校、白鹿文化传媒等总部经济企业、楼宇经济企业进行了详细考察。随后前往浙江嘉兴南湖区，先后参观了嘉兴中科检测技术服务有限公司、网易联合创新中心、南湖基金小镇等楼宇经济企业，详细了解当地有关服务业创新发展的新思路和先进做法，并与当地发展改革部门和楼宇经济所在地围绕如何促进服务业高质量发展、提升服务业发展水平、开展楼宇经济等方面进行深入探讨和交流。', '王春华指出，近年来，启东市服务业发展迅速，变化有目共睹，工作成效显著，但较兄弟县市区还有一定差距，此次吴江、南湖外出的学习有许多宝贵经验值得启东学习和借鉴。发展改革委要切实做好服务业的牵头工作、做好服务业新政策的修订、落实好各项服务业工作；商务局要围绕社消零的提升，做好住宿餐饮批发零售等行业的指导和落实工作；经济开发区要牢牢抓好临近主城区的优势，切实担负起发展生产性服务业、楼宇经济、总部经济的重任。（严樱）']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>74</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>宿迁市宿城区考察组来我区考察学习餐饮油烟治理工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-11-24</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.chongchuan.gov.cn/xccqrmzf/bmdt/content/84975c27-fb8d-471b-a3c8-d10d7e6b6279.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['11月11日下午，宿迁市宿城区餐饮油烟治理工作相关组成部门到我区考察学习餐饮油烟治理工作。崇川区城管局相关负责人员陪同。', '考察组一行首先详细了解了餐饮业油烟排放在线监控平台建设运行情况，由区城管局相关工作人员介绍了餐饮油烟在线监控管理平台的基本情况，包括运行情况、操作流程、检测原理、数据分析等方面业务在崇川运营的目前状态。', '随后考察组认真听取了我区餐饮油烟治理工作介绍。区城管局通过创新监管方式，强化宣传引导，从严执法监督，巩固整治成效，持续加大对餐饮行业执法和治理力度。一是严格落实在《中华人民共和国大气污染防治法》、《江苏省大气污染防治条例》等有关法律、法规的规定，严格落实餐饮服务项目现场勘查的“前置审批”工作，加强油烟排放监管，加大安装油烟净化设施及在线监控安装力度，采取科学安排执法人员，增加检查频次等措施，确保安装比例稳步增长。二是建立油烟净化设施使用监督检查长效机制，常态化开展专项检查，对不正常使用油烟净化设施的，依据相关法律法规严格处理，做到严管重罚，建立餐饮服务业档案，将油烟达标排放监管情况计入档案，长效监管，巩固治理成果，避免反弹。三是深入宣传油烟污染对人体的伤害，提高广大市民的法律意识，责任意识，社会意识。通过发放宣传页等方式，耐心向经营者讲解相关法律法规，努力争取与经营者在维护环境卫生上达成共识，共同打赢“大气污染防治攻坚战”。同时对餐饮油烟治理工作的相关执法队员进行培训，通过培训使他们对餐饮油烟治理工作有更深入的了解，使大家进一步掌握执法技巧，提高处理问题能力，提升队餐饮油烟治理业务水平。', '考察组高度赞扬了我区餐饮油烟治理工作，认为区城管局油烟污染的执法处罚抓得紧、做得好，考察组带队领导表示：崇川区的先进经验做法具有很强的借鉴意义，此次考察学习收获巨大，高度规范化管理也给他们留下了深刻印象。通过此次的学习考察和经验交流，双方都表示今后要加强相互交流、相互学习的力度，持续提高两区餐饮油烟治理水平。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>74</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>市科技局赴苏锡常嘉兴考察学习科技创新工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://kjj.nantong.gov.cn//ntskjj/bmdt/content/17720f24-96a4-46c1-ac79-f96be5f7a1af.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为深化市委“全方位融入苏南、全方位对接上海、全方位推进高质量发展”的要求，市科技局党组书记赵玉峰带领局机关一行人员赴苏锡常、嘉兴进行为期三天的学习考察，借鉴苏南、嘉兴科技创新工作先进经验，拓宽工作视野，推动思想解放，谋求合作共赢，以更高起点谋划推进“十四五”科技创新工作，为建设“强富美高”新南通提供科技支撑。', '考察团一行先后赴常州天合光能有限公司、国家超级计算机无锡中心、华中科技大学无锡研究院、江南大学国家大学科技园、无锡慧海湾物联网小镇、材料科学姑苏实验室、浙江清华柔性电子技术研究院、浙江清华长三角研究院、浙江长三角人才大厦等地进行了实地参观学习，并与四市科技局相关人员组织座谈交流，详细了解当地“十四五”科技规划思路，科技体制改革、科技载体平台建设、科技服务业、产学研合作、长三角一体化协同创新等方面所作的工作和取得的经验。', '考察过程中，赵玉峰指出，苏锡常、嘉兴的科技创新工作谋在新处、干在实处，思路新、亮点多、措施实、成效好，科技对经济的支撑引领作用明显，值得我们好好学习，深入思考。赵玉峰要求，要以十九届五中全会精神为指引，按照“四个面向”的战略重点，以国家创新型城市建设为抓手，深入实施创新驱动发展战略，系统总结此次考察学习经验，认真借鉴四市谋划科技创新工作的新思路、新理念，不断深化科技体制改革，积极培育科技创新主体，充分发挥科技创新战略支撑作用，以科技创新引领高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>74</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市水政监察支队赴镇江扬州考察学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-10-31</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/3a382ff7-d707-4d38-b992-7c4095cd7862.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['为做好全市长江水域禁止采砂管工作，不断提高禁止采砂管理水平，10月27日-28日，市水政监察支队组织沿江各大队赴镇江、扬州考察学习。', '考察团先后参观了镇江、扬州水政执法基地，登上抓获的隐性采砂船，了解隐性采砂船的工作机制，分析隐性采砂船的特征特点并掌握辨别方法，学习信息技术在长江禁止采砂中的运用，并就禁止采砂巡查和打击非法采砂方式方法、加强执法基地建设以及提升执法能力水平进行深入交流。', '参加学习人员一致认为，通过参观学习，开阔了视野，增长了见识，尤其是对隐性采砂船有了深入了解，为今后更好地开展长江禁采工作奠定基础。（南通市水政支队 吴飞）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>74</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市供销总社组织监事会成员赴锡镇扬考察学习</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/1b239a30-0ae8-4550-9f62-c68787d81f41.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为进一步做好全系统监事会工作，近日，市供销总社党组成员、监事会主任赵勇率市社监事会有关同志赴无锡、镇江、扬州市社考察学习监事会工作的经验和做法。', '考察组一行围绕监事会职能定位和作用发挥与三地同仁进行了广泛深入的座谈交流，三地市社加强社有资产监管、健全监事会工作制度等经验做法给考察组留下了深刻的印象。在镇江考察学习期间，还实地参观了江苏润果农业发展有限公司，该公司利用数字农业技术在农业管理、农机作业、农业服务等环节的研究与运用，探索了一条谁来种田、如何种好田以及节本增效绿色发展的农业发展新路。另外，还实地考察了无锡厚桥中东农机专业合作社、扬州江都吴桥农业社会化服务中心等现场。大家一致认为，无锡、镇江、扬州供销合作社监事会工作的经验和做法各具特色，具有很好的学习借鉴意义。', '考察学习结束后，赵勇指出，目前我市的“三会”制度建设基本实现了全覆盖，监事会工作已经起步，通过这次考察学习，我们要认真学习先进的经验做法，紧密结合本地实际，聚焦主责主业，积极实践，努力提升监事会履职能力和水平，为推进全市供销合作社改革发展提供强有力的保障。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>74</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>射阳县市监局行政审批局来海考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/fa3706a6-bb5f-4d40-b5e4-b17cf68741f8.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['9月2日，射阳县市监局、行政审批局陈必荣副局长一行来行政审批局学习考察政务服务标准化建设、行政审批创新做法等。行政审批局副局长杨建明热情接待了考察组。', '客人们兴致勃勃地参观了政务服务大厅自助服务区、帮办代办中心、企业开办一站式服务区等，并详细了解了“一窗受理”“一件事”办理工作流程及系统建设使用情况。随后，双方就国家级政务服务标准化试点工作、当前行政审批改革工作中遇到的困难和问题进行了深入交流。', '考察组一行表示，海门行政审批局在行政审批制度改革、标准化建设等方面走在了全省前列；各项工作标准高、思路清、理念新、措施实，值得学习和借鉴。希望在今后的工作中不断加强沟通交流，促进两地行政审批工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>74</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>区农业农村局组织人员赴企业考察学习油菜直播装备与技术</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/snfw/content/91e55f5e-1cba-4b04-8bc3-307b7941e955.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['为优选适合本地油菜适宜机播机具，更好掌握机具操作要点，9月23日区农业农村局组织相关镇农机技术人员、油菜种植大户共计20余人到企业考察学习油菜直播装备与技术。', '在江苏欣田机械制造有限公司，技术人员介绍了两款可通过改装直播油菜的旋耕开沟施肥播种一体机，观摩人员向企业技术人员详细了解改装成本、机具操作及调试技术要点。据区农机推广部门反映，我区旋耕开沟施肥播种一体机保有量较大，在该机具基础上改装成油菜直播机具，不仅能够满足油菜机播要求，还大大节约成本。', '通过考察学习，技术人员掌握了油菜机直播技术，也坚定了大户油菜机械化种植的信心。对全区加快补齐油菜生产全程机械化短板，发挥示范引领，通过油菜全程机械化示范基地建设，建立健全适合本地油菜全程机械化生产工艺奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>74</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>市医保局赴安徽考察学习医保支付方式改革工作经验</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://ylbzj.nantong.gov.cn/ntsylbzj/gzdt/content/c0d79344-e426-4959-94b7-9639015841ea.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['8月25-27日，市医保局党组书记、局长张兵率队赴安徽阜阳、合肥开展医保支付方式改革考察学习。', '26日上午，考察组与阜阳医保局进行了座谈交流。阜阳市医保局副局长刘军首先介绍了阜阳市医保局实施医共体总额付费的主要做法，阜南县医共体办公室主任张伟从提升基层卫生能力建设方面介绍了阜南县医共体建设的具体做法，阜南县、界首市、颍州区、颍泉区医保局相关负责人分别从医共体的付费机制、激励机制、监管机制、考核机制等方面介绍了各地的实践经验，并就医共体总额付费实施过程中遇到的问题和挑战进行了充分交流。双方还就基本医疗保险基金市级统筹、基金监管、医保支付方式改革、药品价格采购等工作开展了交流研讨。下午，考察组一行前往阜南县实地观摩了阜南县医共体实际运行情况。', '27日上午，考察组与合肥医保局进行了座谈交流。合肥市医保局介绍了基本医疗保险基金总额预算分类管理分块控制的主要做法，以及复合式医保支付方式改革的推进情况。双方还就异地就医管理、集中带量采购、医保信息化建设和医保电子凭证的推广使用等方面进行了深入互动。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>74</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>局领导带队赴盐城考察学习行政审批及移民管理工作</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/253d1e70-0d4b-406f-8ed2-80cdcf2c5557.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['8月17日-18日，市水利局党组成员、局长助理曹华带队赴盐城考察学习行政审批及三峡移民工作。局政策法规处、农水处、水资源处、工管站、如东县水务局相关人员参加考察学习。', '考察组先后前往盐城市水利局、东台市水务局，听取了盐城市、县两级行政审批及移民管理工作介绍，并就落实“三集中三到位”机制、理顺行政审批工作流程、加强行政审批事中事后监管、提高行政服务质量等工作进行了交流讨论。如东县水务局就移民后扶资金使用、信访维稳等工作进行了专门咨询。', '曹华表示，盐城市无论是行政审批工作还是移民管理工作均位于全省前列，要以此次学习交流为契机，进一步弘扬新时代南通治水精神，对标找差，将从盐城学得的经验应用于工作中，逐步理顺我局行政审批机制、提高审批工作效率，同时以移民后扶项目“十四五”规划为契机，统筹谋划、优选项目，切实提升移民幸福感和获得感。（政策法规处 顾菲）']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>74</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市科技局赴上海考察学习园区建设工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/bmyw/content/aead3c8b-cbfc-4d27-97d7-f85994ccb699.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['为加强规划布局，指引有关板块打造高水平、高含“新”量的产业园区。8月18日，市科技局党组成员、副局长翟玉英率队赴上海考察学习8号桥创意园区和五角场创智天地园区。', '翟玉英一行在8号桥创意园区，详细了解园区的发展历程、规划布局、平台机构、人才服务和创新服务等情况，考察对接ZiWU誌屋和馨巢书屋等文创项目。在五角场创智天地园区，听取园区设计理念、空间布局、在孵项目的介绍，参观园区孵化成长代表性企业商米科技，与园区管理方深入交流载体政策、项目流动、投资建设等合作事宜。', '考察期间，翟玉英向园区负责人、企业代表介绍了我市资源禀赋、创新政策，她诚挚欢迎相关企业、机构来南通参观考察、投资兴业，希望进一步加强交流合作，将上海的园区建设经验、项目成长经验带到南通、落地生根，实现互利互惠、共同发展。', '市经开区“滨江湾”、通州区“平潮科技创新区”有关负责同志,市科技局区域创新处、规划与协调处、创新发展处负责同志陪同考察学习。', '市政府关于苏锡通科技产业园区乐成路北、江泰路西侧地块国有建设用地使用权出让方案的批复', '市政府关于苏锡通科技产业园区海迪路北、江广路西地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区通达路东、海亚路南、海堡路北、东方大道西地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区江河路南、通秀路西、海伦路北、通达路东地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区吉庆路东、宏兴路北、吉顺路西、同仁路南地块国有建设用地使用权出让方案的批复', '市政府关于南通经济技术开发区海堡路南、通达路西、海洋路北地块国有建设用地使用权出让方案的批复']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>74</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>新江海河闸管理所赴省江都水利工程管理处考察学习</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/548af0e0-b7f2-4bbf-8141-13c968218aa8.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为进一步提高管理所水利工程信息化管理水平，6月28日，新江海河闸管理所组织专业技术人员赴省江都水利工程管理处考察学习，市水利局党组成员、局长助理曹华带队。', '考察组一行先观看了省江都水利工程管理处精细化平台的操作演示，学习综合事务、运行事务、检查观测、设备设施、水政管理等方面的信息化管理。曹华指出，省江都水利工程管理处信息化管理工作推进扎实，指导培训精准，管理效果好，形成了许多好经验、好做法。新江海河闸管理所要结合自身实际，积极借鉴好经验、好做法，加大在信息化管理平台建设工作的探索实践。随后考察组参观江都四站、党建活动室，充分感受了省江都水利工程管理处良好的信息化管理氛围和深厚的党建文化底蕴。', '新江海河闸管理所将以此次考察学习为契机，认真学习省江都水利工程管理处关于信息化平台建设的好理念、好举措、好作风，创新思路、强化责任，真正把考察学习的成果转化为干事创业的强大动力，扎实推进信息化管理平台建设工作。（南通市新江海河闸管理所 徐黎 杨溢）']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>74</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>如东县民政局来海考察学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2022-10-31</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/20052b52-bab5-490d-ac82-e07203356b98.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['10月27日，如东县民政局党组成员、副局长孙海鹏带队来海考察学习。海安市民政局党组成员、副局长王俊华介绍了我市社工人才队伍和社工站建设情况，党组成员储萍介绍了我局在困难群众主动发现机制建立、入户核查（抽查）和分散特困人员关爱照护方面的工作经验。双方交流了民政领域的各项重点工作，以及在疫情防控、安全生产方面的工作举措。', '会后，如东县民政局领导和部分镇街代表参观了海安市海安街道社会工作站，了解了站点建设运营情况。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>74</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>南通市统计局赴淮安考察学习统计基层基础规范化建设工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2022-10-09</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://tjj.nantong.gov.cn/ntstj/bmdt/content/8f0b0957-1664-4e8f-b513-6df66024c203.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['为进一步推进南通统计基层基础规范化建设，学习借鉴兄弟市先进经验和做法，9月28日，南通市统计局总统计师王建带领如皋市、海安市统计局主要负责人等一行5人赴淮安市统计局考察学习统计基层基础规范化建设工作。', '考察学习通过座谈交流、实地观摩等方式进行。座谈会上，淮安市统计局执法监督局局长杨益浪对本市统计基层基础规范化建设及法治宣传工作特色亮点和典型做法作了详细介绍，双方就工作推进中存在的重、难点问题进行交流探讨。随后，考察组一行深入淮安市清江浦区花街社区、淮阴区长江路街道办统计站，仔细翻阅“四上”企业申报、企业档案、统计报表等统计档案和工作台账，详细了解机构设置、人员配备、制度建设、资料档案管理等方面建设情况。在观摩新建成的淮安区统计法治广场时，淮安区统计人员对广场景观设置、建设历程、功能定位和现实能效等方面逐一讲解说明。', '考察组认为，淮安市统计基层基础建设工作对我们具有非常重要的借鉴意义，启发了我们如何结合自身实际开展基层基础工作。王建表示，要以淮安市统计局为标杆，认真学习借鉴先进经验做法，对标对表厘思路、找差距、补短板，以新理念、新思路、新抓手开创南通统计基层基础规范化建设工作新局面。同时，希望兄弟市能加强联系交流，增进友谊，互学互鉴，共同促进统计工作提质增效，在助推区域经济社会高质量发展中展现统计新作为。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>74</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>如东县委统战部民宗局赴无锡开原寺考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/43bfd600-72bf-45e0-9dd6-f91867bf041a.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['6月10日，如东县委统战部常务副部长、县侨办主任赵杰、县委统战部副部长、县民宗局局长张玉平等一行赴无锡开原寺开展学习考察。', '如东县委统战部（民宗局）一行实地参观了设立在开原寺内的无锡市佛教信息化大数据中心以及寺院档案室、文化室等，观看了大数据中心相关功能的实际使用情况展示，寺院负责人能超法师重点介绍了大数据中心建设运行情况。', '考察组一行表示，开原寺充分运用互联网技术，以资源整合和服务应用为重点，实现了寺院管理的系统化、信息化和智能化，对我县宗教活动场所规范化建设具有很强的借鉴和指导意义，我县将认真学习借鉴其先进的做法和经验，切实抓好我县的宗教活动场所规范化建设管理，不断提升宗教活动场所的管理水平和能力。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>74</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>盐城市医疗保障局大丰分局一行来我市考察学习长期照护保险工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/27b8ffcf-4831-4f89-bed8-267833cc17da.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['5月31日下午，盐城市医疗保障局大丰分局副局长贾桂芬率队来海考察学习长期照护保险工作，市医保局分管领导及相关科室、单位负责同志陪同考察并座谈交流。', '座谈会上，市医保局党组副书记、副局长葛铁宏代表医保局对贾桂芬局长一行的到来表示了热烈欢迎，并详细介绍了我市长期照护保险项目的实施背景、运营体系、推进情况及待遇享受等内容。座谈中，双方就长护险定点服务机构遴选、经办服务模式、照护服务监管机制等重点事宜开展了讨论交流，对如何落实好长期照护保险制度、开展好长期照护保险工作交换意见。', '贾桂芬表示：海安市长护险工作中好的经验和做法值得他们学习和借鉴，为大丰市长护险的推行拓宽了工作思路，提供了参考依据。', '考察组一行还走访了我市定点照护机构海安紫石康复医院和海安好而康科技服务有限公司，通过实地走访参观、听取经验做法，了解我市居家上门服务、机构照护服务等多元化的照护服务模式。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>74</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>市局组织赴盐城市公安局亭湖分局考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/bbcfa00b-a5b6-463b-8ead-bea73ad7b893.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['5月17日，副市长、局长孙康率队赴盐城市公安局亭湖分局考察学习，亭湖区副区长、公安局长迮大猛、政委陈海龙陪同考察。', '在亭湖考察期间，考察团先后赴亭湖分局万户新村数字化警务室、铜马警务服务站、新洋港警务工作站、东城派出所、亭湖分局合成作战中心实地参观学习，详细了解亭湖分局打造“一号作战体系”建设、“盐之e警”公安政务服务新体系、公安智慧警务“数鹰”计划、“护学联盟”及巡处一体化改革等方面工作情况。', '孙康同志表示，亭湖分局紧紧围绕省厅“六六战略”部署要求，积极探索数字警务、实战警务、规范警务新路径，取得了很多创新成果、带来了可观的实战效益，特别在智慧警务、合成作战体系、数字化派出所、数字化警务室、巡处一体化建设应用等方面有诸多好经验、好做法，值得学习借鉴，希望两地公安机关进一步加强全方位、多角度、深层次的警务交流，共享先进理念、优势资源、成功经验，不断推动各自整体实力、实战效能提升，实现双赢共赢。', '局领导章群峰、于志海、杨林根、李志明、祁桂丰，指挥中心（办公室）、政治处、警务保障室、大数据中心、刑警大队、治安大队、交警大队、巡特警大队、城南所、城北所、城东所、李堡所、曲塘所负责人随队考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>74</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市供销总社组织监事会成员赴苏州泰州淮安考察学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-11-26</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/e734503a-f1e0-44d6-990d-1d016b03f269.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['为切实加强市供销总社监事会队伍建设，进一步拓展工作视野。近日，市总社党组成员、监事会主任赵勇率监事会相关同志赴苏州、泰州、淮安市社考察学习。', '在考察期时，考察组先后参观了吴江百年老字号“平望酱菜”生产基地和云商电子商务平台，泰州泰兴河失供销合作社、泰兴姚王新型基层社以及淮安金湖塔集供销社、金湖农产品展示展销中心等现场。在考察期间，考察组一行围绕监事会当前工作难点以及职能作用的发挥与三地同仁进行了广泛深入的座谈交流。三地市社监事会完善监事会工作机制，充分发挥监督作用等经验做法给考察组留下了深刻的印象。', '考察结束后，大家一致认为，苏州、泰州、淮安供销合作社监事会工作和为农服务工作的经验做法各有特色，具有很好的学习借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>74</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>盐城市通榆河枢纽工程管理处来通考察学习水利船闸收费和运行调度工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2021-11-19</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/e7454b3b-bd69-4588-9fda-2d3c715a05cf.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['11月18日，盐城市通榆河枢纽工程管理处党委委员、大套船闸管理所所长张晓军带队考察学习南通市新江海河闸管理所船舶收费管理、运行调度等现代化管理技术。市新江海河闸管理所所长蔡雪峰等全程陪同。', '考察组一行首先观看了新江海河闸管理所所属水利工程概况介绍视频，听取了单位基本情况、“智慧水闸一码支付系统”产生的背景及发展概况等详细介绍。双方就电子收费系统在水利船闸收费实践中的相关问题进行了深入交流和探讨，并结合各自工作实际，分享了建设性意见和设想。', '随后，考察组参观了营船港闸、新江海河闸、双桥套闸，实地考察收费管理与运行调度现场。考察组一致认为，“智慧水闸一码支付系统”方便快捷，实现了船户不上岸缴费，从根本上解决了船户上下船缴费过程中的安全隐患，也从源头上消除了收费岗位人员的廉政风险，是“为船民办实事”的生动实践，为推进水利船闸收费现代化提供了借鉴，值得推广。', '据悉，新江海河闸管理所“智慧水闸一码支付”收费系统自今年5月中旬上线运行以来，实现了微信、支付宝在线支付，船民可在线下载电子票据，目前已惠及船户7500艘（次），基本形成“安全便捷，廉洁高效”的水闸收费管理和调度运行模式，极大提升了船民群众的安全感和幸福感。（南通市新江海河闸管理所 马旭东 杨溢）']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>74</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>建湖县委统战部来海安考察学习红石榴家园创建工作</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-11-13</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/661dc5a6-cc35-4a78-8588-99013a6d16d7.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['11月12日上午，建湖县委统战部常务副部长、县民宗局局长张登富一行来海安考察学习“红石榴家园”创建工作。海安市委统战部常务副部长、市工商联党组书记黄婧婧，市民宗局副局长刘和军等陪同考察。', '考察团来到位于大公镇的珀泰蓝智能卫浴科技（江苏）有限公司，参观三楼的“红石榴家园”。该阵地集宣传民族政策、反映社情民意、弘扬优秀传统文化、化解矛盾纠纷等多种功能为一体，由“一室、一站、一廊、两区”构成。“一室”，即民族统战宣教室，主要是宣讲民族政策法规及开展少数民族传统技艺学习培训。“一站”，即石榴籽法律服务驿站，主要是为少数民族群众提供计划生育、入学就业等咨询服务。“一廊”，即民族文化宣传长廊，主要集中展示我国各民族的风情特色。“两区”，即民族图书阅览区和民族饰品区。配有电脑和千余册各类少数民族书籍，供少数民族居民阅览学习，饰品区则主要展示了各民族服饰、乐器及手工艺品等。', '大公镇党委政府高度重视民族工作，紧密结合实际情况，进一步解放思想，铸牢中华民族共同体意识，因地制宜抓重点，深化民族团结进步教育，把阵地建设作为联系、团结、服务少数民族群众的窗口。围绕“少数民族群众办事不出村、少数民族职工权益维护不出厂”的目标要求，组织党员干部主动深入走访少数民族群众，积极为少数民族群众办实事、做好事。以党建为引领，与全要素网格化相衔接，力求信息互动、人员互动、衔接互补、尊重差异、包容多样，让各民族在中华民族大家庭中手足相亲、守望相助。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>74</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>邳州市医疗保障局来我市考察学习照护保险工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2021-11-09</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/4a003243-401c-4de9-82bb-d013d883a534.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['考察学习组走访参观了南通市照护保险服务中心海安一、二分中心、海安紫石康复医院、海安好而康科技服务有限公司，实地了解我市基本照护保险制度经办服务、居家上门服务、机构照护服务等情况。', '座谈会上，市医疗保障局党组副书记、副局长葛铁宏向考察学习组介绍了海安市建立照护保险的基本情况，包括筹资水平、覆盖范围、待遇水平以及实施以来照护保险基金运行、经办模式和存在问题等，并对如何开展好该项工作与考察组交换意见。', '2019年12月至今，我市照护保险共受理失能失智评定申请7172人次，评定通过享受待遇6888人。自项目运营以来，这项惠民利民政策赢得了社会的一致好评，适度缓解了长期失能失智人员的护理和日常照料难题。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>74</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>启东市民宗局来海安考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2021-09-10</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://zjj.nantong.gov.cn//ntsmzj/xskx/content/f6fa5f59-e4c1-4f49-8f4d-9970598a59d6.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['9月10日，启东市民宗局副局长龚海涛带队来海安考察学习民族团结进步创建工作。海安市民宗局副局长刘和军陪同考察。', '考察组首先实地调研全省首批民族工作“红石榴家园”海安街道二里社区，学习创建的特色举措，听取社区民族工作的介绍，查看少数民族之家、红石榴学习社、崇德馆、欢乐大舞台等阵地。随后来到明道小学丹凤校区，听取学校民族团结教育工作特色亮点介绍，观摩音乐活动课视频《中华民族唱起来》，参观以“中华民族一家亲 同心共筑中国梦”为主题的民族团结教育馆。最后，在中丝鑫缘生物科技展厅，详细了解鑫缘集团积极响应国家“东桑西移”发展战略以及“造血式”扶贫的情况。长期以来，鑫缘集团以点带面实施产业扶贫，精准帮扶，唱响民族团结进步主旋律。', '随后来到明道小学丹凤校区，听取学校民族团结教育工作特色亮点介绍，观摩音乐活动课视频《中华民族唱起来》，参观以“中华民族一家亲 同心共筑中国梦”为主题的民族团结教育馆。', '最后，在中丝鑫缘生物科技展厅，详细了解鑫缘集团积极响应国家“东桑西移”发展战略以及“造血式”扶贫的情况。长期以来，鑫缘集团以点带面实施产业扶贫，精准帮扶，唱响民族团结进步主旋律。', '考察组一致认为，海安民族团结进步创建工作亮点突出、成绩显著，值得学习借鉴。纷纷表示，要把学到的好经验、好做法带回去，结合自身实际落实到今后的工作中，促进民族工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>74</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>南通高新区考察团赴苏南考察学习</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/jzdt/content/49f20b44-3503-421b-b669-2fa222199ce5.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['借他山之石，谋发展之道。为贯彻落实省、市、区赋予南通高新区的新使命、新要求，加速积聚创新发展动能，奋力开启高新区高质量发展新征程，10月26日，通州区委常委、南通高新区党工委常务副书记高洪军带队赴苏州高新区、昆山高新区学习考察，通过学习产业集聚、科技创新、国企改革、园区建设等方面的先进经验做法，认真谋划明年工作思路，全面提升南通高新区发展水平，增创发展优势，更好地融入苏南、融入长三角一体化发展。南通高新区党工委、管委会有关领导，相关部门负责人参加活动。', '苏州高新区是全国首批国家级高新区之一，围绕“苏州市产业科创中心”总定位，做优“创业者乐园、创新者天堂”两个生态，正加快建设创新驱动发展示范区、高质量发展先行区。在苏州高新区，高洪军一行先后前往高新区展示馆、江苏医疗器械产业园等，就践行“两高两新”以及在产业园运营、科技金融服务、企业自主创新、低效资源盘活等方面的经验做法深入考察学习并展开座谈交流。在充分了解相关情况后，高洪军表示，要充分借鉴苏州高新区近年来聚力创新、聚焦产业、深化改革等方面的先进经验做法，紧紧依靠高校科研院所，加快集聚创新资源、打造创新平台。要强化基金招商和资本招商，精选细分赛道、发展高端产业。要加快资源整合和资产盘活，推动国企改革，跑出绿色创新发展的加速度。', '昆山高新区是全国首家县级市国家高新技术产业开发区，也是国家创新型特色园区，正集中力量推进国家一流产业科创中心核心区建设。在昆山高新区，高洪军一行先后参观了中科院安全可控信息技术产业化基地、小核酸及生物医药产业园和高新区展示馆，详细了解了园区改革发展历程和在科技成果转化、产业发展布局等方面的具体情况。在座谈会上，高洪军认真询问了昆山高新区在园区转型发展、新兴产业培育、创新人才招引、创新生态构建以及工业邻里中心建设等方面典型经验做法。他说，昆山高新区想在先、干在前的发展劲头和在转型发展、产业培育上的长远眼光都值得南通高新区学习，在科技创新、企业服务和园区建设等方面，昆山高新区为我们提供了许多值得借鉴的思路和经验，希望双方今后继续深化交流、加强合作，共同开创高质量发展新局面。', '一天的考察学习，行程紧凑、内容丰富、目标明确。考察团一行边参观边思考边交流，结合各自工作领域找差距、找不足，进一步增强发展信心和工作动力。大家一致表示，下阶段，要以此次考察学习为契机，进一步增强争先意识、忧患意识、开放意识、拼抢意识、攻坚意识，结合南通高新区实际，将兄弟园区的先进发展理念经验迅速消化、吸收、转化，谋划好、推进好招商引资、科技创新、项目建设、经济发展、国企改革等各项具体工作，以更高定位、更新思路、更实举措，进一步提升产业高度、科技浓度、创新密度和创业热度，当好全方位推动高质量发展排头兵。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>74</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>南通市工信局赴苏南开展国家级示范平台基地考察学习活动</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/bmdt/content/21f05746-ba90-4880-96b4-4883fd474d57.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['为进一步推动我市中小企业公共服务平台和小微企业创新创业示范基地建设，更好助力中小企业发展，9月28日至29日，市工信局党组副书记、副局长贲友华带领我市部分省级平台（基地）和有关县区工信部门负责同志，赴苏州、无锡两地考察学习国家级中小企业公共服务示范平台（基地）。', '28日下午，考察组一行赴苏州参观浙江大学苏州工业技术研究院和苏州市智能制造融合发展中心。浙大苏州工研院是以浙大科技成果为基础，集科技研发、科技服务、成果转化、产业培育、科技孵化为一体的创新平台，苏州智能制造发展融合中心则是为企业智能化升级改造提供政策支持、技术演示、案例参考的服务平台。考察组与平台负责人就促进企业产学研合作、加快科技成果转化、引导企业转型升级等方面开展交流。南通晶城科创园负责人陈翔表示，要学习苏州平台在技术成果转化、创新成果推广等方面的经验，进一步加强与浙大苏州工研院的合作对接。', '29日上午，考察组赴无锡参观江苏数字信息产业园、江苏无锡（惠山）生命科技产业园和华中科技大学无锡研究院。江苏数字信息产业园是深圳清华大学研究院与无锡市政府合作共建的创新型高科技园区，生命科技产业园汇集数百位海内外博士，是主打医疗器械、生物医药合同定制外包、精准医疗等大健康产业的高端园区，华中科技大学无锡研究院是拥有百项知识产权、3亿元产值的科技服务平台。考察组一行听取了园区（研究院）负责人关于打造新型研发大平台、构建产研创新协同圈等相关内容的介绍。', '国家级产业示范平台对推动产业转型升级、增强区域经济竞争力具有重要支撑作用。通过本次考察学习，考察组一致认为要进一步解放思想、开拓合作，借鉴更多苏南推进平台建设发展的创新理念和先进做法，与苏南先进平台共谋合作、互惠双赢；同时，要进一步推动我市中小企业公共服务平台和双创基地建设，积极引导平台和基地聚焦南通先进制造业发展方向和优势产业链强链补链，着力提高集聚服务资源的能力，不断创新和完善服务功能，与高校、企业共同构建科技研发与转化的优质生态体系，助推全市制造业转型升级，实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>74</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>南通市工信局赴昆山吴江考察学习工业企业列规增收及资源集约利用工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2021-09-26</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/bmdt/content/e328aab9-cde3-46c2-8d4d-d00f05e47e91.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['9月22日，市工信局组织相关业务处室、崇川工信局、如皋市工信局有关负责同志，赴昆山、吴江两地学习考察工业企业列规增收及资源集约利用工作。', '上午，考察组一行来到昆山市工信局，就工业企业列规增收工作开展座谈交流，列规增收是促进小微企业加快转型、推动制造业高质量发展、不断增加经济发展内生动力的重要举措。南通正加快推动小微企业升规纳统专项行动，通过建立培育库、健全工作机制、强化政策扶持、督促企业有序规范经营、强化企业数据监测分析等方式推动全市制造业提质扩量增效。', '下午，考察组前往吴江，学习工业企业资源集约利用工作的经验做法，听取了吴江市工信局及其技术支撑单位关于“吴江工业企业大数据云平台”的介绍。随着我市经济发展水平的不断提高，土地、能源等资源要素正成为制约经济可持续发展的主要瓶颈，通过加强资源集约利用，积极创新资源利用模式，充分发挥大数据价值，摸清全市经济“家底”，实现对全市工业企业资源利用效率的绩效评价，是推动全市经济加快转型升级，实现产业高质量发展的必由之路。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>74</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>市人事考试中心组织赴市教育考试院考察学习</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2021-07-13</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://rsj.nantong.gov.cn/ntsrsj/bdxw/content/731b763b-e6f3-4044-90f8-67d579981fa3.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['为进一步提升我市人事考试工作管理水平，学习教育考试管理方面的先进经验和做法，7月8日下午，市人事考试中心组织业务骨干赴市教育考试院考察学习。人事考试中心一行参观了教育考试院机房、保密室、文化长廊、党建成果、为民服务接待室等，并与教育考试院开展学习座谈。', '市教育考试院书记、院长吉海波对市人事考试中心一行的到来表示热烈欢迎。吉院长介绍了教育考试院的发展历程、发展现状和发展方向，从坚守“平安招考”、确保“安全平稳”、坚持“科研强考”、擦亮“服务平台”四个方面交流了经验做法和取得的成效。', '市人事考试中心负责人黄庆庆对教育考试院的热情接待表示感谢，他就我市人事考试工作目前发展的基本情况、考务制度完善、考试队伍建设、考试安全管理等做了介绍，表示教育考试院在考试管理组织和安全保障机制上的许多好的做法和经验值得学习和借鉴，并指出要将这些宝贵的经验做法尽快融合到我市人事考试工作的实际中去加以推广运用。', '座谈会上，双方还围绕常态化疫情防控背景下如何确保考试安全以及加强监巡考队伍建设、强化制度保障、职能转变等方面进行了交流和探讨。双方表示，下一步要深入挖掘合作点，加强沟通协作，携手共进，共同助推我市考试事业更上台阶，为我市经济社会发展提供更有力的人才支撑保障。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>74</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市农业农村局赴外地考察学习山羊屠宰场建设及相关工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/13ef96cf-34ab-448c-a6c8-c04a7046b4a8.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['为落实苏农办牧〔2019〕12号文件要求，4月25日，市农业农村局屠管科、动监所等一行赴如皋、苏州考察学习山羊标准屠宰场建设、屠宰及相关工作的先进经验。', '考察组实地查看了如皋市康丰屠宰有限公司、苏州市吴中区藏书山羊交易市场，分别与两家企业及主管部门、监管部门负责人，围绕屠宰场的选址、建设、环保要求、运营模式进行座谈和交流。', '通过此次考察学习，不仅开阔了我们的视野、拓宽了我们的思路，而且学到了很多宝贵经验，将对我市建设标准化定点山羊屠宰场产生积极作用。（海门市农业农村局屠管科陶敏敏供稿）']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>74</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>连云港政府公共服务中心来通考察学习数字化城管工作</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/f2db90cd-947f-4f80-b824-33d9715a71bd.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['4月11日下午，连云港市12345政府公共服务中心党组成员、副主任石绪来一行3人来通考察数字化城市管理工作。市城市管理监督指挥中心（支队）孙云主任（支队长）陪同考察。', '孙云主任（支队长）对石主任一行来通考察表示欢迎，简要介绍了南通经济社会发展情况，并对南通市城市管理工作和市城市管理监督指挥中心数字化城管工作的运行状况、平台建设和人员管理情况进行了介绍，对视频采集、市民参与城市管理、社会治理等情况进行了经验交流。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>74</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>市妇联组织女企业家赴湖北考察学习</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-04-10</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/daa7c128-a174-432b-8770-630d3da6e2aa.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['近日，市妇联组织市女企业家协会部分会员赴湖北大悟县、武汉大学、华中科技大学，开展军民融合和产学研对接活动。副市长彭晓红参加活动。', '在考察大悟县过程中，彭晓红介绍了我市经济社会发展和军民融合相关情况，并希望大悟的领导和专家在人才共享、技术应用、信息发布等方面给予海安更多的关心和支持，助力我市军民融合深度发展、做优做强。', '海安的女企业家纷纷表示，要不忘初心、牢记使命，以更加饱满的热情和责任担当，进一步把企业做大做强，为推动海安高质量发展走在前列作出新贡献。（记者顾积存通讯员丁雪晴）']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>74</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>新疆伊宁县党政代表团来我县考察学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/a941658c-805d-4584-b5d9-a3ec0c32e4d5.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['本报讯（全媒体记者 张予钦 姜宁慧）4月18日，新疆伊宁县委副书记、县长阿地力· 买买提率党政代表团一行来我县，考察学习城市建设、产业发展、社会事业等方面的成功经验。', '考察团一行先后参观了县图书馆、县中医院、南通大东有限公司、江东科技有限公司、如东规划展览馆、中石油江苏LNG接收站、洋口港规划展示馆、香鲸馆。每到一处，考察团认真听取工作人员的讲解。', '阿地力·买买提对我县转型发展、城市规划建设管理、产业科技创新、生态文明建设等方面取得的成就给予高度赞赏。他表示，此次来如东考察学习，目睹了如东政治经济社会取得的成就，感受到了如东人民建设家乡的实干氛围。他表示，要将我县的好经验、好方法带回去，研究探索适合新疆伊宁县发展的新路子。', '县委副书记陈雷表示，这次伊宁党政代表团来我县考察，既加强了双方在工作、情感上的联系，也是对如东发展的鞭策和激励。他希望今后双方常来常往，加强交流，相互学习借鉴，携手推动两地高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>74</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>三余镇赴海门市悦来镇专题考察学习新型合作农场建设</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://tzw.nantong.gov.cn//tzwjhldkfsfq/bmdt/content/71f2a5c2-84ff-4d60-86ac-817e9da39579.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['三余镇将进一步坚定信心、抢抓发展新型合作农场机遇，走出一条农业增效、村集体和农民双增收的新路子，为全面实施乡村振兴奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>74</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>唐山市医疗保障局来通考察学习照护保险制度</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2019-04-08</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://ylbzj.nantong.gov.cn/ntsylbzj/gzdt/content/fb21fafd-8db3-41b5-b022-04e8c4bb02a4.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['近日，唐山市医疗保障局李建新局长带领唐山市卫健委、医疗保障局、平安养老保险公司相关负责同志一行5人到我市考察学习照护保险制度。', '考察学习组先走访参观了南通市照护保险服务中心、抚理照护保险服务公司、华录养老服务（南通）公司，实地了解我市基本照护保险制度经办服务、居家上门服务、辅助器具服务等情况。', '在随后召开的座谈会上，市医疗保障局顾忠贤副局长向考察学习组介绍了南通市建立照护保险的基本情况，包括筹资水平、覆盖范围、待遇水平以及实施三年来照护保险基金运行、经办模式和存在问题等。', '市医疗保障局张兵局长参加了座谈。他提出，针对目前受益面偏窄、居家上门服务项目自由选择便利性不强等问题，我市将着力推进照护保险扩面、增项、提质，一是扩大覆盖面，推动照护保险制度在全市全面实施，指导各统筹区出台照护保险实施细则；二是增加服务项目，以满足广大失能人员多样化需求为导向，不断拓展套餐服务范围，进一步优化供给；三是提高服务质量，以服务评价促质量提升，加强培训，进一步提高服务人员的能力素质，真正有效帮助失能人员，减轻家庭照护强度，切实增强人民群众特别是失能人员及其家庭的获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>74</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>海门高新区组织赴宜兴考察学习新时代文明实践所站建设工作</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2019-03-20</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/47a66ff3-a9b2-4ea5-b458-b7af1bc8d53e.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['为更好的推进海门高新区新时代文明实践所站建设，学习兄弟县市的先进工作经验，3月14—15日，由海门高新区党工委副书记李强带队，海门高新区部分试点村居书记及新时代文明实践所工作人员等前往宜兴市考察学习。在两天的时间里，考察学习组分别前往宜兴谈家干社区、和桥镇社区党建主题公园、张渚镇新时代文明实践所、西渚镇白塔村新时代文明实践站参观学习。', '考察的第一站是谈家干社区，这是一个村居混合型社区，发起的“志愿者积分考核与兑换”公益项目，更好的发挥了广大志愿者与社会组织的作用，激发了参观人员的基层志愿工作开展的创新管理思路，考察组人员纷纷表示今后要加强交流与互动，探索更多可推广的经验做法，提高为民服务的能力。', '随后，参观人员来到和桥镇兴业社区，在工作人员的带领下深入了解了党建主题公园建设情况。该公园在原本和桥公园的基础上升级改造，有机融入了各种党建文化元素，新增中共党史、和桥红色历史、党建和声、廉政宣传、党史微故事、党建微漫画、党员微公益、和桥当代党员事迹、和桥历史名人、小红军乐园等多个功能区块，成为集党员宣传教育、群众生活休闲、乡土文化传播、志愿者服务等功能为一体的党建文化公园。让居民在茶余饭后来公园内休闲娱乐时，在移步换景中接受教育熏陶。', '建设新时代文明实践中心，是党中央重视和加强基层思想政治工作的战略部署。张渚镇新时代文明实践所下属18个新时代文明实践站、50支新时代文明实践志愿者服务队。实践所内设有文教中心、青年之家、道德讲堂、宣讲阵地、图书室、“桃溪惠客厅”学雷锋志愿者总站、党建工作指导站等多个精神文明建设阵地，推动了全镇精神文明建设和宣传思想工作开创新局面。参观人员表示，今后村居新时代文明实践站的建设要进一步提升辖区志愿者参与服务的规范性、主动性、专业性，做到每年有计划、每月有活动，推动实践站的工作长效常态化。', '参观人员还来到西渚镇白塔村新时代文明实践站。实践站建立有完备的组织机构、人员队伍及规章制度，并根据乡村振兴战略，结合“水墨云湖禅意西渚”文化品牌，调动各方力量、整合各方资源、突出本土实际，做优做强乡村文化旅游。参观人员详细询问开展志愿服务活动的具体情况，与站点内的志愿者作了长时间的交流。对于志愿项目的开展，白塔村采取一系列创新做法，通过互联网、手机App、村民小组宣传等形式开展常态化的活动，共同为村民群众创造更加美好的生活。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>74</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>行政审批局召开苏州考察学习汇报会</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2019-03-28</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/02f370b9-ef37-4294-8978-e8541e8ce02e.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['3月15日, 市行政审批局召开苏州考察学习汇报会。局长杜国华召开并主持了会议。沈亚美副局长、张建驰副主任和相关科室的考察成员一同参加了会议。', '考察组成员首先汇报了昆山、吴江和相城三地行政审批局在政务服务标准化建设和信息化建设方面的先进案例和优秀做法。昆山大数据分析展示，吴江24小时自助服务区和相城“不见面审批”标准化省级试点给考察组留下了深刻的印象，让大家开阔了眼界，拓宽了政务工作思路。', '杜局长在听取考察组汇报后，要求各科室在学习苏州地区成功经验的基础上，对照启东实际条件，积极做好我市政务服务标准化建设和信息化建设。一是要统一思想落实政务服务标准化建设，按照市政府关于加强政务服务标准化建设的要求和时间节点部署分工，全力推进。二是要高度重视政务服务中心大厅信息化，加快推进排队叫号系统、满意度评价系统、“一窗综合受理”平台和“24小时自助服务区”等中心智能化项目建设。三是要继续营造良好的营商环境，进一步完善综合预审等流程，加大代办帮办力度，齐心协力，真抓实干，不断深入推进行政审批制度改革，努力打造启东政务服务亮点。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>74</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>泰兴市交通运输局一行考察学习南通智慧交通</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2019-04-02</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://jtysj.nantong.gov.cn//ntjy/bmdt/content/31210cfc-c178-4669-bc63-1dbc9dcc8354.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['4月2日上午，泰兴市交通运输局副局长丁月建一行6人到南通市交通信息中心考察学习南通智慧交通建设工作。在听取了南通智慧交通介绍，观看了TOCC交通指挥中心、交通云中心和出行管家、行业管家、安全管家、“畅行南通”APP等操作演示后，充分肯定了南通智慧交通建设取得的成果，随后，双方就智慧交通建设做进一步深入交流。南通市交通运输局副局长李都厚陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>74</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市行政审批局召开苏州考察学习汇报会</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2019-03-28</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/b63de9e3-53bd-4a26-8e7a-5426376bcaf8.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['3月15日, 市行政审批局召开苏州考察学习汇报会。局长杜国华召开并主持了会议。沈亚美副局长、张建驰副主任和相关科室的考察成员一同参加会议。', '考察组成员首先汇报了昆山、吴江和相城三地行政审批局在政务服务标准化建设和信息化建设方面的先进案例和优秀做法。昆山大数据分析展示，吴江24小时自助服务区和相城“不见面审批”标准化省级试点给考察组留下了深刻的印象，让大家开阔了眼界，拓宽了政务工作思路。', '杜局长在听取考察组汇报后，要求各科室在学习苏州地区成功经验的基础上，对照启东实际条件，积极做好我市政务服务标准化建设和信息化建设。一是要统一思想落实政务服务标准化建设，按照市政府关于加强政务服务标准化建设的要求和时间节点部署分工，全力推进。二是要高度重视政务服务中心大厅信息化，加快推进排队叫号系统、满意度评价系统、“一窗综合受理”平台和“24小时自助服务区”等中心智能化项目建设。三是要继续营造良好的营商环境，进一步完善综合预审等流程，加大代办帮办力度，齐心协力，真抓实干，不断深入推进行政审批制度改革，努力打造启东政务服务亮点。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>74</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>多地来通考察学习共享单车治理模式</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2019-03-11</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/1adea703-bd35-44bb-9fbe-438c396a286c.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['上周，河南省郑州市、南京市江宁区代表团来通考察学习共享单车治理模式。代表团现场察看了停放秩序，听取了经验介绍，对我市“控制总量、公开招标、免押骑行、精准停放、严格考核”独特的治理模式饶有兴趣。', '去年，我市在考察多地共享单车运营乱象后，结合我市实际印发了《市区共享单车试点运营工作方案》，成立市区共享单车运营监管办公室。永安行科技股份有限公司中标后，立即成立了南通项目组，迅速组织勘察选点、方案会审、设施建设、单车投放。目前，已建成816个站点，18060个桩位，投放14739辆共享单车，公司拥有工作人员66名，办公场所及维修仓库3处，调度车辆7台， APP注册人数近20万人，骑行总数逾150万次。', '根据方案，试点期间先投放1万辆，视情逐步投放到3万辆，要求所有的自行车购买保险，保证市民合法权益；要求企业在本地注册，落实固定办公、维修场地，并按照要求招聘管理维护人员，确保后续服务有保障；实行免押金骑行，消除了资金风险；试点期间建设不少于1500个精准停放点，通过建设固定站点、设置智能停车架、随地停放加收1.00元等技术和经济手段，引导市民定点精准停放；建立严格的考核机制，要求企业缴纳30万元的履约保证金，市区共享单车运营监管办公室每季度进行考核，根据考核成绩逐年退还保证金。', '市区共享单车运营监管办公室牵头市公安、规划、市政、交通以及各区城管部门，做好协调服务，加强日常监管，先后组织检查16次，约谈12次，下发整改通知21份，召开部门协调会议3次。“永安行”公司积极回应监管部门和市民诉求，运营以来共交办各项建议诉求31件，28件回复满意，满意率达90.3%。同时加大宣传力度，倡导绿色出行，运营5个月来很少有堆积和乱停现象，文明骑行、有序停放已蔚然成风。我市独特的治理模式被共享单车业界称为“行业发展的风向标”，有望破解共享单车治理难题']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>74</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>市妇联赴张家港考察学习</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2019-01-18</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/6297a330-233d-4dd7-b54d-4af3f098ea9b.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['1月15日，市妇联组织专职兼职挂职主席、机关中层干部、区镇妇联主席等前往张家港市考察学习。', '考察团先后参观了张家港冶金工业园（锦丰镇）政务服务中心母乳哺育室、经济开发区（杨舍镇）塘市区域联合妇联等处。', '张家港市妇联负责人介绍了妇联工作中的特色亮点做法。双方就基层妇联组织设置、妇联执委作用发挥、项目化推进妇联工作等方面展开了热烈讨论。', '市妇联负责人表示，张家港妇联在妇联改革、公益项目实施等方面的先进经验值得学习借鉴。海安各级妇联组织要认真学习领会，结合各自实际扎实推进妇联工作。（通讯员金华记者徐蓓）']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>74</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>我市党政代表团赴昆山市考察学习</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2018-12-11</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/cf958eb8-220e-4502-9b5d-bd1e287a8fda.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['12月10日，市委书记顾国标率领我市党政代表团赴昆山市考察学习，受到昆山市委书记杜小刚，昆山市人大常委会主任张雪纯，昆山市政协主席冯仁新，昆山市委副书记张月林，昆山市委常委、常务副市长金健宏等当地领导的热情接待。杜小刚详细介绍了昆山市基本情况、产业概况和经济社会发展情况。考察过程中，顾国标要求，以昆山为学习榜样，深入学习昆山市在推动经济社会全面发展方面的好经验、好做法，又好又快，推动海安经济社会高质量发展。市人大常委会主任周宗泉、市政协主席李春旺、市委副书记张亚曦等市四套班子负责人参加活动。', '我市党政代表团先后参观考察了昆山杜克（智谷）小镇、大渔湾湖滨风情商业街、生物医药产业园暨小核酸产业基地、捷安特（中国）有限公司等处，深入了解了昆山企业发展、园区建设等各方面工作的情况。', '昆山杜克（智谷）小镇聚焦新一代电子信息、机器人及智能装备、小核酸及生物医药三大支柱产业，以及共享经济网络平台等新兴产业，集聚教育、科研、创业、创新、金融等诸多优势资源，投运了清华（启迪）科技园、工业技术研究院、财富广场等一批研发办公载体。与此同时，该小镇加快中美科创中心建设，对接杜克大学、清华大学、南京大学、浙江大学等国内外知名大学，与这些大学共建创新平台，打造出氛围浓厚的创新策源地。顾国标表示，昆山杜克（智谷）小镇依湖而建，将西式建筑与昆曲艺术相结合，打造极具地方特色的风情商业街，并进行统一招商、统一管理，聚集了很高的人气。利用小镇特色，配套合理政策，抓住引进科技人才这一关键点，成功构建起人才创新创业的首选地，丰富了小镇内涵。海安也一定要学习昆山，在特色发展上下功夫，在丰富发展内涵上下功夫。', '在昆山生物医药产业园暨小核酸产业基地、昆山光电产业园，我市党政代表团认真听规划、看产品。顾国标认为，这两个产业园区做到了产业高度集聚，极大地推动了产业的发展。他强调，海安在建设产业园区的过程中也一定要做到以核心技术为中心，打造产业集群，吸引上下游配套产业落户园区，这样才能形成较为庞大的产业集群。', '友达光电（昆山）有限公司是全球排名前三的大尺寸液晶面板生产厂商，也是全球第一家在纽约证交所上市的TFT-LCD制造公司。在听取了产品介绍，观看了公司智能无尘车间生产宣传片之后，代表团成员对公司的自动化生产能力纷纷表示敬佩。顾国标认为，制造业就是要像友达光电一样，靠智能制造支撑企业壮大。他要求海安学习好昆山狠抓项目的精气神，进一步解放思想，坚持项目为王，加快经济发展。', '顾国标指出，昆山市连续多年被评为华夏第一县，是县域经济学习的榜样，海安党政干部要以此次考察学习为契机，研究、思考昆山经验，把昆山好经验更好地运用到今后的工作中去。顾国标强调，海安全市上下要学习昆山围绕“争创第一”不断开拓创新的精神境界，始终做到在创新中谋发展、在创新中促发展。要学习昆山不断追求又好又快发展的意识，始终把经济高质量发展放在第一位，紧紧抓住项目建设这一“牛鼻子”不动摇，确保海安经济高质量发展走在南通全市前列。', '顾国标要求，学习好昆山打造高端完备平台的方式方法，进一步完善海安现有园区的配套设施，发挥好专业园区最大的作用，以高端园区做载体，促进海安经济的发展。学习好昆山打造最佳服务环境的创新举措，用真心、倾心的服务，切实解决企业发展中遇到的难题，把海安服务的品牌叫得更响。学习好昆山建设勇于担当干部队伍的硬招实招，提振勇于创新、勇争第一的精气神，提高海安干部队伍的素质，不断扩大海安发展的优势。', '市领导盛慧琴、陈鹏军、张浩、严长江、奚荣华、肖正明、屈祖平、张忠宏、葛志祥、丁兴育、孙巍、吴铭心、蒋鹏程、彭为杰、周于红、王怀，市人民法院院长任智峰，市人民检察院检察长夏琪斌，区镇、部门、专业园区负责人参加了考察活动。（记者吴薇）']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>74</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>创新驱动对标学习赋能发展南通企业家赴青岛标杆企业考察学习圆满举办</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2018-11-23</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/bmdt/content/57441ac7-670f-4894-910c-2dc95d937c26.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['“创新驱动、对标学习、赋能发展” 2018南通企业家赴青岛标杆企业考察学习圆满举办 - 部门动态', '“创新驱动、对标学习、赋能发展” 2018南通企业家赴青岛标杆企业考察学习圆满举办', '为放大“南通企业家日”品牌效应，深入实施企业家素质提升工程，培育地标性企业家集群，推动企业转型升级，引领南通企业高质量发展，南通市经信委（中小企业局）于11月18日-11月21日组织南通地区部分企业家赴青岛标杆企业考察学习。', '本次考察学习由南通市经信委（中小企业局）施鹤滨副局长带队，组织了19位高成长型企业董事长、总经理对青岛四家标杆企业：特锐德电气、酷特智能、海尔集团、海信集团对接学习交流，学习青岛模式下的产业发展策略，共谋企业高质量发展之道。通过参观、学习、现场互动等形式，南通企业家重点听取了四家青岛标杆企业高管关于组织创新、企业管理、文化建设、技术研发上的创新转型分享。企业家们积极参与，讨论激烈，学习氛围浓厚，收获良多。', '南通与青岛均为最早开放的沿海城市，在新一轮转型高地上，施局长鼓励支持南通企业家“走出来，走进去”——走出南通，走进企业，学习优秀企业的管理发展之路，南通经信委（中小企业局）将为南通企业保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>74</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>苏州市供销合作总社来南通考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2018-11-16</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/fda56699-6285-47d5-805a-d458b6d14bd6.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['11月15日，苏州市供销合作总社党组书记、理事会主任周春带队辖区县级社负责人一行13人来南通考察学习基层组织建设与龙头企业发展。在市社党组书记、理事会主任葛志华、党组成员、理事会副主任陈昌锦陪同下，周主任一行先后实地考察了南通农副产品物流中心、如皋家家乐供销有限公司、江苏寿都密码农产品有限公司、南通品德物流有限公司、南通铭鲜食品有限公司等。周主任表示，南通近年来在基层组织体系建设方面取得了明显的成效，积累了成功的经验，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>74</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>山西省晋中市名校长代表团到一初中考察学习</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2018-11-15</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://jyj.nantong.gov.cn/ntsjyj/szdt/content/fee910ef-4062-44a5-8469-1d8256ee9e9a.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['范永梅校长对代表团一行表示了热烈欢迎。她向来宾们简要介绍了百年校史和学校文化，并提出了学校发展与改革的基调：传承历史、立足当下、着眼未来。', '随后，范永梅以《课程改革：学校质量提升之原动力》为题作了专题讲座，聚焦课堂与课程，落实适合校情的课程观：将课程适配性作为学校质量提升的基础工程！办合适的教育、关注学生未来可持性发展！学校致力于通过“学科课程”落实学科核心素养，通过“德育课程”办真实的教育，通过“综合课程”让兴趣生根！在教师专业发展方面，学校努力让每位教师在团队中充分发展，打造“教师发展共同体”；在学生成长方面，力求让每个学生成就最好的自己。她还特别介绍了学校尊重学生个体发展差异、实施分层走班教学的具体做法。', '来宾们对一初中的求真文化、问学课堂和分层走班表现出了浓厚的兴趣，纷纷表示一初中底蕴深厚、管理高效、课改务实。（张建）']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>74</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>县党政代表团赴吴中宜兴考察学习</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2020-07-16</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/e29213ce-8aed-406b-b255-30d0d74debbf.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['本报讯（全媒体记者 韩亚峰 王石峰）七月的江南，处处迸发着生机和活力。7月14日至15日，县委书记沈峻峰，县委副书记、县长陈慧宇率县党政代表团赴苏州市吴中区、无锡市宜兴市考察，贯彻落实省委、省政府“推进省内全域一体化、加快跨江融合发展”的部署要求和市委、市政府“三个全方位”的发展要求，对标学习先进地区产业发展、城市建设、项目建设、生态文明等方面的好经验、好做法，深化交流合作，推进融合发展，携手开创高质量发展的美好未来。', '近年来，濒临太湖的吴中区始终坚持生态优先、绿色发展理念，聚力打通绿水青山向金山银山转换通道，“生态高地”“文化高地”“产业高地”逐步形成，高质量发展持续向好，去年位列全国综合实力百强区第9位、绿色发展百强区第9位、科技创新百强区第10位。县党政代表团实地考察了吴中规划展示馆、吴中博物馆、临湖镇柳舍村、太湖新城地下空间和苏州电器科学研究院股份有限公司，大家一路走一路看，深刻感受到了吴中改革发展的蓬勃活力，一致认为吴中无论是产业发展、城市建设，还是城乡融合、人文生态，都走在了全省高质量发展的前列，为如东今后发展树立了很好的标杆，一定要深入学习吴中的先进经验，对标找差，务实举措，全力谋求经济社会发展争先进位。', '在随后召开的吴中如东跨江融合发展战略合作座谈会上，吴中区委书记陈嵘代表区委、区政府对我县党政代表团前往考察表示热烈欢迎。她说，吴中和如东，各有各的风景，各有各的特色，各有各的精彩。如东区位条件优，增长潜力大，发展态势好，特别是近年来牢牢把握重大机遇叠加窗口期，经济社会发展取得了令人瞩目的成就。如东学习苏州“三大法宝”对标吴中，让我们感受到了巨大压力，也激发出了奋进动力。此次如东考察之行，既是两地增进了解、加深合作的一次交流，更是吴中向如东学习的难得机会。随着沪苏通长江公铁大桥开通运营，苏州、南通之间的通行便利度持续改善、发展关联度日益紧密，如东和吴中发展合作的空间更加广阔。她希望两地立足新起点，抢抓新机遇，深化交流合作，相互促进提高，共同实现高质量发展的美好愿景。', '沈峻峰对吴中经济社会发展取得的成就表示高度赞赏。他说，对标学习吴中，是如东贯彻落实省、市部署要求，解放思想、抢抓机遇，更好实现跨江融合发展的现实需要。此次考察，感受深、收获多，既看到了吴中高质量发展的美丽画卷，对“太湖之美、吴中最美”有了更深的印象、更深的认识，同时也看到了自身差距，进一步增强了发展动力、明确了奋斗方向。他表示，这是一次学习之旅、感悟之旅、励志之旅。吴中发展的目标定位、思路举措，让我们深受启发、获益良多；吴中各级领导干部敢想、敢干、敢闯的奋斗精神，让我们深刻领悟了“苏州三大法宝”的真谛；吴中推进高质量发展的好经验、好做法，必将激励如东干部群众狠抓落实，创新开拓，实现更好更快的发展。', '在介绍如东经济社会发展情况时，沈峻峰说，围绕贯彻落实省市高质量发展要求，如东自我加压，确立了“争当江苏沿海高质量发展排头兵”和“发展速度争第一、百强排名升十位”的争先进位目标。实现新的奋斗目标，如东有压力，但同时也充满信心。信心来源于重大项目和实体经济优势。当前，随着长三角一体化国家发展战略的深入推进以及区域大交通格局的深刻变化，如东广阔的发展空间、丰富的沿海资源和完善的载体配套等优势将得到进一步释放，特别是金光、桐昆、LNG能源岛、海上风电、台中化、中化植保等重特大项目的落户布局，必将为新一轮发展提供强有力的支撑。他表示，如东和吴中处于不同的发展阶段，如东将以吴中为标杆，继续立足做大总量，加快转型升级，提升发展质量，谋求弯道超越。他真诚期待两地常互动、多交流、广合作，共同推动经济社会发展不断迈上新台阶。', '宜兴市是宁杭城市带中心节点城市，无锡“一体两翼”发展格局中的重要一翼，被誉为“中国陶都”“教授之乡”，是国家历史文化名城、全国文明城市、国家生态市、中国优秀旅游城市，位列中国县域经济百强县第七位。县党政代表团先后考察了东方环晟5GW高效叠瓦太阳能电池组件项目、中环应材10GW晶硅切片项目、中环领先集成电路用大硅片项目、宜兴规划展示馆、中超利永紫砂陶有限公司，一致认为，宜兴市坚持项目为王，推动产业延伸发展的成功做法值得我县学习，一定要认真消化吸收，创新思路，真抓实干，进一步加大项目建设推进力度，以重大产业项目的快突破推动优势产业、特色产业不断做强做大。', '吴中区委副书记、代区长李朝阳，区人大常委会主任张炳华，区政协主席张建祥，区委常委、常务副区长荣德明等区领导，无锡市人大常委会副主任、宜兴市委书记沈建，宜兴市政协主席梅中华，市委副书记周中平等市领导参加我县相关考察活动。', '县人大常委会主任陈昌龙、县政协主席陈建华，县领导张兴国、蒋树建、闫静翔、徐东俊、杨忠、陈春柳、徐炜、蔡东，各镇（区、街道）、县级机关相关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>74</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>党组书记局长张兵带队赴省内四地考察学习</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-07-28</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://ylbzj.nantong.gov.cn/ntsylbzj/gzdt/content/64ab9939-4cd5-43a1-bc98-af206a83c626.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['7月21日-22日，市局党组书记、局长张兵带领部分班子成员和医保中心及相关处室负责人，赴南京、常州、盐城、扬州等四地，就医保管理体制机制和机构设置、市辖区医保经办机构管理模式、医保经办服务体系建设及乡镇赋权等内容进行了深入地考察学习。', '考察学习组认真听取了四地医疗保障部门在机构改革后，积极健全医疗保障部门行政和经办机构，理顺行政与经办、市级与区级等多重关系，加强专业人才的引进和培养等方面的介绍，对市、区两级行政和经办管理模式进行了深入地探讨，就基层赋权、医保扶贫、参保扩面、分级诊疗等多个方面进行了广泛地交流。同时，还实地参观了部分医保经办服务窗口。', '今后，南通将紧密围绕深化医疗保障制度改革，与各地进一步加强沟通交流，在推进医疗保障工作高质量发展上取长补短、携手并进，让医保改革成果惠及每一位参保人。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>74</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>局领导带队赴上海考察学习城市水利建设工作</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2020-07-24</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/7266a20b-9f3f-42c2-aada-dfcba284514d.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['7月20日，市水利局党组副书记、副局长蔡莉带队赴上海考察学习城市水利建设工作。市水利工程管理站、市区涵闸管理中心有关人员参加考察学习。', '学习小组一行先后来到白莲泾泵闸、虹口港泵闸和新石洞水闸工程现场，认真察看设备运行情况，听取管理单位关于工程运行管理工作汇报，并就工程建设、工程调度运行、精细化管理和安全生产标准化建设等工作经验进行了交流讨论。', '蔡莉要求，要进一步弘扬新时代南通治水精神，对标找差，认真学习上海在水利工程建设、工程管理方面的先进经验和创新做法，全面提升水利工程管理水平。同时要加快推进海港引河南闸站的工程建设，优化闸门、水泵选型工作，倒排时间抢抓进度，确保按时完成年度工程建设任务。（市水利工程管理站、市区涵闸管理中心）']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>74</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>我市组织粮食企业赴海丰米业考察学习</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2020-07-27</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/2fa3ea75-6861-42c5-9b1a-448419acdbb5.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['为扎实做好新形势下的粮食工作，切实加强与优秀企业的沟通交流，推进我市粮食企业又好又快发展。7月17日-18日，我市组织9家地方储备粮承储企业赴海丰米业有限公司考察学习。', '考察期间，双方进行了座谈和交流。上海海丰米业有限公司副总李双元从“产地之优、产能之优、产品之优“三方面详细介绍了公司概况；海丰米业在原有加工仓储基地的基础上成立了"光明粮食科技产业园"，构建"产购储加销一体化"生产经营体系。考察组对企业管理、信息化建设、科学储粮、节能降耗、线上线下营销等方面进行了交谈。', '随后考察组参观了鹤舞稻香体验馆、现代化高大平房仓和先进储粮设施、5000吨大米低温冷藏保鲜库、先进的大米加工车间以及包装车间等地。通过考察收到了较好的效果，增强企业可持续发展的能力。（通讯员：杭永宏）']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>74</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>苏州高新区考察学习南通城管一张图</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2020-06-30</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/b6bcce92-7e54-48fa-b285-fb1926518a88.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['6月29日，苏州高新区考察团一行参观了我市市域治理现代化指挥中心，市城管局驻场人员现场演示讲解了“城管一张图”的详细情况和主要功能。', '目前，智慧城管作为南通市域大平台的二级平台，实现了我市城市管理全要素管理数据在大平台的汇聚、展示、分析、研判功能，“城管一张图”向考察人员现场展示了城管视频AI智能抓拍、城管事部件实时查询、渣土车管控、环卫运行监管、违法建设治理、共享单车和公共停车场监管、高发案件趋势分析等应用功能。', '苏州高新区考察团高度肯定和评价我市市域治理成果和“城管一张图”，认为南通在市域治理建设方面已经先行一步，尤其是“城管一张图”的功能设计贴近城市管理实际，具有较高的实践应用价值。双方还就城市管理综合执法体制改革相关问题进行了探讨并交换意见看法。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>74</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>悦来镇考察团赴浙江考察学习</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2020-05-07</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/244949cc-0326-4763-b51b-7af0de956dd9.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['为拓宽悦来镇党建思路，深化悦来镇党建品牌创建，进一步对标一流学习经验，4月24日至4月25日，悦来镇党委副书记黄洪兴一行，赴浙江省温岭市学习考察基层党建工作先进经验和成功做法。', '考察组一行先后深入岩下社区、湖心社区、贯庄村，实地参观了村、社区党群服务中心，详细了解了基层党组织班子建设、组织生活开展、党员教育管理以及抓党建推动美丽乡村建设等典型做法，切身感受“一社一品”党建品牌创建成果以及“以人为本、因地制宜、与时俱进”的发展理念。在参观学习的同时，考察组一行还通过开展书记座谈会，就基层党建工作有关问题与当地党组织负责人进行深度探讨。', '在岩下社区，考察团学习了解到社区党支部通过落实党内民主恳谈、党员组团式服务、村级组织运行“三三制”和党内关爱等举措，进一步强化堡垒核心作用，大力推进环境整治和村庄建设，不断提升村民文明素质，实现党建工作与新农村建设齐头并进。湖心社区依托区域化党建工作搭建基础平台，实施基层治理能力提升计划，开展社区组织领导下的微格治理工作，建立“微格+党小组”模式，通过打造集党建工作、社会事业、文化体育等8大类150余项服务于一体的社区党群服务中心，最大限度提升群众满意度。贯庄村在“党建+服务”的理念指引下，探索出的社区居家养老服务照料中心，使得养老服务的效率和质量不断提高，百姓幸福指数大幅度提升。', '考察团成员一致认为，此次学习考察收获颇丰，对基层党建工作有了更深的认识，心里有了更高的标准，回去后将总结学习相关经验，再结合自身实际情况提炼先进做法，把悦来镇基层党组织建设工作提高到一个新的水平。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>74</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>我市党政代表团赴无锡滨湖区考察学习</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2020-05-11</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/zwyw/content/ae192761-ca2f-4ec7-b0a2-c04180a51322.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['5月9日，由市委书记王晓斌率领的启东市党政代表团，在无锡市滨湖区委书记许峰，区委副书记、区长陈锡伦等陪同下，在滨湖区考察学习。在滨湖区·启东市工作交流会上，双方签订了《加强跨江融合发展的战略合作协议》和《文化旅游全面合作战略框架协议》，推动两地在产业、科技、园区、文旅等方面广泛开展合作。', '滨湖区是无锡重要的新兴产业集聚地和创新策源地。代表团一路看一路学，被滨湖加快发展的浓厚氛围所感染，被滨湖竞相迸发的创新活力所震撼。清华大学无锡应用技术研究院在孵高科技企业达70 多家；卓胜微电子、沐创等企业拥有关键核心技术，在全球竞争中占据一席之地；贝斯特精机自主设计研发制造智能制造系统集成产品，合作伙伴遍布全球；药明生物为药明康德集团旗下的生物制药全球研发总部及生产中心，是全球少数几个通过FDA、GMP认证的企业。滨湖区亦是知名旅游胜地，自然风光秀丽。代表团沿着太湖来到位于无锡太湖国家旅游度假区的拈花湾禅意小镇，学习项目运营、业态整合、环境打造等宝贵经验。', '交流会上，滨湖区委书记许峰代表区委、区政府对启东市党政代表团的到来表示欢迎，并介绍了滨湖区产业发展、文化旅游等方面的情况。他说，启东滨江临海、靠近上海，区位优势明显，经济社会发展走在全省前列，生态环境优美，让人向往。此次滨湖和启东正式开启两地跨江融合发展和文化旅游全面合作序幕，期待在今后的合作中，两地和衷共济、互利共赢，携手开创更美好的未来，在跨江融合发展中走在全省前列，为全省跨江融合发展提供先进样板、成功典范。区委副书记、区长陈锡伦在交流会上介绍了滨湖区经济社会发展情况。他说，滨湖区是独具山水文化特色的美丽湖湾区、推动产业转型发展的活力创新源、具有强大发展动能的优质增长极、较好营商环境的服务新高地，以及闻名遐迩的幸福宜居、昌明锦绣之地，滨湖将加强与启东的战略合作，携手开创更加美好的新未来。', '王晓斌说，滨湖是我市此次苏南学习考察的第二站。通过考察学习，让我们深受教育、深受启发，深切感受到滨湖经济社会发展动力强、创新活力足、自然风景美。滨湖推进高质量发展的先进理念、创新精神、科学方法和党员干部干事创业、勇于担当的精神，值得启东认真学习和借鉴。当前，启东正严格落实中央“六稳”“六保”要求，按照省跨江融合发展部署和南通市委“全方位融入苏南、全方位对接上海、全方位推进高质量发展”要求，积极应对疫情挑战，加强深度对接合作，全力融入长三角一体化；聚焦重大项目建设，全力以赴稳增长；狠抓吕四大港开发，全力打造发展新引擎；优化提升城市品质，全力创建全国文明城；扎实办好民生实事，全力提升群众获得感，切实推动各项重点工作落小落细、落到实处。', '王晓斌指出，前期，省委、省政府明确提出加快省内全域一体化，南通明确我市对接滨湖区和太湖国家旅游度假区。真诚希望与滨湖深入合作交流，进一步拓展合作领域，推进跨江融合，实现互利共赢。加快产业发展互动共进，共同建立重点产业合作联盟，加快产业链跨区域布局，强化产业协同创新，探索跨区域发展利益分享机制，共同打造长三角有影响力的现代产业集群。加快科创资源互惠共享，共同推动创新平台开放共享，促进创新资源要素自由流动、高效配置，加强创新链深度融合，联合开展产业论坛、人才培训、产学研合作等活动，营造良好的创新创业生态，探索长三角跨区域协作创新发展新路径。加快园区平台互通共进，加强各板块之间的精准对接，在招商引资、产业集聚、园区管理等方面建立合作机制，打造锡通园区跨江融合样板。加快文化旅游互联共兴，进一步拓宽“大旅游”合作思路，创新营销模式，加大旅游文创产品合作开发力度，不断培育文旅产业新增长点。同时，启东将积极学习借鉴无锡太湖国家旅游度假区建设管理经验，在精品线路对接、市场营销、产品开发、项目策划、品牌打造等方面加大交流合作力度，持续提高全域旅游服务质量和水平。', '市领导顾云峰、孙建忠、杨中坚、邵茂华、龚心明、石光辉、杨万平、沈良杰、葛伟、唐海兵、佘德华，以及各镇、园区和相关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>74</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>我市党政代表团赴海门通州湾示范区如东考察学习</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/zwyw/content/ecc0642c-b003-411d-8ca4-21d9df548d0f.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['暮春时节，春和景明，南通各地处处迸发着无穷生机与活力。4月24日，市委书记王晓斌，市委副书记、市长葛志娟率党政代表团赴海门、通州湾示范区、如东考察，学习兄弟地区在重大项目推进、园区开发建设、产业转型升级、城市规划建设等方面的好思路、好做法、好经验，进一步深化合作交流，共同开创高质量发展新局面，为南通推进“三个全方位”作出贡献。', '上午，在海门市委书记陈勇，市委副书记、市长郭晓敏等陪同下，我市党政代表团先后考察了中天绿色精品钢项目、招商工业海门基地、江海博物馆等地。在计划总投资1000亿元的中天绿色精品钢项目现场，几十台挖机正繁忙作业，如火如荼的施工景象催人奋进。王晓斌一行听取了海门港新区发展情况、中天绿色精品钢项目推进情况介绍，与海门市领导探讨“大通州湾”建设中海门港与吕四港未来的发展协作。招商工业海门基地实施高端海工和邮轮建造“双轮驱动”，主攻高端海洋工程装备及船舶建造，着力打造中国邮轮制造品牌。王晓斌一行听取了产品研发设计、智能制造等方面的情况介绍，对招商工业海门基地从海工板块向豪华邮轮产业升级，实施产城一体化发展的模式深表赞赏。', '在双方交流时王晓斌指出，启东与海门两地源远流长，地域相接、人缘相亲、文化相通、经济相融。近年来，海门市经济发展、重大项目建设、城市建设等走在南通前列。一路看来，中天绿色精品钢项目令人震撼，招商工业海门基地项目推进产业高端转型深受启发，海门城市规划建设、生态绿化建设标准之高值得学习，海门经济社会发展的各项成功经验值得启东借鉴。希望两地以此次活动为契机，深化“启海一家亲”，在长三角一体化发展的大背景下，合力推动区域经济高质量发展，为南通推进“三个全方位”贡献力量。', '下午，我市党政代表团来到通州湾示范区。在南通市委常委、宣传部部长、通州湾示范区党工委书记陆卫东，通州湾示范区党工委副书记曹苏宁等陪同下，考察了南通苏民新能源科技有限公司和高端临港装备产业园。洁净的生产区、智能化的生产线，苏民新能源是通州湾示范区引进落户的高端制造业项目，该项目总投资53.7亿元。王晓斌一行仔细听取产品介绍，深入了解企业用工和生产运营情况。在通州湾三夹沙长风海洋工程装备项目现场，王晓斌一行听取了通州湾示范区“五园一城一基地”规划、高端装备临港产业园建设、长风海洋工程装备项目建设情况介绍。今年以来，通州湾示范区牢固树立“大通州湾”思维，谋划确立“以港立区、以产兴区、以商旺区、以绿美区”的发展战略，明确“港产融合发展做示范、主要经济指标快翻番”的三年奋斗目标，锁定“全国绿色材料新基地、长江经济带联运贸易新支点、长三角北翼全省高质量发展战略布局新高地、全市工业增长新主力”的发展目标，确定“五园一城一基地”总体布局，全方位融入苏南，全方位对接上海，全方位推进高质量发展。', '王晓斌说，当前“大通州湾”已经进入快速建设、发展期，通州湾示范区是主战场，吕四港片区是起步区，希望两地加强产业融合互动，推进交通基础设施共建共享，共同推进“大通州湾”建设。吕四港要以“2+2码头”建设为重点，扎实推进“六大工程”建设，通过基础设施建设的全面提速，全力提升港区产业承载能力；各区镇、部门一定要铆足干劲、坚定信心，把在通州湾示范区看到的、学到的，变为紧抓在手的具体工作，牢固树立“大通州湾”思维，全力以赴建设好吕四港，为“大通州湾”建设作出启东贡献。陆卫东指出，南通沿海开发最早在启东萌发，启东是南通沿海开发的先行者。“大通州湾”建设明确以吕四港为起步港区、通州湾为主体港区，这是一个既立足当前，又着眼未来的重大战略决策。启东在吕四港片区建设中十分给力，正全力推进“六大工程”建设。启东在“大通州湾”建设中也是“第一棒”，近30平方公里的腹地一马平川优势明显，启东沿海开发迎来了前所未有的机遇，希望能与启东共同努力，合力推动南通“大通州湾”建设全面起势。', '离开通州湾示范区，沿着临海高等级公路，我市党政代表团来到如东县。在如东县人大常委会主任陈昌龙、县政协主席陈建华、县委副书记陈雷等陪同下，先后考察了金光生活用纸项目、洋口港阳光岛、上海电气风电集团如东分公司、风电产业及风电母港、中化植保产业园等地。', '王晓斌说，启东与如东同处黄海之滨、同饮长江之水，长期以来两地交流合作广泛，建立深厚友谊。近年来，如东发展势头强劲，每次来到如东，都能感受到日新月异的变化，这次又有了全新的感受，这些项目令人十分振奋、十分震撼。如东在推进以重特大项目建设为龙头的发展过程中，致力推动传统产业高端化、现代产业集群化，“绿色能源之城”的发展经验值得学习；特别是在海上风电板块，如东从战略布局到资源利用到产业落地，塔筒、管桩、风机、风叶以及各项配套已经形成了全产业链发展，如东的产业转型升级之道，值得启东借鉴。', '考察期间，王晓斌强调，此次，我们利用一天时间，沿着黄海之滨赴三地考察学习，主要是贯彻落实好南通市委市政府“三个全方位”的部署要求，按照“大通州湾”一体开发建设的战略决策，全力推动启东的各项工作。要学习借鉴各地项目建设、园区开发、产业转型、城市建设等方面的好思路、好做法、好经验，聚焦“对接浦东第一棒，百强年年进两位”的定位，进一步咬定发展目标、坚定信心决心，全力推动启东经济社会高质量发展。我市党政代表团成员一路看、一路学、一路思考、一路研究，大家纷纷表示，要将这三地的发展理念、先进经验、干事作风带回去，认认真真学习好、借鉴好，进一步强化“狼性”担当、再燃干事激情，凝心聚力推动启东各项事业再上新台阶。', '市领导顾云峰、孙建忠、杨中坚、邵茂华、龚心明、石光辉、杨万平、沈良杰、葛伟、袁圣菊、唐海兵、佘德华，以及各镇、园区和相关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>74</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>常乐镇代表团赴苏南考察学习</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2020-04-20</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/7fa362bd-f718-4bd7-84f8-dad5f77c9de5.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['为进一步“学习苏州‘三大法宝’，打造海门乡村振兴示范区”，深入对标找差，落实到具体工作中来，4月16日至17日，常乐镇党委副书记、镇长秦风雷带领部分镇村干部前往苏南地区，进行第二批次的考察学习。', '4月17日下午，在秦风雷的带领下，常乐镇部分镇村干部来到了昆山市锦溪镇计家墩村进行参观学习。计家墩村是上世纪80年代建起来的一个典型的江南小村落，但在城镇化推进过程中，计家墩村村民大量外迁，村子里有大量房屋空置了下来，村子实质上已呈现“空心化”状态。针对这样的情况，计家墩村另辟蹊径，利用现有的空置房屋发展起了民宿产业，目前村内已有多家连锁民宿入驻，村营收入有了很大的提升。参观过程中只见环境优美，村部设施完善，古老的小村落正焕发出崭新的魅力。', '离开了计家墩村，常乐镇镇村干部来到了不远的祝家甸村的祝甸砖窑文化馆。砖窑文化馆由村内原先保留的一座老窑改造而来，在不改变原有结构和风貌前提下，对砖瓦厂进行加固处理和创意改造，并植入众创空间、培训学校、餐饮休闲等功能。目前的祝甸砖窑文化馆是集KAB青年创业孵化中心、旅游创业大赛、旅游项目孵化、文创基金引进、非遗文化展示等于一体的江南水乡文化创意产业园。祝甸砖窑文化馆是乡村田园建筑改造的优秀示范案例，既保留了原有的文化，又为村里带来了新的产业机会，成为创业增收的新途径。', '离开计家墩村，没多久便到了同样风景宜人的张浦镇金华村。金华村是首批入选的首批江苏省乡村旅游重点村，村内人居环境优美，一路行来百姓生活悠闲自得。金华村抓住了乡村振兴转型的关键时机，实现了从传统农耕文化到村集体自发经营管理文化的转变，目前已形成了“画匠文化”、“腊肉文化”、“集体文化”三位一体的特色文化，创新了农民的增收方式，以优势产业带动农村新发展。', '4月18日，常乐镇镇村干部前往苏州市与张家港市进行参观学习。苏州市相城区望亭镇深入贯彻党中央关于推进大运河文化带建设的战略部署，系统梳理望亭稻作文化、崧泽文化、良渚文化，在对传统文化的整合与理解下，新建望运阁和文化展示馆，并将望亭老街风貌和中医传承融入其中，助力运河文化的传承发展。目前，望亭镇已成功打造集遗产保护、文化研究、生态旅游、特色党建等为一体的20万平方米的运河公园暨历史文化街区，全面完成了乡村经济建设与环境治理的双飞越。', '位于张家港市的永联村走出了“以工业化牵引，带动城镇化，进而全面实现农业现代化”的科学发展路子。目前永联村的村民居住区已更名为永联小镇，并引入了社区管理机制，利用智慧网络系统，实时管理服务每一位村民与常住人口，实现了全镇范围内的网络覆盖，高效服务于每一位永联人。现在的永联村村民生活富裕，家家有住房、人人有工作、个个有福利，是乡村振兴的示范村。', '行程最后，常乐镇的镇村干部来到了张家港综合展示馆。展馆分为前言、城市记忆、“‘两手抓两手硬’物质文明、精神文明双丰收”、聚力创新、聚焦富民、坚强保障、文明引领、走向未来、同心筑梦等九个部分，综合运用了文字、图片、影像多媒体互动、声光电等元素，全景式记录了近年来张家港翻天覆地的变化和各项事业发展的巨大成就。在讲解下，配合各类媒体资料，大家都切身感受到了以“团结拼搏、负重奋进、自加压力、敢于争先”为内核的张家港精神是如何指引着张家港人不断拼出一条发展之路的。', '两天的参观学习结束，常乐镇镇村干部纷纷表示本次赴苏南学习收获颇丰，很多乡村的治理措施、管理办法包括特色发展的道路都有值得学习借鉴的地方。下一阶段，常乐镇将继续对标苏南地区，加强与苏南的协作，在美丽乡村治理、经济建设与基层党建等方面进行学习、合作与交流，争当海门乡村振兴示范区。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>74</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>借鉴先进经验汲取创新动力常乐镇党政代表团赴苏南崇明考察学习</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2020-04-20</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/cc6c0c4b-55fa-4209-ba55-06d51b3a44df.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['为进一步“学习苏州‘三大法宝’，打造海门乡村振兴示范区”，深入学习研讨，深入对标找差，近日，常乐镇党委书记顾闯率部分镇村干部前往苏南和崇明地区，就经济发展、项目建设、乡村振兴等工作开展考察学习。', '4月14日至16日，顾闯一行先后参观了张家港永联村、张家港凤凰镇、苏州灵峰村、太仓双凤镇、昆山周市镇市北村和张浦镇金华村以及崇明港西镇团结村等地。', '4月14日，顾闯一行参观了张家港永联村、凤凰镇和苏州市相城区灵峰村。今日永联村乡村振兴走在全国前列，走出了“以工业化牵引，带动城镇化，进而全面实现农业现代化”的科学发展路子，其农民集中居住区——永联小镇，是国家“4A”级景区、江苏省五星级乡村旅游示范区；凤凰镇以“文化大镇、经济重镇、旅游名镇”为引领，拥有国家AAAA级景区凤凰山风景区，同时经济发展量质并举，全镇拥有50家销售超亿元企业，形成了新材料、新装备、新能源为重点的三大规模经济板块；灵峰村注重经济产业建设和精神文明建设的共同发展，坚持科学发展、协调发展、持续发展、和谐发展、全面发展，村级经济和社会事业建设取得明显成效。', '去年常乐镇与双凤镇签订了区域战略合作协议，成立“跨江联盟”。4月15日上午，顾闯一行来到太仓双凤镇，先后参观了庆丰村大米深加工中心、城厢镇东林村金仓湖生态饲料厂、农机专业合作社、双凤镇党群服务中心和勤力村，参观太仓市农村基层党员干部纪法教育基地，并就乡村振兴等工作方面积累的有效举措和成功经验进行了探讨交流。', '在昆山，顾闯一行来到周市镇市北村、张浦镇金华村和锦溪休闲绿地公园。市北村通过土地流转，建立绿色无公害种植基地，变“农民”为“股民”，积极引导企业外向配套，拓宽发展门路，营造村民竞相创业的浓厚氛围；金华村以党的政治建设为统领，以提升组织力为重点，打造“一站三点”海棠花红先锋阵地，建立“4355”乡村振兴行动工作体系。', '走进港西镇团结村，生态环境优美，村容村貌整洁、文化气息浓郁。4月16日上午，顾闯一行来到港西镇团结村和花厢沈家院子民宿，围绕美丽乡镇建设、人居环境整治和生态休闲文化打造开展调研考察。近年来，港西镇团结村以党建为引领，把乡村振兴战略融入“秀美团结”发展格局，抢抓“美丽乡村”和“乡村公园”建设的大好机遇，立足资源禀赋和生态优势，为美丽乡村建设描绘了一幅多彩蓝图。', '在参观学习过程中，常乐镇镇村干部一行详细听取情况介绍，并就相关问题展开了深入交流，大家纷纷表示此次赴苏南、崇明学习行程满满、收获满满，有很多值得借鉴学习的地方，要认真总结并开创性地学习推广。下阶段，常乐镇将继续加强与苏南、崇明地区的协调联系、互助合作，在产业发展、科技创新、综合治理、基层党建等方面进行更深层次的合作交流，通过借鉴先进经验，汲取创新动力，奋力争当海门乡村振兴的开路先锋。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>74</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>刘桥镇组织赴海安考察学习文明城市长效管理和人居环境提升工作</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/jzdt/content/a9f55aa5-c199-4854-9dee-1f04ff2b9e64.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['刘桥镇供稿（胡舒）4月21日上午，刘桥镇组织全体村居党总支书记、镇文明长效办和人居办相关人员，前往海安市曲塘镇罗町村和白甸镇官垛村，考察学习文明城市长效管理和农村人居环境提升工作，镇党委书记和镇长带队，相关部门负责人参加活动。', '考察组一行首先来到海安市曲塘镇，干净整洁有序的镇区环境令人赞赏，随处可见的公益广告和景观小品扮靓了整个镇区，合理规划的停车位确保了道路畅通……考察组一行看在眼里，记在心上。在曲塘镇罗町村，考察组一行参观了村党群服务中心和集中居住区，听取了该镇农村户厕改造工作负责人的专题介绍，双方围绕环境整治进行了深入探讨交流。随后，考察组一行来到白甸镇官垛村，参观了该村的党性体检园，观看了纪实片，听取了该村党总支书记的经验介绍，该村每一处精心设计的创意亮点和每一个清晰具体的发展思路，都让考察组成员深受感触和启发。', '下午回镇后，刘桥镇考察组立即召开文明城市长效管理暨农村人居环境提升推进交流会，镇人居办负责人对相关工作进行了详细部署，与会人员交流了考察学习的感想。镇党委书记指出，海安之行，感触颇深，希望大家始终保持一种对工作职责尽心尽职的激情，一种对目标任务努力争先的渴望，一种对破解难题奋力攻坚的态度，一种团结协作带好队伍的氛围，学深悟透先进经验，把学习成果转化为发展成效，全力提升全镇文明城市长效管理和农村人居环境水平，打造出具有刘桥特色的新时代文明乡村形象。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>74</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>南通市党政代表团赴苏南考察学习</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://fgw.nantong.gov.cn//ntsfgw/bmdt/content/c5a1918e-365b-4105-8b86-69d6fe904758.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为深入落实长三角区域一体化发展国家战略，按照省委、省政府推进省内全域一体化、加快苏通跨江融合发展的部署要求，合力打造高质量一体化发展样板区。4月7-9日，南通市市委书记、人大常委会主任徐惠民，市委副书记、市长王晖率市党政代表团赴苏州、无锡、常州考察，学习苏南高质量发展的成功经验，谋求推动跨江融合全方位交流合作。活动期间，我市分别与苏州市、无锡市签订了加强跨江融合发展的战略合作协议，重点在产业协同发展、板块交流合作、园区合作共建、交通互联互通、文旅交流合作、共同推进通州湾长江集装箱运输新出海口建设等方面进一步深化两地合作交流。与常州市政府、上海市江苏商会签署战略合作备忘录，重点在深化招商引资、民营经济交流、城市宣传推介等方面开展合作。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>74</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>海安市交通运输局来我市考察学习内河港口船舶污染物接收设施建设工作</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2019-11-26</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn//hmsrmzf/bmdt/content/d8557570-abde-46c5-a2fe-b228b62bf2bd.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['11月21日上午，海安市交通运输局执法大队副大队长陆大军一行前来考察学习我市内河港口船舶污染物接收设施建设工作。', '考察人员现场参观了海门市帕源道路工程材料有限公司、三瑛混凝土有限公司和海门市佳帅建材经营部三家码头现场，与码头业主就港口船舶污染物接收设施建设情况进行了详细的了解。现场参观结束后，在四楼会议室，海门市交通运输局就港口船舶污染物接收设施建设进行了介绍，双方就港口经营和安全管理工作进行了交流。', '对照《南通市内河港口和船舶污染物接收、转运及处置设施建设方案》（通政办发〔2018〕89号）的要求，海门市交通运输局在2018年度就开展了“一牌三桶”和“沉淀池”建设任务的宣贯工作。根据南通下发的31家企业名单，组织相关单位开展内河港口和船舶污染物接收、转运及处置设施建设，并结合日常监管和港口经营许可现场核查，要求港口经营人及时完成相关建设任务。目前南通要求的31家建设任务已基本完成。（蔡健）']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>74</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>市交通运输局窗口组织赴杭州宁波考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://zwzx.nantong.gov.cn//ntsxzspj/ckzs/content/a35c7690-4ba8-45de-8704-cb69a8a68a6a.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['为进一步提升我市交通运输政务服务水平，深化“互联网+政务服务”工作，12月11日至13日，市交通运输局王世秀副局长带队，邀请市行政审批局相关处室一行7人前往杭州、宁波围绕行政审批制度改革考察学习。', '考察学习团着重学习了浙江省政务服务网1.0版本的运用与2.0版本上线、“最多跑一次”“一件事”“业务项颗粒化”“一窗通办”等行政审批制度改革成果和机构改革后审批事项事中事后监管情况，并与当地交通部门进行座谈交流。', '浙江在政务服务改革等方面成绩斐然，尤其是杭州市“道路运输证进入退出”一件事和宁波市“网约车营运证申领”一件事等“放管服”举措对南通交通政务服务具有很好的借鉴意义，窗口将灵活运用此次调研成果，在优化营商环境改革上下大功夫，认真梳理“一件事”清单、颗粒化维护“一张网”业务项、创新交通“一窗通办”，将交通行政审批制度改革做实做细做显，办人民满意的交通。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>74</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>市司法局组织考察学习苏南经验</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2020-01-10</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://sfj.nantong.gov.cn//ntssfj/bmdt/content/0bf86707-176c-4c03-9948-883a5cd6f14b.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['为积极贯彻落实市委徐惠民书记提出的“全方位融入苏南、全方位对接上海、全方位推进高质量发展”要求，近日，南通市司法局组织立法和备案审查等相关处室工作人员赴苏州实地考察学习苏南经验。', '考察组一行先后赴昆山市司法局、姑苏区司法局虎丘司法所交流听取司法行政服务地方经济发展的制度建设和执行情况，重点对政府重大决策法制审核、地方特色法治文化建设、政府法律顾问管理以及政府立法相关工作等进行了交流，获取了诸多司法行政部门在服务园区发展、推动产业培育、优化营商环境等方面的先进经验，为2020年更好服务各领域改革、推动高质量发展、维护全社会稳定打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>74</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>镇江市农业农村局来海考察学习</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2019-09-23</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn//hmsrmzf/bmdt/content/d3bbe041-a08d-4946-917a-a409782ced46.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['9月19日，镇江市农业农村局周慧瑜副局长带领局农村合作经济指导处处长尤恒、人保财险镇江市分公司总经理助理李伟等一行19人来海学习考察我市农村土地流转履约保证保险工作。我市农业农村局副局长黄磊、合作经济科科长姚杰陪同接待。', '周慧瑜先到农业农村局农村产权交易窗口，询问操作流程、市级平台交易权限、参保情况等，随后，双方来到议室进行座谈交流。', '黄磊介绍了海门市的概况，姚杰科长就土地流转风险防范的做法和措施作了汇报，海门人保公司的徐强总经理也就如何开展农村土地履约保证保险的工作流程向大家作了详细的解读，最后，周慧瑜以及镇江市其他同志就他们感兴趣的问题进行提问，黄磊等人也一一作答。周慧瑜表示，此次考察学习受益匪浅，海门市在土地流转履约保险这方面取得的成绩离不开好的政策制度的制定以及政府、企业、村级三方共同推进，成果显著，非常值得他们学习，待回去之后，结合镇江实际情况也制定出相应的制度政策来推动这块工作。（合作经济科供稿）']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>74</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>哈尔滨市农业农村局来海考察学习</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/dee85ac4-d422-4753-b02f-219b2a8badca.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['9月17日下午，哈尔滨市农业农村局总经济师葛景强、公共资源交易中心副主任刘辉一行来海考察学习农村集体产权制度改革和农村产权交易等工作。南通市农业农村局经管站副站长周晟、海门市农业农村局副局长黄磊、副主任科员袁洪以及市经管站、市农村产权交易中心相关负责同志陪同参加了此次考察学习。', '哈尔滨市农业农村局此次考察主要围绕农村集体产权制度改革和农村产权交易进行调研学习和座谈交流，重点研讨如何规范农村产权交易和推进产权制度改革。', '首先，相关人员向哈尔滨领导介绍了海门市农村产权交易市场建设情况，并进行了座谈。座谈会气氛活跃，交流热烈，共同探讨如何发挥农村产权交易市场服务功能，通过完善交易机制，促进农村集体资产资源保值增值。随后，陪同考察组共赴海门市常乐镇中南村参观考察并听取了当地产权制度改革方面工作汇报和经验介绍。', '哈尔滨市农业农村局表示将积极借鉴海门的先进做法，在以后的工作开展中加以运用，维护广大农民的切身利益和农村的繁荣发展、和谐稳定。（市农村产权交易中心供稿）']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>74</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>徐州市铜山区医疗保障局来我市考察学习照护保险工作</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2019-10-16</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/151e7299-6711-4387-87cf-e51697c92477.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['座谈会上，市医保局相关负责人详细介绍了我市照护保险工作开展情况和相关经验做法，并对如何开展好该项工作与考察组交换意见。考察组一行对我市照护保险工作开展情况给予了高度赞赏，认为我市在照护保险运营模式方面进行了大胆探索，形成了“医养融合”新型养老服务模式。考察组表示，作为全国首批试点县级城市，如皋市积极探索，积累了丰富的实践经验，走在了全国前列，此次考察开阔了视野、理顺了思路，为铜山区推行照护保险工作提供了有益借鉴。座谈会结束后，考察组一行还实地参观了市照护中心、博怡居家照护公司和市博爱康复护理院。', '2018年起至今，我市照护保险共受理参保人员失能评定申请4221人次，符合重度失能标准2688人，已有1606人申请上门照料护理服务，入住护理机构照护328人。全年共支付各项照护保险待遇440.39万元。自项目运营以来，这项惠民利民的政策赢得了社会的一致好评，适度缓解了失能家庭的负担，化解了养老难的困境，提升了政府形象。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>74</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>洪泽区人大来我县考察学习</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2019-11-22</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/50d7c3ee-6b4d-4938-be23-645c7e706369.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['本报讯（全媒体记者 贾兆亮）11月20日，淮安市洪泽区人大常委会副主任高万成一行来我县考察学习传统自然村落保护和生态环境保护工作先进经验。', '考察组一行先来到栟茶镇，实地考察了解古镇和古建筑的建造年代、主要特点和保护措施，与所在单位负责人进行深入交流，探讨在保护过程中如何采用修旧如旧维修技术手段。', '随后，考察组先后来到洋口港规划展览馆、香鲸馆和规划馆，听取我县生态环境保护工作情况的介绍。考察组一行对我县传统自然村落保护和生态环境保护工作给予高度评价，尤其是LNG能源岛建设能够充分利用自身优势，科学规划，经济效益和生态效益正日益凸显，值得考察组学习和借鉴。希望今后加强联系沟通，相互学习共同提高，共同推进地方人大工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>74</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>海永镇组织赴崇明区向化镇考察学习垃圾分类</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2019-07-08</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/7afb5a9a-e691-4847-93a3-a342f39ef761.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['近日，海永镇垃圾分类推进小组由镇长顾健带队赴崇明区向化镇考察学习垃圾分类。崇明区垃圾分类推进办负责人陈平为海永镇一行进行全程指导。', '此次考察，是海永镇继6月17日赴崇明区学习之后的再一次自我加压，着眼于高质量推行“互分互投、村收村拣、镇运镇处”的运营基础，加快实现垃圾分类总体到位。', '顾健一行实地考察了向化镇垃圾分类的工作情况以及四分类垃圾厢房的设置，并观摩工作人员演示小黄狗智能垃圾分类回收机。该回收机可自动根据投放量反馈账户积分，既增加了用户参与垃圾分类的积极性，又顾及定时定点投放之外人群的便利性，从而实现分类减量。', '在向化镇有机物循环利用中心，陈平向海永镇一行介绍了垃圾分类源头回收环节的精准把控措施，以及分类处置环节的污水处理工艺流程。', '陈平指出，垃圾分类有多重要，源头回收就有多重要。为此，向化镇在回收环节上使用标签卡，对于分类不到位的垃圾桶可直接对应到人，倒逼分类成效。同时，充分发挥志愿者队伍的作用，在监督分类工作上不遗余力。', '之后，双方进行了经验交流会议。顾健指出，海永镇垃圾分类工作有切实可参考的方案及富有经验的专家指导，起点即是高标准、高定位，海永镇有信心也有决心打好垃圾分类攻坚战。', '陈平建议，海永镇做好垃圾分类，一要配齐保洁人员与设备，抓好队伍建设，明确责任人；二要以分发告知书、知识手册等形式做好宣传，在推行分类前做到宣传全覆盖；三要做好定时定点投放与上门收集的协调，明晰运作模式、政府职能与工作目标。', '顾健指出，海永镇将重点做好三个方面的工作，一是加快加速推进垃圾分类工作，让考察学习的成果产生效益；二是继续做好宣传、培训工作，确保推行第一周旗开得胜，推行第一月决战决胜；三是抓好垃圾分类与沟河、道路、农村、社区保洁的关系，进一步推进宅前屋后整治工作。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>74</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>树标追赶加强交流示范区领导率队赴苏州工业园区行政审批局考察学习</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2019-07-23</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://tzw.nantong.gov.cn//tzwjhldkfsfq/bmdt/content/f14fdf52-0cd9-41ef-b1d9-231f43f62b5b.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['树标追赶 加强交流 示范区领导率队赴苏州工业园区行政审批局考察学习&lt;br&gt; - 部门动态', '为学习和借鉴苏州工业园区在深化“放管服”改革和相关集中行政许可权改革方面的先进经验，7月19日上午，示范区党工委委员、管委会副主任施宏杰带队一行7人赴苏州工业园行政审批局考察学习。在苏州工业园行政审批局内，考察组一行详细了解了苏州工业园区一站式服务中心的发展历程、相对集中行政许可推进进程、建设项目审批服务“2333”实施细节等具体情况。苏州工业园一站式服务中心副主任金玉文接待了考察组一行。', '苏州工业园行政审批局于2015年8月21日正式挂牌，成为省内首家国家级开发区行政审批局。组织架构上已形成行政审批局、一站式服务中心、公共资源交易中心“一局两中心”的行政审批管理与服务新架构。其中，一站式服务中心在2002年9月正式成立，代表管委会集中、统一对外办理园区内中外企业的批准设立、开工投产、生产运行方面的行政许可和备案核准业务，中心系苏州工业园区管委会借鉴新加坡经验、按照“精简、统一、效能”的原则、实行行政审批制度改革的具体实践，是为进一步优化和完善亲商服务、创造更具竞争力的服务软环境而成立的专门机构。2015年苏州工业园行政审批局成立后，一站式服务中心作为行政审批局下属事业单位，继续行使业务审批服务职能，而行政审批局本部人员则转而从事审批制度改革创新、审批流程优化再造、审批效率持续提升等方面的工作。', '调研过程中，考察组一行详细询问了审批流程、时限、企业满意度等情况，并实地查看了城市公共信息服务平台、智慧政务E站式公开体验区、党员先锋模范岗等建设情况。经了解，苏州工业园城市公共信息服务平台于2016年底通过验收并投入使用，目前已接入了20个部门的63个应用系统，可实现城市地上地下空间信息一体化，城市规划、审批、现状信息一体化，跨部门业务阶段信息一体化。依托这些信息化手段，园区率先实现了“电子踏勘”、“多规合一”、“电子审图”等系类服务措施，项目审批效率也得到进一步提高，目前已实现2个工作日完成企业注册开业审批，3个工作日获得不动产登记，工业项目从立项至施工许可33个工作日办结。', '在随后召开的座谈会上，金玉文介绍说，随着相对行政许可权改革工作的不断推进，苏州工业园改革已逐步进入深水区，今后继续深化“一张网”“不见面审批”等改革举措，探索综合窗口设置，让企业和群众进一扇门办成所有事。最后将各项改革工作作为重点研究“课题”，亲身参与到审批服务的各个环节中，通过整合审批职能，优化审批流程，创新服务机制，深入推进“放管服”改革，努力实现“1220”。', '施宏杰表示，苏州工业园区行政审批局在政务服务信息化、大厅管理智能化、一站服务标准化建设方面有着先进经验，值得通州湾好好学习借鉴。要求随行的行政审批工作人员结合实际，拉高标杆、对标找差、补强弱项，进一步厘清审批与监管部门的权责边界。同时善于利用信息化、大数据等技术手段，加强前期工作管理，完善审批系统建设，进一步助力示范区实现从“高效审批”到“智慧审批”的迈进。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>74</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>区农业农村局赴张家港市考察学习粮食生产全程机械化创建工作</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.tongzhou.gov.cn//tzqrmzf/bmdt/content/d8fed09a-f80e-4873-ad5a-a43688c46b7c.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['区农业农村局供稿（徐松泉）为积极推进粮食生产全程机械化示范区创建工作，8月29日，区农业农村局由分管领导带队，局机关、站、所、校主要负责人、各镇（园、区、街道）农机岗位负责人等一行30人赴张家港市考察学习粮食生产全程机械化创建工作，张家港市农业农村局相关负责人陪同考察。', '会上，张家港市农业农村局详细介绍了粮食生产全程机械化创建工作情况，分享了创建工作中的宝贵经验和具体做法、措施并就推进过程中遇到的问题展开交流。', '考察学习组一行参观学习了张家港市粮食生产全程机械化示范镇的创建资料，就示范镇创建、台账资料整理等问题展开交流。另外，观摩了塘桥金村农机专业合作社、南新农机专业合作社，听取了合作社负责人介绍合作社先进的经营理念、管理模式和创新做法。', '通过看现场、阅资料、听介绍，可以感受到，张家港市粮食生产全程机械化创建工作领导重视程度高、推进速度快、创建成效好，有特点、有重点、有亮点，值得学习借鉴。下一步，我区将根据创建考核指标，全力冲刺，顺利完成粮食生产全程机械化创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>74</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>潜江市住建局来我市考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://zj.nantong.gov.cn//ntsfgj/bmdt/content/9ca0470f-1733-455d-aeda-6be4f312f2c6.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['8月1日上午，湖北省潜江市住建局一行4人来到市住建局学习考察物业管理工作。座谈会上，市住建局详细介绍了我市物业服务行业发展现状及物业管理主要做法，并就物业管理日常监管、信息平台建设、行业考核体系、行业党建和维修资金管理等问题，与潜江市住建局进行了深入交流。', '通过此次学习考察，双方均表示，希望继续加强交流，互相借鉴学习先进经验，共同提高物业管理工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>74</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>大数据集团赴福建参加数字中国峰会及三元达集团考察学习</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://gzw.nantong.gov.cn//ntsgzw/bmdt/content/4843df95-38f7-45f0-a227-b832a1fb010e.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['峰会主题“以信息化培育新动能，以新动能推动新发展，以新发展创作新辉煌”，为观察数字时代的中国提供了风向标。大会主旨诠释：重中之重，突破核心技术；以人为本，坚信信息惠民便民利民；唯改革者进，唯创新者强。', '随后，大数据集团一行人员在福建三元达集团黄国英董事长、吴正潘副总裁、叶斌副总经理的陪同下赴三元达参观考察。领导们首先来到展厅了解三元达的发展过程、管理制度以及今后的发展规划，集团常务副总周剑飞对三元达集团展厅部署以及公司成绩、发展规划等给予了赞许。接着双方进行了短暂的交流并针对自己的城市规划进行概述，双方领导希望可以共同开启2.0时代，为时代作智慧表达，打造信息通讯+智慧城市产业新生态，一起将城市变得更加便利，信息化！']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>74</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>示范区港口局赴连云港万吨航道建设指挥部考察学习</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://tzw.nantong.gov.cn//tzwjhldkfsfq/bmdt/content/c5e68333-f0ff-4c29-acf2-80aefe6e76d6.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['6月28日，为贯彻落实省交通厅5月9日召开的通州湾网仓洪航道专家咨询会意见及市领导要求，市交通局副局长华伟率通州湾港口建设指挥部、南通港集团、示范区港口局负责人赴连云港30万吨航道建设指挥部考察调研港口及深水航道建设管理经验。', '连云港市交通局副局长、30万吨航道建设指挥部副指挥蔡辉详细介绍了指挥部的性质、组织架构、工作内容、制度建设以及指挥部成立10多年来的项目管理经验。双方深入探讨交流了深水航道建设的管理模式、专家顾问组的组成、潮流泥沙等深水航道重点研究的内容与方式、以及如何高效高质推进项目前期研究与报批建设等关键问题，为通州湾网仓洪深水航道的研究、报批提供宝贵的经验。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>74</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>山东省昌邑市教育和体育局代表团来如考察学习</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2019-06-18</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://tyj.nantong.gov.cn//ntstyj/xsqdt/content/9d27f3ac-5533-4a4d-8366-7d6b851f239e.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['6月17日上午，山东省昌邑市教育和体育局调研员、市体育发展中心主任翟拥军一行6人来如皋体育局考察学习交流。如皋市文体广电和旅游局党组书记陈仁高、党组副书记、副局长、体育中心主任沙进等陪同考察，并召开座谈会，开展经验交流。', '座谈会上，陈仁高、沙进先后介绍了如皋市文体广电和旅游局的基本情况，并从竞技体育、群众体育、青少年足球、场地建设、体育产业及大型体育赛事组织保障工作等方面介绍了如皋市文体广电和旅游局近年来取得的成果。', '座谈会上，与会人员还就田径人才的招生、田径人才的培养、场馆的运营管理、公共体育场地的开放、如皋体育社团的发展、智慧体育、农民体育、老年人体育及社会力量办体育等方面展开了经验交流。', '当天上午，昌邑市教育和体育局调研员、市体育发展中心主任翟拥军一行还实地考察了如皋市青少年足球训练中心、国家田径训练基地、市奥体中心室外田径、足球多功用运动场、奥体中心体育馆、游泳馆等场地向社会开放情况。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>74</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>启东市来海考察学习雅周农业农村工作</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-05-15</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/hayw/content/ecd64cf4-a1e6-4388-8824-eb0693274157.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['近日，启东市人大常委会环资城建工委相关负责人带队来海，参观学习雅周镇农业农村工作。雅周镇主要负责人参加活动。', '启东客人参观了海安苏台农业合作示范区“三大中心”（公共服务中心、农业高新技术展示中心、农机展示中心）和现代农业样板区、稻麦种植展示区、蚕茧丝绸示范区、农业生态旅游区，考察了农博葡萄科技示范园、江苏奥纽智能温室项目。（记者徐小婕通讯员陈卫菁）']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>74</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>海门高新区赴如皋市如城街道考察学习文明创建工作</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/286FA1E26BE440B8B264AE830BB543EF.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['为更好地学习借鉴全国文明城市创建先进经验，提高海门高新区创建工作水平，上周，海门高新区组织前往如皋市如城街道考察学习文明创建工作经验，园区党工委书记陈忠、管委会主任袁兵带队，相关部门负责人及各社区书记等30余人前往参观学习。', '在如皋市如城街道负责人的带领下，参观人员首先来到如城街道孔庙社区，认真听取了社区工作人员对社区创建工作的经验介绍。“文化立社区，和谐在孔庙”的服务理念，党建引领、网格管理、多元共治的现代社区治理模式，让参观人员受益匪浅。', '随后参观人员来到如城锦绣苑老小区及御龙湾现代物业小区参观，学习了新、旧小区不同的管理模式。', '在背街小巷示范点，参观人员看到了干净整洁的街道，感受到了如城铺天盖地的公益宣传氛围。', '如皋市委常委、如皋工业园区党工委书记刘向阳表示，如城街道作为如皋的城关镇，创建工作确实很难，但如城为老百姓做实事，将创建工作抓得具体、深入，并常态长效化开展好创建工作，让老百姓成为最大收益群体，提高了每一个人的参与度。', '海门高新区党工委书记陈忠指出，通过实地的参观学习，大开眼界，很多细节都体现了如城街道对创建工作的重视，特别是精神文明建设。下一步海门高新区将借鉴创建经验，立足文明创建的良好平台，以创建活动为契机，补齐短板，打造亮点，力争推动海门高新区全国文明城市创建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>74</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>住建局前往太仓考察学习城建工作</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2018-10-19</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.qidong.gov.cn//qdsrmzf/bmdt/content/cd93c878-9b4d-4bd9-95b5-18d04e63a3a7.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['本周，市住建局局长朱海荣带队对太仓市城建工作进行考察学习，住建局副局长王忠、范飞、黄建平及相关科室负责人参加。', '考察团一行实地参观了太仓市城市规划馆，了解了太仓市这几年的城市变迁、城市发展现状及未来几年的发展规划；对太仓市老小区改造的先进理念和经验进行了实地观摩学习；对太仓建设工地实名制管理和扬尘治理情况参观了解，并就工地建设情况进行了深入座谈交流，进一步探讨了建设工地更加规范长效的监管机制。另外，此次考察学习还对城建规划理念和房地产市场调控等内容进行了交流。', '太仓市2017年被评为“中国最具幸福感城市”第一名，今年正在创建国家生态园林城市，此次考察团就如何更好地做好海绵城市和生态园林城市建设进行了深入的交流学习。我市将认真借鉴太仓在城市规划、园林城市创建、老小区提档改造、特色田园乡村建设等方面的先进理念和经验，补好自己的“短板”，并结合启东实际，着力改进发展模式，全面提升城市生活质量。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>74</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>市经信委组织老党员老干部赴如东考察学习</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2018-10-23</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/jxdj/content/4571489b-1c0a-469f-a5b9-acb4b73bb1ff.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['10月18日，市经信委组织离退休老党员、老干部赴如东参观考察。老干部们先后参观考察了如东洋口港、南通反“清乡”纪念馆。', '雄伟的洋口外闸是江苏沿海集航运、排涝、挡潮为一体的规模最大、功能最全、自动化最高规格的海闸，洋口国家中心渔港总面积3700多万平方米，能容纳3000艘渔船卸货补给。老干部们既为鸥鹭飞翔、千帆矗立的自然景观所折服，又为近年来南通海港建设取得的成就感到骄傲。来到反清乡纪念馆，在珍贵的历史图片、实物面前，不少老同志深深回忆了战斗年代和革命生涯，与委内年轻志愿者分享了革命体会和感悟，勉励年轻干部要心怀人民，不忘初心，继续前行。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>74</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>南通市社组织赴泰州盐城考察学习监事会工作</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2018-11-02</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/deebd115-4712-42f2-aac7-ae0a84c0ae0e.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['为进一步做好全系统监事会工作，近日，市总社党组成员、监事会主任赵勇率市社监事会有关同志赴泰州、盐城市社考察学习供销合作社监事会工作的经验和做法。', '考察组一行每到一处，宾主围绕“三会”建设、监事会职能定位和作用发挥进行了广泛深入的座谈交流。在健全“三会”制度方面，泰州、盐城市社为我们树立了样板，同时，泰州市社加强社有资产监管、盐城市社健全监事会工作制度等经验做法都给考察组留下了深刻的印象。在泰州考察学习期间，还实地参观了白马供销合作社为农综合服务中心现场，目睹了“三会”制度建立完善后白马基层社的巨大变化。通过这次学习考察，大家一致认为，泰州、盐城供销合作社监事会工作的经验和做法各具特色，具有很好的学习借鉴意义。', '考察学习结束后，赵勇指出，目前我市健全“三会”制度工作还刚刚开始，任务繁重，要认真学习泰州、盐城的经验做法，紧密结合南通实际，加快推进我市“三会”建设全覆盖，努力提升监事会履职能力和水平，为推进全市供销合作社改革发展，提供强有力的保障。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>74</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>南通市经济和信息化委员会关于组织南通企业家赴青岛标杆企业考察学习单一来源谈判邀请函</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2018-10-31</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/gggs/content/8a172336-829c-4e3e-9e18-2adb43b1140a.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['南通市经济和信息化委员会关于组织南通企业家赴青岛标杆企业考察学习单一来源谈判邀请函 - 公告公示', '南通市经济和信息化委员会关于组织南通企业家赴青岛标杆企业考察学习单一来源谈判邀请函', '南通市经济和信息化委员会就组织南通企业家赴青岛标杆企业考察学习，采用单一来源谈判方式组织采购。现邀请单一来源供应商南京苏商管理培训学院参与项目的谈判采购。', '三、项目需求：详见南通市经信委网站、南通公共资源交易平台2018年10月24日发布的单一来源采购公示']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>74</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>市党政代表团赴绍兴宁波舟山三市考察学习</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2018-09-06</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.nantong.gov.cn/ntsrmzf/ntxw/content/5da30c32-50b1-4782-82ec-64f9a6f092ee.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['日报讯 (记者汤晓峰）为深入贯彻落实习近平总书记对推动长三角更高质量一体化发展的重要指示精神和全国、省生态环境保护大会精神，9月3日-5日，市委书记、市人大常委会主任陆志鹏率领市党政代表团赴浙江绍兴、宁波、舟山三市，考察学习兄弟城市在水环境治理、产业城市交通转型升级等方面的先进经验和做法。', '考察学习期间，浙江省委副书记、宁波市委书记郑栅洁会见了我市党政代表团一行。郑栅洁简要介绍了宁波经济社会发展情况，希望两市立足各自区位条件、功能定位和产业基础，加强各领域的互利合作，为推动长三角更高质量一体化发展作出积极贡献。宁波市政协主席杨戌标等参加会见。', '陆志鹏说，在长三角城市群发展规划中，宁波和南通分别被定位为以上海为中心的长三角南翼经济中心和长三角北翼经济中心，南通在区位条件、经济结构、文化背景等方面与宁波有很多相似之处，将以宁波为学习标杆，不断向南翼中心的发展质量和水平看齐。', '代表团一行考察了宁波国际航运服务中心，浙江省海港集团、宁波舟山港集团，宁波栎社国际机场三期扩建工程，北仑区小浃江综合治理工程。宁波市不断提升开放水平、打造国际强港、发展海洋经济、大力度开展水环境治理的做法给代表团一行留下深刻印象。', '在绍兴市委书记马卫光等陪同下，代表团一行考察了迪荡湖水系综合治理工程、西小河整治、鉴湖水环境综合整治工程，听取了古城治水大会战情况介绍。代表团一行认为，绍兴治水重抓截污堵源、河湖长制、全民参与，将文创产业、地方风情与治水有机结合的做法值得南通学习。', '在舟山市委书记俞东来、市政协主席江建国等陪同下，代表团一行参观考察了舟山城市展示馆、舟山国家石油储备基地、朱家尖禅意小镇、舟山航空产业园、舟山江海联运服务中心。大家对舟山抢抓国家战略机遇，放大舟山群岛新区平台优势，建设江海联运枢纽，推动产业、城市发展的做法感到钦佩。', '短短3天的考察学习给代表团成员留下深刻印象。大家认为，三市干部群众思想解放、思路超前，善于挖掘资源、放大优势，项目招引力度强、水环境治理成效好、城市面貌改观大，这些方面值得南通好好学习。', '陆志鹏说，市党政代表团赴浙江考察学习，主要目的是向浙江学习水治理和产业城市交通转型升级的先进经验和做法，理清思路、寻找办法，突出补齐短板，推动高质量发展。浙江城市水环境治理注重前瞻性、科学性、系统性，注重源头管控，为我市提供了借鉴。下一步，各地要把治水作为突出问题来抓，开辟农村和城镇两个战场，从农业、工业、服务业、生活四个方面发力，人人争当主人翁，个个不做局外人，做到全覆盖、无遗漏，打一场水治理的翻身仗。要着力推动产业城市交通转型升级，特别是要学习浙江地区港口整合方面的先进做法，推动全市港口一体化发展。陆志鹏指出，这次考察学习有两个收获。一是项目建设要有大格局、大“拳头”、大作为。纵向比，我们有进步；横向比，感到坐不住。各地要进一步下大力气，加大招商引资力度，紧盯百亿级项目，实实在在推动大项目、特别是先进制造业项目建设取得成效。二是城市建设要有高标准、高起点、快速度。要在执行力上找差距，学习浙江的建设速度，对照年度进度要求，对当年开工的城建项目开展回头看，打好五山地区等重点片区项目建设百日攻坚战，让城建重点工程早日服务通城百姓。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>74</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>云南省供销合作总社主任陈霖一行来通考察学习</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/35976179-9d19-4bfe-9547-c764273eb77f.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['8月1日，云南省供销合作总社主任陈霖、副主任李江虹、全国总社昆明食用菌研究所所长、省社处长一行5人来通考察学习。先后实地参观了海门小贷公司、海门中海村农村综合服务社。江苏省社党组成员、理事会副主任窦立夫、南通市社党组书记、理事会主任葛志华、海门市委副书记葛志娟等领导陪同调研。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>74</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>安徽省濉溪县来海考察学习乡村文化建设情况</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/1D49934AA1DD47D483E7AD34147D6828.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['日，安徽省濉溪县政协副主席朱秀芳带队来我市考察乡村文化建设情况。市政协副主席彭为杰，市政协文教卫体委、市文广新局负责人参加活动。', '朱秀芳一行先后参观考察了开发区西场石桥村综合文化服务中心、开发区（城东镇）文化服务中心和高新区中大街社区综合文化服务中心，通过实地察看、现场讲解等方式，详细了解了我市的乡村文化建设状况。', '活动中，彭为杰副主席介绍了我市市情、区位优势、产业基础、投资环境以及文化服务体系建设等方面情况。文广新局负责人介绍了我市乡村文化设施更加完善、文化产品供给量质并举、群众文化活动多姿多彩、文化遗产保护富有成效和文化人才队伍持续加强等方面情况。', '。希望双方在今后的工作中进一步加强学习交流，共同推动当地的乡村文化建设高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>74</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>苏州水利系统来如考察学习农业水价改革</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2018-07-30</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/f0831c34-bde0-473c-894f-d10a69b95458.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['7月26日，苏州市水利局副局长周云祥一行45人来我市考察学习农业水价综合改革先进经验和做法，南通市水利局副局长赵建华、农水处处长季巍、如皋市水务局局长徐海等陪同考察。', '考察组一行首先参加了如皋市农业水价综合改革经验交流会，市水务局章祥裕副局长在会上作了经验介绍，苏州市水利局相关人员进行了交流发言，南通市水利局赵建华局长进行了点评。会议上肯定了我市在农业水价综合改革方面取得的成就，尤其是农灌水费计收方面处于全省前列，具有一定的代表性。', '考察组一行还参观了白蒲镇林马灌区和如皋农灌供水末端计量基地。考察学习人员对我市的农灌用水计量给予高度的评价，泵站计量设施、田间自力式放水阀门的应用为测定我市用水效率及节水水平、精确测量农业灌溉水利用系数提供了技术支撑，有效遏制了人为浪费水资源的现象，农业灌溉成本明显降低，节水效果显著提升。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>74</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>如东县文广新局赴浙江天台江苏张家港考察学习</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2018-09-04</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://wgxj.nantong.gov.cn//ntswgxj/bmdt/content/a47eb1bc-c341-40e8-848b-8e50d02b0497.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['为进一步做好如东县国清寺遗址保护工作，推进遗址科学保护和利用，8月31日至9月2日，如东县文广新局局长张杰一行专程赶赴浙江省天台县和张家港市进行考察学习。', '考察组先期对浙江天台山国清寺与天台宗文化相关佛教圣地、天台县文化园等进行了考察，并与天台县文广新局、旅发委和宗教局就传统文化保护、传统文化对文化旅游发展的影响等内容展开学习交流。随后，考察组赶赴张家港实地参观丝绸之路申遗遗产点、全国重点文物保护单位“张家港黄泗浦遗址”发掘现场，观摩了部分出土文物，听取了张家港文广新局对遗址考古发掘、遗址保护和利用规划的介绍，双方专门就遗址的学术研究、管理保护及利用等问题进行了深入探讨。', '通过学习交流，考察组一致感觉收获颇丰，尤其是天台县在文化遗产保护和传承、张家港在遗址保护和利用等方面值得如东学习借鉴的地方很多，为下一步科学规范地做好国清寺遗址保护与展示工作，推动如东文化遗产保护工作再上新台阶起到了良好的示范引领作用。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>74</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>安徽无为县政协来海考察学习</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-07-13</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/119B5AF0E700497FB0F80F58E7172B97.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['月11日，安徽无为县政协黄义发副主席带队，来海学习撤县设市后行政职能转变及社区治理能力和治理体系建设工作。市政协副主席彭为杰参加了活动。', '无为县政协一行听取了我县关于“撤县建市”有关情况的介绍，参观了曲塘镇罗町村为民服务中心、高新区复兴社区治理体系建设情况，开发区政协联络组“政协委员之家”建设情况。', '黄义发副主席认为，海安市社区功能全面，制度健全，服务周到，治理能力达到了较高水平。特别是“政协委员之家”建设高起点，为政协委员履职提供了很好的平台，一定要学习好海安的宝贵经验，结合无为县的实际情况，加快推进社区治理能力建设和委员履职平台建设。', '彭为杰表示，无为县交通优势明显，是中国闻名的“电缆之乡”“劳务之乡”“国家级皖江城市带承接产业转移示范区”，两地要进一步加强互动交流，共同促进两地经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>74</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>福建省闽侯县政协来海安考察学习</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/xsqyw/content/02babd84-6f67-4513-9904-c5b368dc8a85.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['6月28日，福建省闽侯县政协副主席张君著一行至海安学习考察“河长制”建设方面的经验和做法。海安市政协副主席蔡祝平，市政协提案委、市水利局负责人参加活动。', '张君著一行先后考察了老通扬运河G328垃圾堆放点、洋蛮河中心河、曲塘崔母拦截点等处，详细了解了海安全面落实“河长制”工作取得的成果。', '蔡祝平从以健全工作机制为基础、织牢治水责任网，以全面开展巡河为先导、吹响治水冲锋号，以全面综合施策为重点、打好治水组合拳，严格考核、以河长工作成效明奖惩等方面介绍了海安积极探索河道管护体制机制、推动“河长制”发展的情况。市水利局负责人介绍了“河长制”工作成效、亮点以及下一步工作打算。', '张君著认为海安“河长制”工作无论是方案出台、工作网络建立，还是各项规章制度制定，都具有鲜明的“海安特色”，举措扎实、亮点频频、成效显著。他表示，将积极借鉴和学习海安的先进经验和做法，推动闽侯县“河长制”建设更高质量发展。（海安市水利局）']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>74</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>福建省闽侯县政协来海考察学习</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018-07-03</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/0256F922D89942C294DCE03E2048F39C.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['月28日，福建省闽侯县政协副主席张君著一行来我县学习考察我市“河长制”建设方面的经验和做法。市政协副主席、工商联主席蔡祝平，市政协提案委、市水利局负责人参加活动。', '张君著一行先后考察了老通扬运河G328垃圾堆放点的硬质化、垃圾分类，洋蛮河中心河的以河养河、水上花卉、水下养鱼，曲塘崔母拦截点的拦截、打捞、输送带、分类处理等情况，详细了解了我市全面落实“河长制”工作取得的成果。', '蔡祝平副主席从健全工作机制为基础、织牢治水责任网，以全面开展巡河为先导、吹响治水冲锋号，以全面综合施策为重点、打好治水组合拳，严格考核、以河长工作成效明奖惩等方面介绍了我市积极探索河道管护体制机制，全面实施“河长制”的情况。市水利局负责人从健全运作机制、规范河长工作，突出重点攻坚、系统开展整治，加强宣传力度、增强创优意识，强化督查考、确保取得实效等方面详细介绍了我市河长制的工作成效、亮点以及下步工作打算。', '张君著认为海安“河长制”工作无论是方案出台、工作网络建立，还是各项规章制度制定，都具有鲜明的“海安特色”，举措扎实、亮点频频、成效显著。此次考察收获颇丰，闽侯县政协将积极借鉴和学习海安的先进经验和做法，推动本地“河长制”建设更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>74</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>南京市六合区农业局来海考察学习农产品质量安全县创建工作</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2018-06-26</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-9459-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['6月25日，南京市六合区农业局一行五人在唐根生副局长带领下，来我市考察学习农产品质量安全县创建工作并座谈，局施雷副局长、杜秉全科长等陪同活动。', '座谈会上，杜秉全科长详细介绍了我市创建国家农产品质量安全县的经验和做法，双方就当前农产品质量安全监管工作中的难点和创建工作经验进行了深入座谈交流。考察组认为海门市农产品质量安全监管工作经验具有很好的学习和借鉴意义，并希望双方以此次考察为契机，进一步加深沟通交流，密切联系，为更好地做好农产品质量安全监管工作做出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>74</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>市信访局召开行政办公会交流赴宿迁市连云港市开展信访工作对标找差考察学习体会</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2018-06-09</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://xfj.nantong.gov.cn//ntsxfj/qt/content/180d49ff-038a-40b3-84de-fbcb45af420d.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['市信访局召开行政办公会交流赴宿迁市、连云港市开展信访工作“对标找差”考察学习体会&lt;br&gt; - 其他', '市信访局深入开展“解放思想追赶超越推动高质量发展”大讨论活动，通过对标先进，到省内兄弟市学习考察，在思想、作风、创新上查短板、找差距，谋求南通信访高质量发展。5月30日至31日，市委副秘书长、信访局长顾晓明同志带领部分局领导与业务处室负责人考察学习宿迁市和连云港市信访工作的特色亮点。6月1日下午，南通市信访局召开行政办公会交流外出考察学习体会，一致认为此次考察学习活动不虚此行、收益匪浅。顾晓明同志总结了与宿迁市、连云港市相比存在多个方面的差距：一是在领导包案实效上有差距；二是在责任落实的力度上有差距；三是在信访积案化解实绩上有差距；四是在信访事项办理的精度上有差距；五是在稳控实招和稳控强度上有差距。同时就下一步的对策措施和解决方案，提出了三点意见：一是明确责任。在领导包案、积案化解、信访事项办理、责任落实、人员稳控等5个方面全部明确牵头领导；二是学以致用。进一步完善领导包案机制，下大力气推动信访积案化解，落实信访事项办理巡查机制，加强多方协调加大重点人员稳控。三是扬长避短。进一步推动乡镇联席会议机制、“三融合”机制、双员接访包案机制、四个层次督查机制、千人百案信访评议机制的落实，以实际成效缩小与先进地区差距，以实际行动推动南通信访高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>74</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>安徽省金寨县来如考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2018-05-25</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/d8541bb9-275d-4454-bb90-80b925d017cf_rg.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['日前，安徽省金寨县执法局副局长夏纯成一行24人来如考察学习物业管理工作的先进做法和经验。如皋市城管局副局长陈爱明陪同考察。', '考察团一行先后参观了御龙湾、江中世纪城、绘园新村三区、丰泽怡园、西城花园，实地了解了我对物业小区、老小区、安置区等不同类型住宅小区的具体管理理念与举措。御龙湾的匠心服务、江中世纪城的精细管理、丰泽怡园的文化建设，给考察团留下了深刻印象。', '在随后召开的座谈会上，市城管局副局长陈爱明详细介绍了如皋物业管理在制度建设、监管服务、矛盾调解、业委会自治管理等方面的经验做法。双方就创先创优、信用评价等方面的工作进行了深入探讨。考察团表示，如皋的物业管理思维理念和管理方式值得金寨带回去学习和借鉴，希望今后双方进一步加强学习交流，共同推进物业管理再上新台阶。（石小淋）']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>74</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>湖北浠水和山东平阴公安机关来海考察学习</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2018-05-23</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn//hmsrmzf/bmdt/content/71F310F9-D395-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['近日，湖北省浠水县公安局副局长徐袖金一行、山东省平阴县公安局局长徐坤副一行来市公安局考察学习。市公安局副局长陆煌辉携指挥中心、政治处、网安大队相关人员接待。期间，考察人员参观了该局合成研判作战中心、刑侦合成侦查中心。陆煌辉介绍了该局基本情况，并就合成作战、综合研判、合成侦查、质态监测等工作运行机制、模式、成效等作了详细介绍；同时，双方围绕警务机制运行、信息化建设等进行了广泛交流。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>74</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>呼和浩特市政协副秘长岱沁一行来通考察学习医养结合工作</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2018-04-24</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://rsj.nantong.gov.cn/ntsrsj/bdxw/content/55E154D081A2428F8F93EB2A0D3465E9.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['4月23日下午，呼和浩特市政协副秘书长岱沁一行来通考察学习医养结合工作。我市政协相关领导及市卫计委、民政、财政、人社等相关部门负责同志参加考察学习，并分别就与我市开展医养结合做法、保障措施及存在相关问题进行了交流。', '月23日下午，呼和浩特市政协副秘书长岱沁一行来通考察学习医养结合工作。我市政协相关领导及市卫计委、民政、财政、人社等相关部门负责同志参加考察学习，并分别就与我市开展医养结合做法、保障措施及存在相关问题进行了交流。', '市局医保处陈志军处长参加交流，并向考察学习组一行介绍我市率先建立基本照护保险制度情况、养老护理机构（院）医保和照护定点以及基本照护保险制度特点、覆盖人群、筹资标准、待遇水平等。尤其是我市率先实施基本照护保险制度促进养老产业迅猛发展，促进“医养融合、医养结合”的新型养老服务模式的形成和发展，也促进了就业再就业。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>74</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>市经信委组织老干部赴海安考察学习</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://gxj.nantong.gov.cn//ntsjxw/jxdj/content/c4adacc2-a09c-407c-8a96-c9b710b1a66d.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['5月10日，经信委组织离退休老干部赴海安参观考察。老干部们先后参观考察了慧源文化广场老报纸纪念馆、苏中七战七捷纪念馆、韩国钧纪念馆（海安博物馆）、东部家具城。慧源文化广场老报纸纪念馆的展览共分为“建党篇”、“建军篇”、“抗战篇”、“解放篇”、“建国篇”、“成就篇”六个部分。所展陈的报纸260余种，整个展览配有图文、内涵丰富，非常具有历史意义。苏中七战七捷纪念馆是全国爱国主义教育基地，是旅游经典景区之一，将建筑艺术、书法艺术、园林艺术与革命历史、旅游资源完美结合，在苏中七战七捷纪念馆，老干部们参观了纪念馆珍藏的数百件革命文物史料。韩国钧是著名的爱国人士，韩国钧故居也叫韩公馆，是全国3A级景区，是一组保存完好的晚清建筑群。海安县博物馆位列其中。东部家具城占地13平方公里，有材料市场交易区、家具市场区、家具创意产业园、家具博物馆等板块，是现代家具的产业基地。此次参观考察，既有历史文化景点，又有现代产业基地，老干部们认为很有意义。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>74</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>安徽省舒城县来如考察学习城市管理工作</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2018-04-28</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/9625fab3-1f50-46b1-8c52-350f8f18651b_rg.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['4月25日，安徽省舒城县人民政府刘浦生副县长一行13人来如皋市考察学习城市管理的先进做法和成功经验。如皋市政府黄文斌副市长陪同考察。', '在座谈会上，副市长黄文斌简要介绍了如皋概况、我市城市管理相关情况，市级相关部门详细交流了如皋城市综合管理委员会运行机制、文明劝导员的设置管理、城市建设的规划协调、渣土及物业管理等方面经验做法。双方还就环境治理、生态建设、污染防治工作进行了深入交流。随后，考察组踏勘了市区城市管理示范路、数字化城市管理系统平台、示范物业管理项目、建筑垃圾资源化利用设施设备等，实地了解市容秩序、环境卫生等方面的具体情况，并给予充分肯定。', '舒城县副县长刘浦生表示，如皋在城市管理的理念先进、经验充足，值得借鉴学习，舒城县会将“如皋经验”带回去，推动舒城县城市管理转型升级；同时也希望两市今后能进一步加强交流与沟通，共同开拓城市管理新局面。（王健）']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>74</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>海门司法局赴无锡滨湖锡山考察学习</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-95DD-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['4月17日，海门市司法局副局长马建平、海门市基层法律工作者协会会长张冲带队赴无锡滨湖、锡山考察学习公共法律服务和基层基础建设工作。', '考察团实地参观了无锡市滨湖区公共法律服务中心、华宇法律服务所和惠山区玉祺街道、惠邦法律服务所，与无锡的司法行政同仁和基层法律服务同行就公共法律服务、司法所和基层法律服务所标准化建设中的一些经验和做法进行了交流，着重探讨了村（社区）公共法律服务全覆盖提档升级的目标和途径。双方表示两地在司法行政标准化建设中均探索出了很多切实可行的经验做法，今后应当加强交流学习，互通有无，将司法行政工作做实、做精。', '此次考察是海门市司法局公共法律服务提质增效和法律服务所标准化建设跨越式发展的重要举措，旨在对标找差，补齐短板，以新理念、新思路、新载体、新方法、新机制，确保海门司法行政各项工作始终处于全省第一方阵，更好地为海门经济社会高质量发展提供质优高效的法律服务。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>74</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>五莲县政协来海考察学习</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2018-05-17</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/A9AF0334605F4518949135F64DF693E7.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['月15日，山东省五莲县政协副主席陈加宏一行来我县考察学习国企军企央企融合发展、智慧招商、特色园区建设等方面经验和做法。县政协副主席周于红，县政协经科委、县招商局、高新区负责人参加活动。', '陈加宏一行先后参观了我县铁锚集团、圣德曼海安有限公司两家企业，对企业的产品和生产经营情况做了详细的了解。', '座谈会上，周于红副主席简要介绍了我县县情、区位优势、产业基础、投资环境以及开放型经济等方面情况。招商局副局长梅军对我县着力营造亲商安商富商的服务环境；聚合力量,全力打造一支懂政策、知产业、高情商的高素质专业招商队伍；构建“领导领衔招商、专业招商人员驻点招商、机关部门协同招商、中介组织委托招商、重点企业参与招商”的格局；大力实施智慧招商、精准招商等方面向客人做了详细介绍。', '陈加宏认为，海安招商引资氛围浓郁，政治生态环境良好，项目建设生机勃发，平台建设高端大气，招商举措注重实效，此次考察收获颇丰，五莲政协将积极借鉴和学习海安的先进经验和做法，推动本地经济更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>74</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>海安教育考察团赴宿迁市考察学习文明城市创建经验</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2018-04-12</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://jyj.nantong.gov.cn/ntsjyj/xsqyw/content/658a8c37-2eaf-47e0-9e6d-87fb1c39eacf.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['4月9日至10日，海安县委教育工委书记、局党组书记、局长汪宁率领县教育考察团一行40多人，赴宿迁市考察学习教育系统全国文明城市创建工作。', '考察团结合海安实际，针对海安教育系统创建工作中的薄弱环节，重点围绕校园氛围营造、特色活动开展、心理辅导室建设和乡村少年宫建设等方面，对宿城区埠子镇中心小学、宿迁市实验小学、宿迁学院附属学校、宿豫张家港实验小学、宿豫区青少年宫、未成年人成长指导中心和宿迁高新区中心小学文明城市工作的开展情况和特色亮点进行认真系统地学习考察和交流研讨。', '本次赴外考察，旨在集思广益，博采众长，认真学习借鉴、消化吸收创建经验，切实做好海安教育系统文明城市创建工作。下一步，海安教育系统创建工作将整体谋划、分步推进，分工合作、统筹推进，突出问题、专项突破，强化督查、有效推进。', '据悉，海安县自1999年获得江苏省文明城市创建工作先进城市以来，已连续六轮蝉联江苏省文明城市。经过2015至2017三年的持续努力，成功入围全国文明城市提名城市，拿到了争创全国文明城市的“入场券”。此次海安教育考察团的考察，是海安教育系统文明城市创建学习经验、博采众长的措施之一，为创建工作整体谋划奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>74</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>市支队赴常州开展考察学习</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2018-04-18</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://wgxj.nantong.gov.cn//ntswgxj/bmdt/content/a42d1fd5-c15f-4401-a4ee-2b380640eddb.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['为适应文化市场综合执法改革提出的“同城一支队伍”的目标，达到队伍、人员、思想、任务的“四个融合”，4月17日，南通市支队一行20余人，赴常州市文化市场综合执法支队进行考察学习,常州支队曾被文化和旅游部、省文化厅授予“深化文化市场综合执法改革的江苏范本”称号。', '此次考察学习，受到常州市文化市场综合执法支队领导层的高度重视并给予了热情接待。南通支队首先参观了常州支队内部的硬件设施，随后与常州支队领导、业务骨干进行了座谈交流。会上，常州姜海支队长介绍了常州文化市场综合执法改革的经验和信息化建设的做法。与会者观摩了常州“双随机管理系统”和“移动执法系统”的演示和操作。常州支队展示的“数据一个库、管理一张网、监管一条线、执法一个包”的全新监管执法理念，让与会者耳目一新。', '此次考察学习，为市支队下一步借鉴“常州模式”，做好南通文化市场综合执法改革和行政执法三项制度的各项工作拓展了工作思路。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>74</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>安徽省六安市来如考察学习</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2018-03-23</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/e6ae4482-0f39-4ec5-b0ee-8af18c87a804.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['3月21日，安徽省六安市城市管理行政执法局一行80人来如皋市考察学习城市管理和城市创建的先进做法和成功经验。如皋市政府党组成员万维庆陪同考察。', '在座谈会上，如皋市城管局简要介绍了如皋概况、城管局机构设置情况，详细交流了如皋在文明创建、城市管理综合执法改革、物业管理等方面经验和做法。随后，考察组踏勘了市区城市管理示范路、示范社区、示范物业管理项目、国际园艺城等处，实地了解市容秩序、环境卫生等方面的具体情况，并给予充分肯定。', '六安市城管局局长郭强表示，如皋在城市管理和城市创建方面的理念先进、经验充沛、措施有效，值得借鉴学习，六安城管局会将“如皋经验”带回去，推动六安城市管理转型升级；同时也希望两市城管部门今后能进一步加强交流与合作，实现互助共赢，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>74</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>兴国县政协来海考察学习</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2018-04-16</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/DF02E13452F84A19BD0D91972E7E343E.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['月12日，兴国县政协副主席谢庆兰一行来我县学习考察体育中心和文化艺术中心运营管理工作，县政协副主席周于红陪同。', '谢庆兰一行先后参观了我县体育中心和文化艺术中心，就体育中心和文化艺术中心的管理、规划布展、配套设施和运营情况等做了详细的了解。', '县教育局（体育局）副局长祝和娟、县文化艺术中心副主任李宝康分别介绍了我县体育中心和文化艺术中心两场馆整体运行、对社会开放、体育活动及文化活动开展等情况。考察团一行对我县两场馆的功能布局、地方特色文化展示、群众文化体育活动展演以及运用社会力量办体育、办文化的创新举措给予高度评价，并表示此行收获很大，开阔了思路，将认真学习和总结我县体育和文化中心运营管理的先进经验与做法，尽早推进兴国县两场馆投入运营。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>74</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>扬州市邗江区科技局来通州区考察学习科技创新工作</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2018-04-13</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://kjj.nantong.gov.cn//ntskjj/xsqdt/content/43d6dbaf-65c4-482c-babb-85c425d2a4cb.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['4月12日上午，邗江区科技局局长率邗江区科技系统一行13人专程到通州区考察学习科技体制改革、传统服装纺织领域高新技术企业培育和创新创业平台载体建设等方面的工作。 考察组一行参观了南通高新区江海智汇园、江苏产业技术研究院南通纺织丝绸研究所等平台载体，了解它们建设发展情况和运营模式。 随后通州区科技局与邗江区科技局进行了座谈交流。在座谈会上，通州区科技局负责同志介绍了该区科技创新推动产业转型发展情况。邗江区科技局考察组一行表示，本次考察学习为如何结合邗江区实际，高质量培育认定传统产业领域高新技术企业提供了好的思路和经验，达到了预期目的。希望学习借鉴通州区的成功经验和先进理念，推动邗江区高新技术企业培育和创新创业平台载体建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>74</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>海门城管赴海安如皋等地考察学习</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-C1DB-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['3月7日，海门城管一行6人奔赴海安、如皋、张家港三地的城管局进行了学习调研，进一步解放思想，更新观念，学习先进，查找不足。', '据了解，此次行程紧凑，考察人员马不停蹄利用两天时间通过实地看、听汇报、交流经验等方式，深入部分社区、街巷、市场、夜排挡、城郊结合部，实地查看了兄弟县市城市基础建设、市容环境卫生、交通秩序、集贸市场等方面的管理情况。', '考察人员表示：“它山之石可以攻玉，通过走出去学习，进一步明确了我们在新形势下工作中存在的具体不足和兄弟县市的差距，大大刷新了我们的思想观念，拓展了视野和工作思路，为我们在今后的城市管理工作中重新找准定位提供了更准确的依据，更好地实现我市城市管理的长效化、科学化发展。” （王 博）']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>74</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>盐城城管来海考察学习</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn//hmsrmzf/bmdt/content/71F310F9-C48D-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['1月10日，盐城市大丰区城市管理局相关领导来到海门城管局，就有机物处理中心运行的先进经验进行参观学习。', '座谈会上，海门城管局领导就我市有机物处理中心运行的方式、经费、人员配置及成本分析等方面作了详细的介绍。有机物处理中心整个处理过程由电脑自动化控制，在国内处于领先水平，实现了海门市区内粪便无害化处理，保护了自然环境，使人和自然更好的和谐共处。', '海门城管的做法让大丰区城管局的领导高度赞赏，他们表示，此次考察学习收获颇多、感触颇深，回去之后将认真学习、总结、梳理，把好的经验、好的做法消化吸收，并结合实际活学活用。（顾九胜）']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>74</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>靖江市城管局来如考察学习城市管理工作</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2018-03-06</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.rugao.gov.cn/rgsrmzf/bddt/content/3e7744a8-a323-41c1-b75b-088117878616_rg.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['市城管局局长何福平围绕市容管理、环境卫生、数字城管建设等方面，介绍了近年来我市城市管理工作的经验做法与长效管理措施，交流了油烟污染治理、渣土运输扬尘治理、星级公厕建设等重点工作，以及河道整治、背街小巷整治等城市环境综合整治重点项目。考察团先后参观了龙游河、宝塔河、东大街等区域，详细了解了各整治项目从前期规划到后期运营的具体情况。龙游河的碧水蓝天、东大街的古色古香、示范社区的崭新容颜，给考察团留下了深刻的印象。', '这次考察学习不仅是兄弟单位对近年来我市城市管理工作的肯定，更激励着市城管局在未来的城市管理工作中鼓劲前进。双方表示，今后将进一步加强学习，取长补短，共同促进城市管理水平再上新台阶。（洪小威）']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>74</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>我县党政代表团赴宜兴市考察学习考察过程中顾国标要求以宜兴为学习标杆全面实现海安又好又快发展</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2017-12-18</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/ttxw/content/6FFE1203C93B4475B068CACA85BD6E77.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['我县党政代表团赴宜兴市考察学习。考察过程中，顾国标要求以宜兴为学习标杆全面实现海安又好又快发展', '12月16日，县委书记顾国标，县委副书记、代县长于立忠带领我县党政代表团赴宜兴市考察学习。宜兴市委书记沈建介绍了宜兴基本情况、产业概况和经济社会发展情况。考察过程中，顾国标要求，以宜兴为标杆，深入学习宜兴市在推动经济社会全面发展方面的好经验、好做法，努力推动海安经济社会又好又快发展。县人大常委会主任周宗泉，县政协主席李春旺等县四套班子负责人参加考察活动。宜兴市委常委、常务副市长何晓进，市委常委裴焕良，市人大常委会副主任周斌，副市长储红飙，市政协副主席莫克明陪同参观。 代表团先后参观考察了宜兴国际环保展示中心、城乡公用事业一体化管理中心、龙背山森林公园、宜兴市规划展示馆、红牛维他命饮料（江苏）有限公司和宜兴市文化中心各场馆，深入了解了宜兴企业、园区、城市建设、社会事业等各方面工作情况。 宜兴国际环保展示中心定位为环保成果展示窗口、环保产业交易平台、环保科技推广枢纽、绿色环保教育基地和生态经济体验中心，着力打造我国环保产业对外发布及触摸国际环保潮流的“主秀场”。代表团先后参观了中心展示的各类先进环保技术。顾国标听取相关情况介绍后认为，环保产业是宜兴极具特色、全国知名的一大产业，中心集聚了各类最新的环保成果，诸多环保亮点让人大开眼界。 在宜兴市城乡公用事业一体化管理中心，顾国标了解了公用体系的管理和成效，重点了解了污水处理、城乡垃圾处置、环卫体系建设等情况。在宜兴市规划展示馆，代表团参观了展厅，观看了主题宣传片，了解了宜兴城市概况、布局、历史、产业等情况。顾国标认为，宜兴“三山两水五分田”的布局独具特色，陶瓷文化、茶道文化、竹文化博大精深，城市线条分外清晰。 走进红牛维他命饮料（江苏）有限公司，纤尘不染的车间内，从德国引进的6条高性能灌装生产线高速运转。得知这6条生产线年产30万吨红牛饮料后，代表团对公司的自动化生产能力啧啧称赞。顾国标认为，制造业就是要靠智能制造企业来支撑和壮大。他指出，海安要学习宜兴狠抓项目的一股精气神，进一步解放思想，坚持项目为王，加快经济发展。 在宜兴市文化中心，代表团先后参观了各类公共服务建筑。在听取了中心规划布展、配套设施等相关情况介绍后，顾国标认为，宜兴文化中心设计新颖、理念先进、功能完备，既是保护和展示宜兴悠久和厚重历史文化的优质载体，也是承载城市现代文明创新成果的重要平台。他指出，海安要认真吸取宜兴在发展文化产业方面的长处，努力在我县文化产业发展上下功夫。 顾国标说，宜兴经济发展、社会事业、民生保障等各方面工作亮点突出，此次参观考察，让海安看到了发展的差距和方向，找到了发展的标杆。他认为，宜兴始终追求卓越、永不满足，始终将实体经济作为发展的根基，坚守主业，将制造业作为立市之本。近年来，宜兴实现变被动的环境治理为主动的经济转型，形成了经济发展与生态文明的良性互动。同时，宜兴始终坚持共建共享发展战略，真正实现了经济社会全面协调可持续发展。 顾国标指出，近期，海安正在就明年各项工作进行密集调研，其中一个很重要的课题就是海安未来发展的定位问题。前期，海安通过深入调研，将“枢纽海安，物流天下”“产业高地，幸福之城”作为未来发展的一个具体目标。下一步，海安将深入消化吸收此次考察学习成果，以宜兴为学习标杆，开展全方位学习宜兴活动。顾国标要求各区镇、各相关部门虚心向宜兴学习，将宜兴的宝贵经验和海安实际相结合，研究提出更有针对性的具体举措，在更高起点上谋划好明年工作。 县领导盛慧琴、张亚曦、陈鹏军、张浩、卢忠平、储开泉、屈祖平、张忠宏、葛志祥、丁兴育、张为峰、孙巍、彭为杰、周于红、王怀，县人民法院院长任智峰，县人民检察院党组书记夏琪斌以及各区镇、相关部门、有关单位和专业园区负责人参加考察活动。（记者 梅丛婧）']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>74</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>我县党政代表团赴浙江省新昌县考察学习</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2017-12-17</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/tpxw/content/29116E0DA888431B9A80A05529A879FB.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['12月14日，县委书记顾国标，县委副书记、代县长于立忠带领我县党政代表团赴浙江省新昌县考察学习。考察过程中，顾国标要求，认真学习借鉴新昌县在推动科技创新方面的宝贵经验和先进举措，紧紧抓住科技创新“牛鼻子”，全面提升我县科技创新对经济发展的贡献率。县人大常委会主任周宗泉，县政协主席李春旺等县四套班子负责人参加考察活动。 当天下午，代表团参观考察了浙江新和成股份有限公司、日发纺机、三花控股集团有限公司、国家级轴承产品质量监督检验中心和浙江康立自控科技有限公司，了解了新昌县基本情况和企业科技创新工作开展情况。新昌县委副书记、政法委书记孙建焕，副县长裘武宏陪同参观。 浙江新和成股份有限公司既是国家级重点高新技术企业，也是全国最大的维生素类饲料添加剂生产企业。公司高度重视科技创新和人才引进，近三年来每年研发投入均占销售收入的5%以上。代表团参观了公司展厅、产品墙、研究院，听取了相关情况介绍。顾国标认为，企业发展壮大，靠的就是科技创新引领。新和成产品在细分市场领域走在世界前列，制定的各项人才激励政策既结合实际又推动发展，独具特色的企业“老师文化”，为创新发展营造了和谐向上的浓厚氛围。 在日发纺机，代表团参观了企业车间和产品展示厅，听取了相关情况介绍。该企业是国内享有高科技知名度和市场美誉度的纺织设备专业生产企业，与我县联发纺织、双弘纺织、华强纺织等企业长期保持着良好的合作关系。在无缝内衣机设备前，顾国标了解到，该设备自动化程度很高，无论在“互联网+”还是智能制造领域，均处于全国领先位置，他认为该设备科技含量高，设计上真正将创新元素融入生活，有力满足了个性化生产的需要。 在三花控股集团，代表团观摩了企业最新研发的一系列产品，重点了解了四通换向阀和汽车零部件最新产品。顾国标说，以“管理之花，科技之花，人才之花”为内涵，以制冷空调控制元器件产业为主业，三花集团实现销售近200亿元，这在行业内是非常了不起的。顾国标诚邀三花集团来海安考察，谋求发展，实现共赢。 在国家级轴承产品质量监督检验中心，代表团参观了该中心材料分析实验室和开放共享实验室。该中心是全国第二家国家级轴承产品质检中心，是国家质检总局首批在县级批准筹建的集检验、分析、标准、研发、培训于一体的综合性服务平台。顾国标认为，我县可以学习借鉴新昌县在公共服务平台建设方面的好经验、好做法。 在浙江康立自控科技有限公司，代表团参观了企业科技馆、研究院和自主研发的传感器、纺机控制系统等核心产品，了解了校企合作、员工数量、技术改造等情况。 在随后召开的座谈会上，新昌县委副书记、县长李宁介绍了该县科技创新工作情况。近年来，新昌县坚持走创新驱动发展之路，抢抓省级科技创新体制综合改革试点和全面创新试验区建设的重大机遇，以“创新强县”为引领，重抓政府服务、主体培育、平台建设、产学研协同创新和人才集聚，形成了“小县大科技”的工作模式，科技创新主要指标持续提升，2016年研发经费支出占GDP比重为4.29%，科技进步对经济增长的贡献率始终保持在70%以上。 顾国标说，新昌县在科技创新、人才引进、企业上市、生态文明建设等方面亮点频频。新昌县仅用11年时间（1991年到2002年）实现了从浙江省次贫县到全国百强县的跨越，是科技创新改变了新昌发展面貌。新昌县委、县政府狠抓创新，形成了真抓、实抓、持续抓的推进机制，同时支持企业做大做强，真正打通了从科技强到企业强、产业强的通道。新昌县通过科技创新，既使经济得到了快速发展，也使生态环境得到了显著改善，实现了经济发展与生态文明建设的双赢。 顾国标指出，海安和新昌同为省级科技创新体制综合改革试点地区，虽然分属江浙两省，区位、资源、产业各有特点，但两地推动科技创新、打造县域创新驱动发展示范地区的目标是一致的。前期，海安通过调研座谈，确定了未来全县科技创新的总体目标，就是围绕提高科技创新对经济发展的贡献率这个主题，以企业为主体，实施企业创新能力提升三年行动，打造全省县域创新驱动示范地区。海安将学习、借鉴新昌县在科技创新方面的好经验、好做法，将新昌经验与海安实际更好地结合，进一步深化科技创新体制综合改革试点工作，推进各类创新平台集聚发展，探索金融支持科技发展的有效途径，大力发展科技服务业，加快整合各类科技人才政策，加快推动全县科技创新工作不断迈上新台阶。 县领导盛慧琴、张亚曦、陈鹏军、张浩、卢忠平、储开泉、屈祖平、张忠宏、葛志祥、丁兴育、张为峰、彭为杰、周于红、王怀，县人民法院院长任智峰，县人民检察院党组书记夏琪斌以及各区镇、相关部门、有关单位和专业园区负责人参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>74</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>宿迁水务局来通州区考察学习河道整治工作</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2017-12-08</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/xsqyw/content/bfe0a55b-f5d7-4562-96d8-b58dc223412c.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['宿迁市水务局一行利用先后参观了二甲镇七甲河贯通工程、运盐河水文化广场、东社闸河长效管理、团结河治理等工程现场。观看了我区2015年、2016年的河道整治工作专题片，听取了通州区“三年河道整治工作行动计划（2015年~2017年）”的整体工作思路，并和二甲、东社等镇交流实际工作经验和问题处理措施等。宿迁市水务局对通州区河道整治工作所取得的成效给予高度赞赏，表示将积极学习先进理念，借鉴成功经验，因地制宜，整合思路，制定检查考核机制，推动当地的水环境改善再上新台阶。', '2015年以来，通州区全面实施农村河道整治三年行动计划。农村河道整治采取“整村推进，成片整治”的模式，以拆除坝头坝埂、新建桥涵、疏浚河道、整修河坡、清理“三网”、打捞沉船等为主要任务，打造了3个“水美乡镇”和22个“水美村庄”，建成60公里的生态河道和50公里的水生态廊道。河道整治成果接受了历年暴雨的考验，全区未产生大的洪涝灾害。持续改善的农村水环境，得到了人民群众的好评和各级领导的肯定。（通州区）']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>74</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>我县党政代表团赴浙江省安吉县考察学习</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2017-12-17</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/tpxw/content/D635A3DE32E54D5092909516893A8AC7.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['12月15日，县委书记顾国标，县委副书记、代县长于立忠带领我县党政代表团赴浙江省安吉县考察学习。考察过程中，顾国标要求，认真学习借鉴安吉县在美丽乡村建设方面的经验和做法，努力推进生态文明建设，走绿色发展之路，全力提升百姓幸福指数。县人大常委会主任周宗泉、县政协主席李春旺等县四套班子负责人参加考察活动。安吉县委副书记、政法委书记赵德清陪同参观。 当天下午，代表团先后参观了目莲坞自然村、蔓塘里自然村、余村村和天使小镇，听取了安吉县生态文明建设、美丽乡村建设情况介绍，实地了解了这些村村级发展、环境整治等工作开展情况。 走进目莲坞自然村，绿水青山尽入眼帘。“村里共有多少户村民？”“村民垃圾如何分类处理？”一路上，顾国标与镇、村干部进行交流，详细了解了该村人口数量、环境整治、垃圾处置、村庄经营等情况。顾国标对该村“垃圾不落地”的做法频频点赞，认为目莲坞自然村环境整治效果好，百姓环保意识强。他说，打造美丽乡村，环境治理是关键，“养成教育”很重要。漫步在村间小道，自然村每幢房屋的外墙上均绘有栩栩如生的3D画作。顾国标认为，用艺术创作的形式扮靓乡村环境，独具特色，亮点突出，这些画作与村里的实景浑然一体，构成了一道别样的风景。 去年，蔓塘里自然村结合创建“中国美丽乡村精品示范村”和“美丽宜居”项目，采取疏堵整治结合的模式，拆除违章搭建物，启动“五线”入地改造，同时编制了“拆后利用规划”，根据规划将拆除后的空地用于建设村庄道路、景观绿化和集中式茶叶加工厂。该村垃圾分类处置采用“早晚”两个固定时间上门收集，依靠村民自觉的集运模式，彻底告别了垃圾桶。顾国标详细了解了该村产业发展、乡村文化、常住人口、环境整治等情况，认为蔓塘里自然村精心规划，细心呵护，公共区域卫生设施很完善，乡村文化建设做得很到位，让人充分感受到绿色经济、生态经济和可持续发展理念带给乡村的实质性改变。顾国标指出，该村“五线”入地、垃圾分类处置等方面的好经验、好做法值得海安深入学习。 在天荒坪镇余村村，代表团先后参观了该村院士林、党建广场、数字电影院、习近平座谈会址、文化礼堂等处，观看了习近平总书记考察余村时关于“两山”重要思想讲话的珍贵视频。顾国标认为，余村从昔日普通的一个小乡村起步，依靠绿色经济和生态旅游打造新产业经济，在实践中将“绿水青山就是金山银山”化为生动的现实，这是非常了不起的。他指出，“绿水青山就是金山银山”的重要思想，强调了生态保护建设的优先论，秉持了尊重生态法则的大逻辑，表达了我们党大力推进生态文明建设的鲜明态度和坚定决心。顾国标要求我县认真学习借鉴安吉县生态文明建设的好经验和余村美丽乡村建设的好做法，全力推进我县生态文明建设和美丽乡村建设，牢固树立资源意识和生存意识，增强百姓的幸福感和获得感，努力打造一个“天蓝、地绿、水清”的“大美海安”。 在天使小镇，一座富有童话色彩的凯蒂猫摩天轮格外显目。这一小镇由安吉城投集团和浙江银润休闲旅游开发有限公司联合打造，以“动漫乐园、休闲之城”为主题。代表团先后参观了小镇城堡酒店、凯蒂猫家园，听取了解了特色小镇建设工作亮点和经验做法。顾国标认为，天使小镇特色鲜明、投入力度大，借助安吉优越的生态环境资源，打造了休闲旅游的一大亮点。他要求我县学习借鉴安吉县特色小镇建设经验，结合海安实际，科学规划，加快建设，全力提升我县特色小镇的核心竞争力。 县领导盛慧琴、张浩、卢忠平、储开泉、屈祖平、张忠宏、葛志祥、丁兴育、张为峰、彭为杰、周于红、王怀，县人民法院院长任智峰，县人民检察院党组书记夏琪斌以及各区镇、相关部门、有关单位和专业园区负责人参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>74</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>我县党政代表团赴浙江省新昌县考察学习考察过程中顾国标要求抓牢科技创新牛鼻子提升海安经济竞争力</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2017-12-15</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/ttxw/content/F4F36F2877974410A117F79505D95C64.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['我县党政代表团赴浙江省新昌县考察学习。考察过程中，顾国标要求抓牢科技创新“牛鼻子”提升海安经济竞争力', '12月14日，县委书记顾国标，县委副书记、代县长于立忠带领我县党政代表团赴浙江省新昌县考察学习。考察过程中，顾国标要求，认真学习借鉴新昌县在推动科技创新方面的宝贵经验和先进举措，紧紧抓住科技创新“牛鼻子”，全面提升我县科技创新对经济发展的贡献率。县人大常委会主任周宗泉，县政协主席李春旺等县四套班子负责人参加考察活动。 当天下午，代表团参观考察了浙江新和成股份有限公司、日发纺机、三花控股集团有限公司、国家级轴承产品质量监督检验中心和浙江康立自控科技有限公司，了解了新昌县基本情况和企业科技创新工作开展情况。新昌县委副书记、政法委书记孙建焕，副县长裘武宏陪同参观。 浙江新和成股份有限公司既是国家级重点高新技术企业，也是全国最大的维生素类饲料添加剂生产企业。公司高度重视科技创新和人才引进，近三年来每年研发投入均占销售收入的5%以上。代表团参观了公司展厅、产品墙、研究院，听取了相关情况介绍。顾国标认为，企业发展壮大，靠的就是科技创新引领。新和成产品在细分市场领域走在世界前列，制定的各项人才激励政策既结合实际又推动发展，独具特色的企业“老师文化”，为创新发展营造了和谐向上的浓厚氛围。 在日发纺机，代表团参观了企业车间和产品展示厅，听取了相关情况介绍。该企业是国内享有高科技知名度和市场美誉度的纺织设备专业生产企业，与我县联发纺织、双弘纺织、华强纺织等企业长期保持着良好的合作关系。在无缝内衣机设备前，顾国标了解到，该设备自动化程度很高，无论在“互联网+”还是智能制造领域，均处于全国领先位置，他认为该设备科技含量高，设计上真正将创新元素融入生活，有力满足了个性化生产的需要。 在三花控股集团，代表团观摩了企业最新研发的一系列产品，重点了解了四通换向阀和汽车零部件最新产品。顾国标说，以“管理之花，科技之花，人才之花”为内涵，以制冷空调控制元器件产业为主业，三花集团实现销售近200亿元，这在行业内是非常了不起的。顾国标诚邀三花集团来海安考察，谋求发展，实现共赢。 在国家级轴承产品质量监督检验中心，代表团参观了该中心材料分析实验室和开放共享实验室。该中心是全国第二家国家级轴承产品质检中心，是国家质检总局首批在县级批准筹建的集检验、分析、标准、研发、培训于一体的综合性服务平台。顾国标认为，我县可以学习借鉴新昌县在公共服务平台建设方面的好经验、好做法。 在浙江康立自控科技有限公司，代表团参观了企业科技馆、研究院和自主研发的传感器、纺机控制系统等核心产品，了解了校企合作、员工数量、技术改造等情况。 在随后召开的座谈会上，新昌县委副书记、县长李宁介绍了该县科技创新工作情况。近年来，新昌县坚持走创新驱动发展之路，抢抓省级科技创新体制综合改革试点和全面创新试验区建设的重大机遇，以“创新强县”为引领，重抓政府服务、主体培育、平台建设、产学研协同创新和人才集聚，形成了“小县大科技”的工作模式，科技创新主要指标持续提升，2016年研发经费支出占GDP比重为4.29%，科技进步对经济增长的贡献率始终保持在70%以上。 顾国标说，新昌县在科技创新、人才引进、企业上市、生态文明建设等方面亮点频频。新昌县仅用11年时间（1991年到2002年）实现了从浙江省次贫县到全国百强县的跨越，是科技创新改变了新昌发展面貌。新昌县委、县政府狠抓创新，形成了真抓、实抓、持续抓的推进机制，同时支持企业做大做强，真正打通了从科技强到企业强、产业强的通道。新昌县通过科技创新，既使经济得到了快速发展，也使生态环境得到了显著改善，实现了经济发展与生态文明建设的双赢。 顾国标指出，海安和新昌同为省级科技创新体制综合改革试点地区，虽然分属江浙两省，区位、资源、产业各有特点，但两地推动科技创新、打造县域创新驱动发展示范地区的目标是一致的。前期，海安通过调研座谈，确定了未来全县科技创新的总体目标，就是围绕提高科技创新对经济发展的贡献率这个主题，以企业为主体，实施企业创新能力提升三年行动，打造全省县域创新驱动示范地区。海安将学习、借鉴新昌县在科技创新方面的好经验、好做法，将新昌经验与海安实际更好地结合，进一步深化科技创新体制综合改革试点工作，推进各类创新平台集聚发展，探索金融支持科技发展的有效途径，大力发展科技服务业，加快整合各类科技人才政策，加快推动全县科技创新工作不断迈上新台阶。 县领导盛慧琴、张亚曦、陈鹏军、张浩、卢忠平、储开泉、屈祖平、张忠宏、葛志祥、丁兴育、张为峰、彭为杰、周于红、王怀，县人民法院院长任智峰，县人民检察院党组书记夏琪斌以及各区镇、相关部门、有关单位和专业园区负责人参加考察活动。（记者 梅丛婧）']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>74</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>我局赴连云港无锡考察学习机关大院安全保卫工作</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2017-11-28</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://jgsw.nantong.gov.cn//ntsjgswj/swgl/content/76a834de-8222-46d4-8e8c-5c1ff64b72c3.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['根据南通市崇川区反恐办对市行政中心的安全防范建议和局领导批示要求，11月23日至24日，我局会同财政、公安、安保等相关人员赴连云港、无锡市行政中心进行学习调研。', '两市机关事务管理局负责同志从制度管理、队伍建设、运转保障、群体性事件处置、停车情况等方面进行了详细介绍。实地察看了两市行政中心监控、停车、消防设施设备等情况。', '通过学习、交流，我们深刻体会到，两市高度重视行政中心安全防范工作，各项工作高位推动，两市均成立了专门负责行政中心外围警戒、处突的派出所，监控无盲区、全覆盖，清晰度较高，了解了两市行政中心在创新、创优方面的先进做法和成功经验。针对存在的差距，我局下一步将结合实际情况，进一步增强安全防范意识，完善人防、技防、物防、设施防建设，并积极协调公安部门，创新服务举措，全力推进三个中心平安建设。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>74</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>顾国标率队赴南通国盛智能科技集团考察学习要求我县企业持续推进科技创新</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2017-11-08</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/71E49BCAF4C3452E8348C5FF11DB0A58.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['11月3日，县委书记顾国标带领我县部分企业负责人赴南通国盛智能科技集团考察学习。县委常委、副县长卢忠平以及县发改委、县上市办负责人参加活动。', '顾国标一行深入企业生产一线，参观了解了企业文化、内部管理、产品研发、市场销售等情况，对企业发展中的相关做法表示赞赏。他指出，当前企业发展正处在一个全新的变革时代，不仅需要在管理上进行变革，更需要在转型升级、技术创新等方面有革新、有突破。他要求我县企业负责人不断增强社会责任感，努力做有社会担当的企业家，将主业不断做大做强。要认真贯彻落实十九大报告中关于发展实体经济的各项具体要求，坚持将科技创新放在首位，加快技术、产品、管理等各方面创新，努力在细分市场领域提升企业核心竞争力，以现代化企业标准，严格加强企业管理。各区镇、各部门要群策群力，以“店小二”精神做好企业服务工作，完善相关工作机制，真正做到了解企业动态、解决企业困难、服务企业发展。', '座谈会上，南通国盛智能科技集团董事长潘卫国详细介绍了企业管理、市场开拓等方面做法。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>74</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>宿迁市来我市考察学习城乡生活垃圾分类工作</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2017-11-13</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/cdaa9060-2b6d-4d2a-a76e-cce786f536c5.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['11月10日，宿迁市政府副秘书长王永、市城管局局长刘江一行来我市考察城乡生活垃圾分类工作，现场考察学习了我市建筑垃圾处置中心和绿城玉兰公寓生活垃圾分类工作，然后进行了座谈。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>74</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>伊宁县来我县考察学习现代农业</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2017-09-27</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/E629DBD3985F4B6D9EC98E9AB9098B55.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['走进中洋河豚庄园，一个个工厂化养殖池塘映入眼帘，里面饲养着河豚、中华鲟、扬子鳄等国内外', '主题，坚持走现代化生态农业之路，将生态农业示范园的开发与农业休闲观光主题充分结合。', '随后考察组一行来到江苏天成科技集团下属的天成牧园生态农场，听取了企业负责人关于农场生产情况的介绍，并通过物联网大屏幕查看牧场自动化饲养管理情况，当看到一栋鸡舍', '近年来，我县大力实施“五大产业”行动计划，重点支持发展水产、禽蛋、蔬菜、蚕桑、优质稻米五大优势产业', '力。通过参观考察，考察组认为我县现代农业产业发展特色鲜明、种养殖设施先进、科技创新氛围浓厚，对我县农业“五大产业”发展战略表示肯定，并希望与海安进一步加强沟通交流，共享农业供给侧结构性改革和培育新业态、新动能方面的经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>74</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>如东县城管局赴海安县城管局考察学习渣土管理工作经验</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/4624b4f4-dac1-4366-b932-ec9e92c50799.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['9月21日上午，如东县城管局执法大队副大队长王兴一行4人到海安县城管局执法大队考察学习渣土管理工作经验。海安县城管局执法大队教导员韩东利等相关负责人参加活动。', '交流会上，韩东利对海安城管渣土管理上的源头管控、与公安等部门联动整治、通联单制度等执法管理举措进行了详细介绍。', '交流会后，如东城管一行到图书馆、华新一品三期工地就工地内部如何管理进行了现场学习。', '如东县城管局一行人表示，希望通过这次考察学习，把海安先进的渣土管理经验与做法带回去，为如东县下一步的渣土管理工作提供重要参考。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>74</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>勉县教育体育局来海考察学习</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2017-09-22</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-95AF-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['9月18日至21日，勉县教育体育局党组书记、局长陈有志率领县教体局班子主要成员、教育系统骨干，来海学习考察。市教育工委书记、教育局党组书记、局长许新海，市政协副主席、副局长黄永成，教育督导室主任、教育局党组副书记、副局长俞兆新，教师研修中心主任、教育局副局长朱国兴，教育局副局长倪强，新教育培训中心主任吴勇、副主任王领琴分别陪同考察并主持座谈会。', '考察学习期间，陈有志一行先后考察海门市中小学教育、幼儿教育、民办教育、职业教育、教育科技创新、教育产业孵化等方面内容。在21日召开的座谈会上，双方立足各自实际，针对“共创教师培训基地、共建课程开发平台、共办教育交流论坛、共促两地学校合作”等方面的事项进行了深入交流，达成了两市教育交流合作的初步意向，为尽快完善两地扶贫协作总体方案，明确具体细则奠定了坚实的基础。', '许新海局长详细介绍我市教育情况后，以“新教育项目”为切入点，深入破解两地对口帮扶难题。他指出：对口帮扶要以新教育项目为依托，遴选一批有兴趣、有想法的教师、学校先行试点，通过“送教上门”、“到场学习”等多种形式，推进新教育实验在勉县生根结果，争取在2018年暑期正式加入新教育试验区。', '会议最后，陈有志局长感慨到：来海门考察的这些天，深刻感受到海门人的热情包容，深刻领悟到“江海文化”的厚重韵味，深刻认识到“优先发展教育”的本质内涵。海门不愧是教育改革的领头雁，不愧是教育质量的排头兵，不愧是新教育实验的策源地。此行开了眼界，活了思路，添了信心，海门教育的成功经验，将帮助我们少走弯路，回去以后我们将充分学习借鉴。', '随后，陈有志局长代表勉县教体局赠送了极具陕南风情的书法字画，并诚挚地邀请许局长一行来勉县指导、交流。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>74</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>市人力资源服务中心赴泰州考察学习</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>https://rsj.nantong.gov.cn/ntsrsj/bdxw/content/BBD758FACE5E4C678C064053CA4FA92D.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['月30日下午，市人力资源服务中心主任周晓东带领中心相关人员赴泰州市新建的人力资源市场考察学习。泰州市人社局宋晓群主任和相关负责人热情接待了我们，并精心安排了此次参观学习活动。', '期间，周晓东介绍了南通人力资源大厦的建设情况和下一步将要开展的工作，表示希望学习借鉴泰州新市场建设方面的先进经验，详细了解建设标准、依据以及工程造价等相关情况。泰州市人社局宋晓群就新市场的建设背景、现有服务面积、服务对象、服务范围以及工程总造价与我们作了交流，特别提到，在建设中他们严格执行', '和《社会保障服务中心设施设备要求》的相关标准和要求。宋晓群等相关负责人还陪同考察组参观了新市场，对于市场各个功能区域，详细说明了功能区域所承担的服务内容及相关配套设施。', '通过本次考察学习，我们进一步认识到南通人力资源大厦合理规划、科学设计的重要性和必要性，要在以人为本、提高服务质量的工作理念指导下，运用现代信息技术，创新人力资源新模式，努力建成高水平、高质量的智慧型人力资源市场。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>74</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>如皋市城管局赴溧阳考察学习城市管理工作经验</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://cgj.nantong.gov.cn//ntscgj/bmdt/content/c92859ca-61bc-4182-94fb-8171503daf80.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['8月29日，如皋市城管局局长何福平带领局相关领导和科室负责人一行10人赴溧阳实地考察，学习了溧阳市城管局全国文明城市创建的先进做法与经验。', '考察组先后来到了丁园广场、花园排档、二实小公厕等点位，实地学习了溧阳市城市基础建设、市容秩序管理、环境卫生管理以及志愿服务活动等工作。在随后召开的交流会上，双方就文明城市创建亮点、城市管理攻克难点、城市管理常态长效等方面的经验做法进行了深入交流，尤其是在人行道板建设、出店经营、小广告清理、背街里巷保洁等方面，溧阳城管局提出了独特的见解和实践经验，给考察组留下了深刻印象。', '如皋城管局局长何福平表示，溧阳市的创建思路清晰，创建过程规范，基础工作扎实，特别是一把笤帚扫到底、一把刷子刷到底、一个轮子滚到底、一个标准管到底的“四个一”工作机制值得借鉴学习，并表示将认真总结此次考察学习内容，拓宽思路、对标找差，将学习到的先进经验和优秀做法验运用到我市城市管理工作中去，推动我市城市管理和创建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>74</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>陕西汉中团市委书记徐红菊在叠石桥国际家纺城考察学习</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2017-08-14</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310F9-B2CB-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['2017年8月12日，陕西汉中团市委书记徐红菊率勉县团委书记王勃等一行专程在海门工业园区叠石桥国际家纺城考察学习。徐红菊等一行实地参观了中国家纺博物馆，现场观摩了叠石桥国际家纺城核心交易区精品家纺展区。海门工业园区党群部以及市场管委会相关科室负责人陪同调研与参观考察。考察期间，双方还就进一步组织两地企业加强交流合作进行探讨。', '此次汉中团市委组织来海专题考察调研是继2017年上半年陕西汉中省委党校中青班、党政代表团之后再次专题考察和调研学习，主要就海门针对汉中勉县县域经济与产业帮扶开展深入结对工作。（海门工业园区）']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>74</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>县领导带队赴上海考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2017-08-16</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/zqdt/content/B44313DF92C44E25B047975E98DD1C79.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['为加快我县美丽乡村、水美乡镇建设步伐，学习和借鉴其他先进地区的成功经验，推进创建工作目标圆满完成。12日，县委副书记成宾带领县农委和大公镇相关负责人赴上海青浦区朱家角镇参观学习“美丽乡村”、“水美乡村”建设工作，对接产业合作，开展农业招商、洽谈观光项目。', '成宾一行在朱家角镇负责人陪同下，首先参观了全国最美休闲乡村、全国生态文化示范村、上海市“美丽乡村”示范村张马村的村容村貌，详细考察了张马村辖区内的民俗休闲园、太阳岛国际生态园、寻梦观光园等。观看了张马村创建美丽乡村的宣传片，详细了解张马村在村规民约、“五违四必”的先进工作方法，以及他们成功创建美丽乡村的经验，并深入了解村庄的规划布局、村庄改造、环境整治、清水工程、污水治理、推进河长制等工作情况，亲身感受了张马村建设美丽乡村的良好氛围，耳闻目睹了美丽乡村建设带来的巨大变化。', '成宾表示：通过考察学习，我们看到了张马村美丽乡村建设的新思路、新举措，开阔了视野，对照先进找差距，立足海安实际，把张马村成功的经验和做法运用到海安创建优美乡村和水美乡村工作中去。', '成宾一行还考察了位于青浦区的枇杷生态观光园和位于闵行区的特种观赏鱼项目，深有感触；他说，参观了两个农业观光项目很是震撼，开拓了眼界，坚定海安主动对接上海的信心和决心。成宾介绍了海安“服务大上海、建设北大门”的思路、举措、优势和政策以及海安农业现代化水平、农业品牌、鼓励发展的农业产业。成宾还诚挚邀请朱家角镇和上海企业到海安（大公）考察投资环境、开展产业对接、加强项目合作、寻求共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>74</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>市国有置业集团赴江苏大剧院和南京保利大剧院考察学习</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2017-08-21</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://gzw.nantong.gov.cn//ntsgzw/bmdt/content/5e15ef05-6113-46eb-b290-fc3986f18369.html</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['近日，市国有置业集团考察组专程赴南京考察江苏大剧院和南京保利大剧院两个项目，了解基本情况、学习先进经验，为集团即将承建的南通大剧院的建设和运营积极做准备。', '考察过程中，江苏大剧院和南京保利大剧院的有关负责同志详细介绍了项目的基本情况、投资模式、运营模式和建设情况等，对置业集团建设南通大剧院起到了很好的启发和参考作用。', '据悉，江苏大剧院位于南京市建邺区河西新城文体轴线西段、南京奥体中心以西，是中国最大的现代化大剧院，亚洲最大的剧院综合体。占地面积约20万平方米，建筑总面积27万平方米，是江苏省境内最大的文化工程，被定为"世界级艺术作品的展示平台、国际性艺术活动的交流平台、公益性艺术教育的推广平台。满足歌剧、舞剧、话剧、戏曲、交响乐、曲艺和大型综艺演出功能需要，具备接待世界一流艺术表演团体演出的条件和能力;也是公众的文化活动场所。', '南京保利大剧院是南京国际青年文化中心的核心组成部分。由著名结构主义设计大师扎哈·哈迪德设计，可满足大型歌剧、舞剧、交响音乐会、芭蕾、话剧、音乐剧、戏曲等演出需要，具备接待国内外优秀艺术团体演出的能力，可以面向市场接待各类型的大中型演出，是南京市重要的文化窗口。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>74</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>陕西汉中工信委主任吴宝华带队在海门工业园区叠石桥国际家纺城考察学习</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2017-07-12</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310F9-A34F-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['2017年7月11日，陕西汉中工信委（国资委、中小企业局）主任吴宝华率国资办主任袁玫、副调研员杨双武、中小企业科科长李斌、工业科科长时夏辉等一行10余人在南通市经信委中小企业局副局长施鹤滨等陪同下专程在海门工业园区叠石桥国际家纺城考察学习。海门市人民政府党组成员成建平、海门市发改委副主任刘宇江、海门工业园区党工委委员、叠石桥市场管委会副主任顾兴宝等热情接待并陪同考察与座谈交流。', '座谈交流中，成建平代表海门市委市政府对吴宝华等陕西汉中工信委考察团一行表示热烈欢迎；顾兴宝向吴宝华等介绍了海门叠石桥家纺产业和市场转型升级探索实践相关情况。吴宝华、袁枚等简要介绍了汉中经济社会建设、中小企业发展，希望海门叠石桥加强与汉中多方面产业对接，帮助勉县等地区域经济创新发展。', '陕西汉中是南通结对帮扶友好城市，之前先后相继有多批次党政代表团、县处级省委党校班等考察团到访海门叠石桥，叠石桥家纺产业是传统产业的特色富民产业，与汉中地区蚕丝、缫丝业以及纺织产业具有一定的契合度，双方加强交流合作，可以实现互惠互利、共同发展。', '在海期间，吴宝华等陕西汉中工信委考察团一行现场参观了叠石桥家纺博物馆，实地观摩了叠石桥国际家纺城核心交易区精品家纺展销区。（海门工业园区）']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>74</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>海门市文广新局考察学习二胡之乡无锡梅村</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2017-06-22</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-BA7D-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['为更好地创建琵琶音乐创作研究基地，近日，海门市文广新局副局长徐叶飞一行三人赴无锡梅村考察学习文化小镇及二胡基地建设。', '梅村具有3300多年的悠久历史。1965年，梅村开始兴办民族乐器厂，开启了制作二胡的历史。梅村二胡享誉全国乃至东南亚，在全国二胡制作行业有着举足轻重的地位，被中国音乐家协会授予“中国二胡之乡”。', '海门是琵琶演奏大师沈肇州的故乡，与琵琶颇有渊源。2014年，中国音乐“小金钟”奖——首届沈肇州杯全国青少年琵琶比赛在海门举办，通过全国青少年琵琶选手来海集中展示，为我国琵琶演奏领域选拔储备了一批优秀的后备人才，进一步增强了文化软实力和对外美誉度。', '建成后的琵琶音乐创作研究基地将在中国音协的直接领导下，以时代进步与文化繁荣为宗旨，致力于我国琵琶音乐创作的理论研究、学术交流、国内外合作和咨询服务。组织国内外知名音乐家（词曲作家、演奏家）以及汇聚有志于民族音乐事业传播发展的专门人才，通过名家采风、创作、培训、交流、展演、比赛及推介等形式将我市的文化旅游业、演艺产业有机加以整合。搭建起一个琵琶音乐文化与江海文化资源相互融合的崭新平台，全面提升海门市江海特色现代文明花园城市的知名度和美誉度。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>74</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>南通市委老干部局领导到悦来镇东方教育装备创新产业城考察学习</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310F9-CD2D-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['4月26日，南通市委老干部局副局长施平、局长助理徐训友带领原南通市各委办局的县处级退休干部130余人来到悦来镇东方教育装备创新产业城（以下简称东教城），就特色小镇建设进行专题考察学习。', '老领导们认真听取了东教城关于产品运营、建设规划等方面的情况介绍。随后，在讲解员的带领下，老领导们逐一参观了东教城不同展区的各个教室，并亲身体验了3D打印技术、智能机器人、木板拓印、创意搭建等课程。', '参观结束时，老领导们纷纷表示对此次考察学习印象深刻，对悦来镇特色小镇建设项目——教育装备产业的发展前景十分看好，东教城的现代教育理念、技术及装备颠覆了他们传统的教育观念，有大开眼界的感觉。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>74</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>新沂市委组织统战系统来海考察学习</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2017-04-28</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/bmdt/content/D02C15846BE04086861E919761971098.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['28日，新沂市委常委、组织部部长、统战部部长张民一行40多人来海，考察学习我县组织、统战工作。考察组实地观摩了曲塘镇胡庄村、开发区科创园、高新区新陵办事处等基层党建、人才工作、统战工作现场；听取了我县组织、统战工作介绍，并围绕相关典型做法和先进经验进行座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>74</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>海门市档案局赴昆山市档案局考察学习</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-8145-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['3月1日，海门市档案局以及海门市信息中心等一行人在梁建局长的带领下，到昆山市档案局考察学习数字（智慧）档案馆创建工作。', '昆山市档案局蔡坤泉局长就昆山档案工作的经验和做法，创建智慧档案馆的工作部署，智慧档案馆管理系统的开发等问题作了详细介绍。同时，双方主要就智慧档案馆硬件、软件平台建设等情况进行了深入的交流、探讨。最后，参观了昆山市档案馆新馆，查看了机房和查档大厅等部位。', '海门市档案局梁建局长表示，昆山市档案局在智慧档案馆建设方面取得的成绩非常值得学习，此次考察学习收获颇丰，希望今后进一步加强相互之间的沟通与联系，促进两地档案工作共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>74</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>我市赴泰州考察学习省级水利风景区创建工作</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://slj.nantong.gov.cn//ntslj/bmdt/content/e1eb9e17-4850-45c3-af78-37e890552735.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['２月２０日，南通市水利局陆建平副局长带领市水利工程管理站、启东市水务局、如东县水利局、启东圆陀角旅游度假区管委会、如东小洋口旅游度假区管委会相关人员，赴泰州市考察学习省级水利风景区创建工作。', '考察组一行先后参观了泰州秋雪湖水利风景区、李中水上森林水利风景区现场，认真听取了管理单位在水利风景区打造和创建过程中的宝贵经验。双方交流了创建的基本情况，景区管理单位对我市在水利风景区创建过程中的疑惑逐一进行答疑。', '为加强水生态文明建设，弘扬水文化。今年我市将重点打造如东小洋口旅游度假区和启东圆陀角旅游度假区为省级水利风景区，此次考察学习为我市下阶段水利风景区创建工作指明了方向，理清了工作思路，明确了工作重点。下一步，我局将细化举措，倒排时序，铆足干劲，全力以赴确保完成年度创建任务。（工管站 陈敏）']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>74</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>福州安庆两市人社部门来通考察学习照护保险制度</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2017-04-01</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>https://rsj.nantong.gov.cn/ntsrsj/bdxw/content/A3ACD2265E8C40C98CEDD0E4DFB9702A.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['月30日上午，福州市财政局、医保局、医保中心相关负责人，安庆市人社局、医保中心、安庆市第二人民医院等相关负责人来通考察学习照护保险制度。', '座谈会上，顾忠贤副局长向两市考察学习人员介绍了我市照护保险制度的筹备过程。他指出，与财政、民政、卫计一同开展调研情况，设计建立一个全覆盖、保基本、可持续、待遇逐步提高且与医疗保险相对独立又有联系、以生活照料为主、医疗护理为辅为理念的全新社会保险制度，号称“第六险”，重点在于减轻失能人员的个人和家庭负担等相关情况。', '市局医保处、医保中心、鉴定中心的相关人员就考察组提出的保险公司招标细则、筹资标准确定、居家照护享受待遇等问题进行了广泛而深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>74</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>我镇外出考察学习法治文化建设</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2017-03-24</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://www.haian.gov.cn/hasrmzf/zqdt/content/A679A05E3A144CB4948F4B2589D7A3AC.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['为加快推进大公镇法治文化建设，近日，在县司法局法宣科副科长张媛媛的带领下，镇党委副书记、镇长刘成亮，党委副书记杨睿一行13人，先后到张家港、常熟、苏州、南通等地考察学习法治文化建设。', '县司法局法宣科副科长张媛媛的带领下，镇党委副书记、镇长刘成亮，党委副书记杨睿一行13人，先后到张家港、常熟、苏州、南通等地考察学习法治文化建设。', '考察团一行在张家港参观了七里庙法治文化走廊、张家港市法治文化主题公园和张家港市杨舍老街法治文化街，在常熟参观了常熟法治雕塑公园和法治文化街，在苏州参观了苏州市广济法治文化公园，在南通参观了', '市法制宣传教育中心暨崇川区青少年法治实践基地，学习了各地法治主题公园、法治文化街、青少年法治基地等法治文化阵地建设方面取得的成功经验。', '此次参观学习，不但学习了周边地区普法工作的先进做法，更拓宽了普法宣传教育工作思路。下一步，我镇将整合各有关部门和社会各方面的力量，大力开展法治文化建设，着力打造具有大公特色的法治文化阵地。']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>74</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>悦来镇启文村组织村干部赴四甲镇考察学习</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2017-02-09</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310FA-3329-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['为了更好地发展集体经济，打造“一村一品”项目，2月9日上午，悦来镇启文村全体班子成员在村党总支书记虞卫燕的带领下，奔赴四甲镇头桥村悦菲现代农业发展有限公司进行考察学习。', '在悦菲公司，一行人实地参观了其名下的农康粮食烘干中心，听取了四甲镇头桥村党支部书记李志强对公司起步、发展的情况介绍，并参观了公司的了烘干机、燃烧炉、空压机、提升机等，体验了机械化操作的先进性。参观过程中，虞卫燕向李志强介绍了启文村打造“一村一品”项目的想法，李志强给予了肯定，逐条分析想法中存在的问题，并提出了自己的观点，在发展过程中要紧跟上级文件规定，在用地、建房、资金等方面进行全面考虑。', '启文村班子成员表示，将认真借鉴学习四甲镇头桥村悦菲现代农业发展有限公司的发展思路，同时结合启文村的实际情况进一步创新，找准适合自身发展的方向，将“一村一品”项目作为本村特色产业进行打造，大力发展集体经济，造福启文村村民。']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>74</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>南京浦口区妇联到海门考察学习</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2016-11-14</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn//hmsrmzf/bmdt/content/71F310FA-0E2F-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['11月11日，南京浦口区妇联副主席汪皓月率队来我市考察，高度赞许海门妇联妇儿权益维护和保障工作。我市妇联领导姜敏、陆剑红等参加活动。', '浦口区妇联考察团先后考察了厂南村“老舅妈”调解工作室、海南社区“妇女儿童”之家及“慧芳老舅妈”个人调解室等工作现场，听取了江苏联佑律师事务所关于“绿色阳光助你行——妇女儿童权益护航行动”的妇女维权法律服务项目实施情况介绍。王皓月说，这次到海门来就是要学习海门妇联的成功经验，参观后深受启发，海门妇女维权工作的成功经验值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>74</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>安徽省合肥市社来南通考察学习</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2016-12-15</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/e8405b9a-24a5-4f1b-9bca-c927496ea453.html</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['近日，安徽省合肥市供销合作社联合社调研员王东，副调研员夏海涛、金维远等一行6人来南通考察学习农合联组织建设做法及为农服务工作开展情况。', '在南通市社党组成员、副主任张金华陪同下，王东一行先后实地参观了港闸区幸福中心农贸菜市场、南通中农物流公司、南通农副产品物流中心等，观看了专题宣传片，并交流了两地供销合作社为农服务做法成效。王东一行表示，此次南通考察耳目一新，倍受震撼，对南通市社近年来敢于作为、主动作为、善于作为的经验做法高度认同，希望今后双方能够继续加强交流和沟通，相互学习、相互借鉴、相互促进，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>74</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>扬中市政务服务中心来海考察学习</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2016-10-18</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310FA-4B35-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['10月17日下午。扬中市政务服务中心副主任徐剑一行来市政务服务中心考察学习，中心党副主任王剑飞等陪同。考察团此行主要考察学习政务服务中心建筑功能分配、行政审批窗口布局、硬件设施以及建设投资等相关情况。最后，双方就相互关心的相对集中行政许可改革、政务服务标准化建设、窗口管理等问题进行了热情交流。']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>74</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>陕西宝鸡市社来我社考察学习</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2016-11-07</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>http://ntcoop.nantong.gov.cn//ntgxhzs/bmdt/content/a89d0a7b-69a2-49f9-a203-9008753cf841.html</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['10月13日，陕西省宝鸡市供销合作社副主任杜铁军一行6人来通考察学习，南通市总社党组成员、主任助理刘明辉陪同考察。', '考察团先后实地考察了南通中农物流有限公司、南通棉花机械有限公司、南通农副产品物流中心。通过实地参观、观看专题宣传片、面对面交流等形式，考察团成员亲身感受到了南通市总社在综合改革中取得的显著成绩和社有企业蓬勃发展的朝气，并给予了高度评价。考察团一致认为南通市总社在综合改革中的成功做法和有益经验是可学可复制的，在今后的工作中两地供销社将在探索如何深化改革、解决发展难题、信用合作、流通等方面进一步加强交流，共同促进发展。']</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A212" t="n">
+        <v>74</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>新疆伊宁县人大代表政协委员来如考察学习</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2016-11-13</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/4129C50BB15B46A7E050007F01003210.html</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>['11日，新疆伊宁县政协党组成员、副主席吐合提艾力·尼扎木东带领伊宁县人大代表、政协委员一行20人，来我县考察学习纺织服装产业发展经验。', '吐合提艾力·尼扎木东一行首先来到江苏世纪燎原针织有限公司，实地参观了实验室、平缝车间、缝合车间等生产车间，公司负责人详细介绍了针织衣物的原料、生产过程、工艺技术等情况，在看完针织制品的样品，并得知公司已在缅甸设厂时，吐合提艾力·尼扎木东一行竖起了大拇指，对企业的发展给予了高度赞扬。在南通大东有限公司，吐合提艾力·尼扎木东一行详细了解了毛巾的生产流程、设备、工艺及品种，并就企业的精细化管理模式与公司负责人进行了探讨，当得知公司今年销售预计达4.5亿元，10多名越南大学生在这里跟班学习时，吐合提艾力·尼扎木东一行表示如东纺织服装业发展名不虚传，将把公司的经验做法带回去认真学习。随后，吐合提艾力·尼扎木东一行还实地参观了江苏海云轩家纺有限公司、如东规划展览馆。', '县政协副主席、工商联主席桑健对新疆伊宁县人大代表、政协委员来如表示欢迎，希望他们多来如东走走看看，互相学习，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A213" t="n">
+        <v>74</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>黑龙江省海林市妇儿工委来海门考察学习</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>2016-05-12</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310FA-04D1-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>['近日，黑龙江省海林市妇儿工委成员单位在郭萍主席的带领下，来到海门考察学习。他们先后考察了海门街道海南社区、创业就业中心、市直机关幼儿园、常乐镇培育村、苏中展洽中心等充分反映海门妇女儿童发展事业水平的地区，对海门妇女儿童发展环境给予了高度肯定。参观结束后，在会展中心会议室里，海林市人社局、教育局、卫计委、妇儿工委的领导与海门对口单位互相交流，热烈讨论目前妇女儿童事业发展中存在问题的解决方法，并表示将借鉴海门先进的做法和经验，推动海林市妇女儿童发展事业再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A214" t="n">
+        <v>74</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>悦来镇组织骨干企业赴浙江考察学习</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2016-09-23</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310FA-431D-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>['9月21—23日，悦来镇党委书记王帆、镇长黄卫国带领部分班子成员及10余家骨干企业董事长组团赴浙江嘉兴、绍兴等地考察学习。', '考察团先后参观了吉安集团、龙盛集团及美科电器等企业，深入了解企业发展历史、现状及未来发展方向。“这次考察机会难得，希望大家珍惜学习机会，积极吸收和借鉴参访企业的先进理念和发展经验，以推动企业自身发展。”镇党委书记王帆在参观过程中强调。', '据悉，吉安集团是以造纸和包装物流为主体的股份制企业，集团业务涵盖造纸、包装、印刷、贸易与物流等。敢于大投入是吉安集团的亮点，最新投入25亿元引进的一条国际先进的全自动生产流水线，是此次学习的重点。吉安公司的大投入给本镇的金呢公司带来了新的商机，投入后，年使用金呢公司产品1500万元，比以往翻番。龙盛集团是通海染整的重要供应商，在拓展销售、品牌创建、环境保护、资金并购业务上有其独特的思路，是本次学习的重点。美科电器是一家专门从事LED照明灯具生产的新兴企业。公司拥有一流的试验室、先进的生产设备、完善的管理体系，生产研发的LED条形灯、筒灯、射灯、球泡灯、蜡烛灯、天花灯、珠宝灯等室内灯具系列，在同行业具有领先优势。该公司在新产品研发、扩展投资布局方面也是值得学习借鉴的。', '“收获很大，深受启发。”这是考察团成员在考察学习期间说得最多的一句话。大家纷纷表示，要将这次考察学习的成果转化为实际行动，以更大的气魄、更新的思路、更快的速度，努力寻求新的突破，为悦来经济社会更好更快发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A215" t="n">
+        <v>74</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>徐州市贾汪区来政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2016-10-14</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310FA-12C1-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>['10月12日上午，徐州市贾汪区常委、纪委书记袁邦庆一行在海门市委常委、纪委书记姚胜，政务服务中心党组书记、主任马竞杰等陪同下来中心考察学习。客人们一边兴致勃勃地参观审批大厅，一边听取了马竞杰主任的简要介绍。随后，主客双方就相互关心的相对集中行政许可改革、政务服务标准化建设、窗口管理等问题进行了热情交流。']</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A216" t="n">
+        <v>74</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>南通港发公司赴盐城大丰港考察学习</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2016-07-05</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>http://gzw.nantong.gov.cn//ntsgzw/bmdt/content/a43c27ea-36e7-4e22-bff5-1d578fa6b7cd.html</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>['6月27日，为推进通州湾港区高标准建设、高层次招商，港发公司总经理张雄壮带队赴沿海兄弟港口单位江苏大丰海港控股集团有限公司考察学习。大丰港集团董事葛曙光等陪同接待洽谈。', '张总一行先后参观了大丰港规划展览馆，莎士比亚小镇、半岛温泉酒店、大型人工湖（日月湖）、中韩跨境电商商务中心等。座谈会上，葛董介绍到，江苏大丰海港控股集团有限公司是一家多元化发展的大型国有企业，现有总资产276亿元，旗下十余家子公司，主要涉及港口物流、海洋工程、农业开发、地产置业、科技产业、海外投资、文化旅游等业务板块。其中，重点发展的港口板块已形成门类齐全的临港产业，包括汽车产业园、进口原糖加工、木材加工，红土镍矿的加工生产，石材产业园，风电机械的加工制造、活牛进口等。2015年，大丰港实现港口吞吐量达7000万吨，集装箱20万标箱，根据集团发展规划，2018年，大丰港吞吐量将破亿吨。', '276亿元，旗下十余家子公司，主要涉及港口物流、海洋工程、农业开发、地产置业、科技产业、海外投资、文化旅游等业务板块。其中，重点发展的港口板块已形成门类齐全的临港产业，包括汽车产业园、进口原糖加工、木材加工，红土镍矿的加工生产，石材产业园，风电机械的加工制造、活牛进口等。2015年，大丰港实现港口吞吐量达7000万吨，集装箱20万标箱，根据集团发展规划，2018年，大丰港吞吐量将破亿吨。']</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A217" t="n">
+        <v>74</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>盐城亭湖区政务服务管理办来政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>2016-09-09</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310FA-42F1-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>['9月9日上午，盐城市亭湖区政务办主任蔡青香等6人来海门市政务服务中心考察学习，市政务服务中心党组书记、主任马竞杰，副主任王剑飞陪同。', '蔡青香主任一行兴致勃勃地察看了中心服务大厅，并详细了解了养老保险、项目建设、市场准入等窗口业务办理情况。', '随后双方来到中心会议室就相互关心的窗口管理、事项审批、网络应用等问题进行了热情交流。', '蔡青香主任对政务服务中心高点定位、规范管理、高效服务、方便群众的做法给予了高度肯定。']</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A218" t="n">
+        <v>74</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>浙江余姚塑料城管委会专程考察学习叠石桥市场采购贸易方式试点</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>2016-04-27</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310FA-0825-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>['2016年4月26日，浙江余姚市中国塑料城管理委员会副主任陆峰、王海强等塑料城管委会一行以及余姚市东方国际物流有限公司总经理姚华明等组团就市场采购贸易方式试点专程在海门工业园区叠石桥国际家纺城参观考察与调研学习。叠石桥市场管委会规划建设科科长赵永根等热情接待并陪同参观考察与座谈交流。', '座谈中，赵永根向陆峰等简要介绍了海门叠石桥市场采购贸易方式试点推进实施进展情况以及阶段性成效。陆峰等余姚塑料城管委会考察团一行认为叠石桥国际家纺城市场采购贸易方式试点工作成效显著，其模式经验非常值得余姚塑料城等类似专业大市场学习借鉴。', '在海期间，陆峰、王海强等塑料城管委会一行在赵永根陪同下饶有兴趣地参观了叠石桥国际家纺城核心交易区精品家纺展销区，并现场观摩了叠石桥国际贸易服务中心以及叠石桥港海关监管场站等外贸综合服务平台。（海门工业园区）']</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A219" t="n">
+        <v>74</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>如东经济开发区管委会主任翟建华一行来海门科技园考察学习</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>2016-03-23</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/qzdt/content/71F310F9-7D27-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>['3月22日下午，如东经济开发区管委会主任翟建华率队一行4人来海门科技园考察学习，临江新区党工委书记徐骏等热情接待。', '徐骏书记详细介绍了海门科技园的发展概况、发展理念、产业规划以及功能平台建设情况，并表示园区正全力打造一个生态环境好、产业内涵深、人文水平高的上海周边科技卫星小镇。双方还就园区的规划建设以及资本运作进行了深入交流，翟主任一行对海门科技园“产业+资本+平台+人才”的发展模式表示十分赞同。', '随后，徐骏书记带领翟主任一行参观了园区的品尚医药、科瑞斯两家企业以及玲珑湖文化商业街项目。']</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A220" t="n">
+        <v>74</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>县工商联组织企业家赴海澜集团考察学习</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>2016-05-11</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>http://www.rudong.gov.cn//rdxrmzf/rdyw/content/3291FA45A5C38D7AE050007F01006270.html</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>['７日至８日，县工商联企业家主席（会长）组织县内20多位企业家，赴江阴市海澜集团考察学习“传统产业转型升级之道”。', '从2011年起，县工商联创新企业家之间沟通、交流与合作的模式，每年企业家轮值主席（会长）组织企业家们开展学习考察活动，已先后前往中天集团、泰州扬子江药业等标杆企业学习，通过“走出去”学习其他企业的成功发展经验，真正让企业家“为我所用”，按照市场经济的发展规律来推动产业发展。在考察学习过程中，我县企业家分别就经营管理、质量创造、人才、资本集聚等议题与海澜集团负责人进行互动交流。', '总部位于江阴市新桥镇的海澜集团，现有总资产５００亿元，在２０１５年中国企业５００强中名列２３８位。作为国内服装龙头企业，集团的发展经历了粗纺起家、精纺发家、服装当家再到品牌连锁经营的历程，凭借“品牌+平台”的经营模式，打造产业链战略联盟，先后成功创建了海澜之家、圣凯诺等多个自主服装品牌及百衣百顺卖场，在“２０１５胡润品牌榜”上，海澜之家继续保持中国服装家纺品牌榜第一名。在做好主业的同时，海澜集团还建成了海澜国际马术俱乐部、马文化博物馆等特色文化产业，实现了从传统的生产制造向服务经济、总部经济转型，走出了一条转型升级的良性发展之路，２０１５年，集团完成营业总收入７５０亿元，当前，企业正向 “千亿海澜” 目标奋进。']</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A221" t="n">
+        <v>74</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>我市党政代表团赴上海考察学习</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>2016-03-17</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/tpxw/content/71F310F9-F683-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>['本报讯 （记者刘海滢 马国兴）昨日，市委书记姜龙，市委副书记、市长杨曹明率我市党政代表团赴上海产业技术研究院、张江高科技园区、上海工程技术大学等地学习考察，受到三家单位负责人热情接待。我市领导陆一飞、鲁亚飞、祁中伟、陈水平、储明星、施渠平、金再勤、李冠斌等参加考察活动。', '今年是“十三五”开局之年，海门如何按照南通发展目标争当领头雁、加快实现新的“两个率先”，创新是关键，项目是重点，上海是学习的榜样和标杆。此次我市党政代表团先后考察了上海产业技术研究院：柔性印刷电子技术实验平台、3D金属打印技术研发实验室、智能机器人研发服务平台、智慧交通工程中心平台、SITI众创空间；张江高科技园区：张江高科技园区展示馆、上海集成电路科技馆、张江创业工坊@碧波690、微创医疗器械（上海）有限公司；上海工程技术大学：服装学院实验室、材料工程学院实验室、城市轨道交通学院实验室、机械工程学院实验室等。', '上海产业技术研究院是我市党政代表团考察学习的第一站，重点学习考察该院的科技创新功能平台。上海产业技术研究院于2012年8月22日成立，致力打造“为共性技术研发、成果转化和产业引领提供统筹、支撑、服务的平台”。参观学习的柔性印刷电子技术实验平台、3D金属打印技术研发实验室、智能机器人研发服务平台、智慧交通工程中心平台，都是致力于当今最先进技术的应用推广，与用户一起创新，一起创造价值。上海产业技术研究院的SITI众创空间，依托产研院的技术和人才资源，三年累计孵化企业245 家。上海产业技术研究院对我市产业技术研究院建设提供借鉴。', '参观结束后，双方座谈，上海产业研究院院长钮晓鸣对我市党政代表团的到来表示热烈欢迎，并介绍了上海产业技术研究院建设发展情况。我市市委书记姜龙简要介绍了海门经济社会发展情况。姜龙说，我们慕名而来，通过参观学习，大开眼界。学习上海、接轨上海、融入上海，是我们创新发展的重点，海门建设先进制造业基地，更加注重科技创新、成果转化，真诚希望能与上海产业技术研究院合作，将海门作为一个产业技术研究的基地。钮晓鸣表示，医疗产业、智能产业、环保产业是重点发展的产业，希望将海门作为一个基地，合作双赢。', '张江高科技园区一直是我市科技创新学习的榜样。张江高科技园区始建于1992年，是国家级重点高新技术开发区，现有注册企业1万余家，初步形成了以信息技术、生物医药、文化创意、低碳环保等为重点的主导产业。区内企业创新能力强、发展层次高，微创医疗器械（上海）有限公司就是代表之一。微创医疗器械（上海）有限公司于1998年5月在上海张江高科技园区成立，是中国领先的高端医疗器械集团。该公司开发的多个产品世界第一，微创的产品在全球有逾3500家医院使用，覆盖了亚太、北美、南美及欧洲等主要市场。学习参观上海集成电路科技馆后，大家了解了集成电路形成的过程。张江创业工坊@碧波690是张江集团投贷孵学平台推出的专业化创业服务平台，目前入驻40多家创新团队。这对我市打造众创空间启发很大。', '上海工程技术大学是我市党政代表团考察的最后一站。上海工程技术大学是工程技术、经济管理和艺术设计等多学科互相渗透、协调发展的全日制普通高等学校。学习考察上海工程技术大学二级学院的实验室后，大家感到高校创新资源足，合作领域广。材料工程学院实验室的上海市高强激光智能加工装备关键技术产学研开发中心、城市轨道交通学院实验室的轨道交通运营安全检测与评估服务中心、机械工程学院实验室的计算机集成制造研究中心、服装学院实验室的服装电子商务工作室等创新功能平台，给大家留下了深刻印象。', '学习参观结束后，双方就校市合作进行座谈。上海工程技术大学党委书记李江、校长夏建国介绍了上海工程技术大学发展情况，他们希望与我市建立校市合作关系，发挥上海工程技术大学的国家级大学科技园作用，在海门建立分园，将海门作为人才培养的基地，不断探索产学研合作新路径。市委书记姜龙、市长杨曹明介绍了海门发展情况。姜龙说，“十三五”海门提出实现“两个率先”目标，建设有影响力的科技成果转化的产业集聚区，有竞争力的先进制造业基地，宜居宜业的花园城市。融入上海，接受上海辐射，是我们实现新目标的关键之举。这次慕名到上海工程技术大学学习考察，启发很大、感受很深，希望与上海工程技术大学建立校市全面合作，提升海门的创新能力，推动海门产业转型升级。双方达成了校市合作的初步意向。']</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A222" t="n">
+        <v>74</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>南京市计生协会长陈礼勤一行来通考察学习</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>2016-03-21</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>http://wjw.nantong.gov.cn//ntswjw/bmdt/content/9560679219.html</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>['【南通市计生协秘书处】3月16-18日，南京市计划生育协会会长（南京市人大党组成员、原副主任）陈礼勤、常务副会长姬桂玲一行9人来我市考察学习。市卫计委主任王晓敏、党组书记葛维先陪同考察或参加座谈交流。在座谈会上，委党组成员杨国泉、市计生协副会长胡银泉向陈会长一行介绍了我市开展生育关怀行动的做法和体会。陈礼勤会长一行高度赞扬了我市生育关怀行动中的一些创新举措，并表示将学习借鉴我市计生协系统开展的计生特殊家庭心理援助工程做法和经验，逐步在南京市推广。']</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A223" t="n">
+        <v>74</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>教育局组织乡镇小学校长到昆山市千灯小学考察学习</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>2016-03-14</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310FA-47B5-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>['3月9日，海门市所有乡镇小学校长，教育局教研室小学学科教研组成员，在教育局倪强副局长、基础教育科杨川美科长的带领下，来到坐落于苏州千年古镇千灯的昆山市千灯中心小学进行了为期一天的学习考察活动。', '创办于1905年的昆山市千灯小学是一所百年老校，有着丰厚人文内涵。近年来，该校在储昌楼校长的带领下，积极投入新教育实验，在“文化立校，课程育人”的办学思想引领下，形成了鲜明的办学特色。这次的考察学习，就是从学校文化建设和课程建设开始。', '上午，考察团来到千灯小学，受到储昌楼校长的热情接待。在储校长的带领下，考察团参观了千灯小学南校区。这是一个政府投资1.5亿元新建的校区。校园将古镇文化与学校文化充分结合，将传统文化与现代文明完美融合，将新教育理念融通于学校理想愿景与行动方式，展现了一个现代化农村小学的美丽。“美雅”文化的气质在整个校园文化建设中得以体现，“好学校”的因子已经根植与每一个与千灯这个名字相关的人与物之中。考察团还进入教室，听取了一节随堂课。', '下午，来到千灯小学北校区。这是一个有着百年历史的老校，校园阴雨的树木，回环的廊道，飘满着古镇味道的橱窗，甚至是剥落下墙砖的校舍，处处流淌着的是千灯世界里的话语。在体育馆精致的演出台上，韵味十足的昆曲在千小孩子们的演绎下，绽放出其独有的味道。储校长一边陪同观看，一边就昆曲特色课程的开发，做了详细的介绍。让所有参观者感受到了学校将地方课程融入学校教育中，所体现出的及其旺盛的生命力。在会议室，储校长就学校课程建设以及学校管理方面，进行了详尽的介绍。作为专家型的校长，储校长以学校文化建设和课程开发为抓手，短短三年时间，将一所普通的农村小学打造成一流学校，充分体现了他的办学智慧和水平。', '在千灯小学的行程虽然短暂，但留下的思考与收获却很多。储昌楼校长对校园文化建构的独到见解，在与师生互动中举手投足所展露出的人文关怀以及该校丰硕的办学成果，让考察团成员深切感受到储校长精深的理论素养和执着的教育追求，我们所有校长上了生动的一课。', '本次考察学习，给处于如何将原有学校原有特色文化提档升级和深度推进，如何进一步丰富学校内涵、提升教育的品质，困扰着的农村小学校长们以最大的启迪和智慧。相信，我市所有农村小学，将在未来的“一校一品”建设中，出现更多的高品质农村小学，从而促进我市小学教育的优质均衡发展。']</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A224" t="n">
+        <v>74</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>市行政服务中心前往无锡锡山区考察学习</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>2011-07-27</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-7399-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>['7月22日，市行政服务中心主任沈祖龙一行7人前往无锡市锡山区参观考察。无锡市锡山区政府办公室副主任、行政服务中心常务副主任钱雨晨热情接待，主要介绍了锡山区行政服务中心的事项进驻、管理举措、特色工作等方面的情况。两中心之间还就全面提升行政服务效能，提供优质高效的行政服务等方面的问题进行了交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A225" t="n">
+        <v>74</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>市行政服务中心赴昆山市行政服务中心考察学习</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>2011-07-27</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>http://www.haimen.gov.cn/hmsrmzf/bmdt/content/71F310F9-7397-9DC8-E053-FD7F52026FB4.html</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>['2011年7月26日，市行政服务中心主任沈祖龙一行前往昆山市行政服务中心学习考察。昆山市行政服务中心主任徐红生热情接待，并详细介绍了中心的事项进驻、管理举措、绿色通道服务等方面的情况。两中心之间还就全面提升行政服务效能，提供优质高效的行政服务等方面的问题进行了交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A226" t="n">
+        <v>74</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>南通市</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>南通滨海园区经发局赴南通开发区考察学习</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>2013-03-08</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>http://tzw.nantong.gov.cn//tzwjhldkfsfq/ywsd/content/D9A2D4F7DC004D3295DE363878864979.html</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>['人来到南通开发区经贸局交流学习。经发局人员详细了解了南通开发区经贸局的职能定位、科室分工、人员编制以及市级对口部门情况。南通开发区经贸局领导关于“经发局就是领导的参谋、助手、抓手”的定位既形象生动，又一语中的，给大家带来了很大触动，“经发局就是企业娘家”的理念已经深深扎根我局人员的脑海里。南通开发区经贸局在项目审批、企业服务、政策制定等方面的先进做法和成功经验让经发局人员深受启发，这次交流学习不仅更新了理念，也学到了真招、实招和妙招，大家深感获益良多。经发局将以这次交流学习为契机，以“主动办、马上办、办最好”为我局的服务品牌，努力实现领导满意、企业满意、招商见效的工作目标。']</t>
         </is>
